--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA945C8-9506-4771-A6BC-B6EA2DC7F935}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6EFE9A-C269-4793-B1D4-34D3873DD220}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="333">
   <si>
     <t>INPUTS - PURCHASING MANAGER</t>
   </si>
@@ -929,24 +929,9 @@
     <t>Electroclean</t>
   </si>
   <si>
-    <t>RECONCILIACIÓN CON REPORTES EXSIM</t>
-  </si>
-  <si>
-    <t>Pega reportes del simulador aquí para comparar</t>
-  </si>
-  <si>
     <t>RAW MATERIALS INVENTORY</t>
   </si>
   <si>
-    <t>EXSIM Q1</t>
-  </si>
-  <si>
-    <t>Modelo Q1</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>ESG - EMISIONES CO2</t>
   </si>
   <si>
@@ -969,6 +954,102 @@
   </si>
   <si>
     <t>Total CO2</t>
+  </si>
+  <si>
+    <t>11. SENSIBILIDAD DEMANDA</t>
+  </si>
+  <si>
+    <t>Factor Demanda</t>
+  </si>
+  <si>
+    <t>1.0 = Base</t>
+  </si>
+  <si>
+    <t>CALENDARIO POR SECCION (Lead Time 1Q)</t>
+  </si>
+  <si>
+    <t>Seccion</t>
+  </si>
+  <si>
+    <t>S5 - Final (EC)</t>
+  </si>
+  <si>
+    <t>S4 - Piezas</t>
+  </si>
+  <si>
+    <t>S3 - Semi</t>
+  </si>
+  <si>
+    <t>S2 - Parte B</t>
+  </si>
+  <si>
+    <t>S1 - Parte A</t>
+  </si>
+  <si>
+    <t>RECONCILIACION CON REPORTES EXSIM</t>
+  </si>
+  <si>
+    <t>Pega reportes del simulador aqui para comparar</t>
+  </si>
+  <si>
+    <t>EXSIM (pegar aqui)</t>
+  </si>
+  <si>
+    <t>Umbral (abs)</t>
+  </si>
+  <si>
+    <t>MODELO (Inv_Final)</t>
+  </si>
+  <si>
+    <t>DIFERENCIAS (EXSIM - MODELO)</t>
+  </si>
+  <si>
+    <t>Error Acum</t>
+  </si>
+  <si>
+    <t>Semaforo</t>
+  </si>
+  <si>
+    <t>ERROR TOTAL</t>
+  </si>
+  <si>
+    <t>MONTE CARLO - COSTO ESPERADO</t>
+  </si>
+  <si>
+    <t>Costo Base</t>
+  </si>
+  <si>
+    <t>Stockout si falla A</t>
+  </si>
+  <si>
+    <t>Stockout si falla B</t>
+  </si>
+  <si>
+    <t>Simulacion (100 corridas)</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Falla A</t>
+  </si>
+  <si>
+    <t>Falla B</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>SENSIBILIDAD DEMANDA</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Factor Base</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1365,6 +1446,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1723,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
@@ -1736,49 +1818,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1846,12 +1928,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -1980,12 +2062,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2114,12 +2196,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2266,12 +2348,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2409,13 +2491,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2474,15 +2556,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2573,15 +2655,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2672,12 +2754,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2778,22 +2860,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -2821,11 +2903,11 @@
       </c>
       <c r="C91" s="22">
         <f>BOM_Consumo!K6/8</f>
-        <v>1850</v>
+        <v>1464980162650</v>
       </c>
       <c r="D91" s="22">
         <f t="shared" ref="D91:D98" si="1">B91*C91</f>
-        <v>1850</v>
+        <v>1464980162650</v>
       </c>
       <c r="E91" s="23" t="str">
         <f t="shared" ref="E91:E98" si="2">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
@@ -2841,11 +2923,11 @@
       </c>
       <c r="C92" s="22">
         <f>BOM_Consumo!K7/8</f>
-        <v>370</v>
+        <v>542042660095030</v>
       </c>
       <c r="D92" s="22">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>542042660095030</v>
       </c>
       <c r="E92" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2861,11 +2943,11 @@
       </c>
       <c r="C93" s="22">
         <f>BOM_Consumo!K8/8</f>
-        <v>18.5</v>
+        <v>9.275705020875409E+19</v>
       </c>
       <c r="D93" s="22">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>1.8551410041750818E+20</v>
       </c>
       <c r="E93" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2881,11 +2963,11 @@
       </c>
       <c r="C94" s="22">
         <f>BOM_Consumo!K9/8</f>
-        <v>14800</v>
+        <v>7.4205640167003276E+22</v>
       </c>
       <c r="D94" s="22">
         <f t="shared" si="1"/>
-        <v>14800</v>
+        <v>7.4205640167003276E+22</v>
       </c>
       <c r="E94" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2901,11 +2983,11 @@
       </c>
       <c r="C95" s="22">
         <f>BOM_Consumo!K10/8</f>
-        <v>555</v>
+        <v>2.7827115062626233E+21</v>
       </c>
       <c r="D95" s="22">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>2.7827115062626233E+21</v>
       </c>
       <c r="E95" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2921,11 +3003,11 @@
       </c>
       <c r="C96" s="22">
         <f>BOM_Consumo!K11/8</f>
-        <v>1110</v>
+        <v>5.5654230125252465E+21</v>
       </c>
       <c r="D96" s="22">
         <f t="shared" si="1"/>
-        <v>1110</v>
+        <v>5.5654230125252465E+21</v>
       </c>
       <c r="E96" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2941,11 +3023,11 @@
       </c>
       <c r="C97" s="22">
         <f>BOM_Consumo!K12/8</f>
-        <v>3700</v>
+        <v>1.8551410041750819E+22</v>
       </c>
       <c r="D97" s="22">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>1.8551410041750819E+22</v>
       </c>
       <c r="E97" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2961,15 +3043,32 @@
       </c>
       <c r="C98" s="22">
         <f>BOM_Consumo!K13/8</f>
-        <v>1387.5</v>
+        <v>6.9567787656565584E+21</v>
       </c>
       <c r="D98" s="22">
         <f t="shared" si="1"/>
-        <v>1387.5</v>
+        <v>6.9567787656565584E+21</v>
       </c>
       <c r="E98" s="23" t="str">
         <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101">
+        <f>Escenarios!$E$29</f>
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3008,40 +3107,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3088,18 +3187,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -3135,8 +3234,8 @@
         <v>19</v>
       </c>
       <c r="B14" s="60" t="str">
-        <f>Inputs!B58</f>
-        <v>Ordering Cost</v>
+        <f>Inputs!B69</f>
+        <v>A</v>
       </c>
       <c r="C14" s="33">
         <f>SUM(Compras_y_Lotes!F18:F25)</f>
@@ -3155,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="63">
-        <f>F14/Inputs!B24</f>
+        <f>F14/Inputs!B23</f>
         <v>0</v>
       </c>
       <c r="H14" s="37">
@@ -3172,7 +3271,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="60" t="str">
-        <f>Inputs!B69</f>
+        <f>Inputs!B77</f>
         <v>A</v>
       </c>
       <c r="C15" s="33">
@@ -3192,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="63">
-        <f>F15/Inputs!B25</f>
+        <f>F15/Inputs!B24</f>
         <v>0</v>
       </c>
       <c r="H15" s="37">
@@ -3205,16 +3304,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -3266,7 +3365,7 @@
         <f>C20+F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="89"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -3292,7 +3391,7 @@
         <f>C21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="89"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -3318,7 +3417,7 @@
         <f>C22+F22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="89"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -3344,7 +3443,1876 @@
         <f>C23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="89"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26">
+        <f>Costos!F13</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27">
+        <f>IF(B14="B",SUM(Compras_y_Lotes!F18:F25)*Inputs!B35/Inputs!B23*$B$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28">
+        <f>IF(B15="B",SUM(Compras_y_Lotes!F26:F33)*Inputs!B36/Inputs!B24*$B$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>ROW()-30</f>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f ca="1">IF($B$14="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f ca="1">IF($B$15="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f ca="1">$B$26+B31*$B$27+C31*$B$28</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" ref="A32:A95" si="0">ROW()-30</f>
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B95" ca="1" si="1">IF($B$14="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C95" ca="1" si="2">IF($B$15="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D95" ca="1" si="3">$B$26+B32*$B$27+C32*$B$28</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" ref="A96:A130" si="4">ROW()-30</f>
+        <v>66</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96:B130" ca="1" si="5">IF($B$14="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:C130" ca="1" si="6">IF($B$15="B",--(RAND()&lt;=$B$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:D130" ca="1" si="7">$B$26+B96*$B$27+C96*$B$28</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5792471470981802E+24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132">
+        <f ca="1">AVERAGE(D31:D130)</f>
+        <v>3.5792471470981786E+24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>329</v>
+      </c>
+      <c r="D133">
+        <f ca="1">_xlfn.PERCENTILE.INC(D31:D130,0.9)</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3374,48 +5342,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -3455,7 +5423,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -3480,7 +5448,7 @@
       </c>
       <c r="J6" s="37">
         <f>B6</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3571,7 +5539,7 @@
       </c>
       <c r="B9" s="67">
         <f t="shared" ref="B9:J9" si="0">SUM(B6:B8)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C9" s="67">
         <f t="shared" si="0"/>
@@ -3603,22 +5571,22 @@
       </c>
       <c r="J9" s="67">
         <f t="shared" si="0"/>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -3776,18 +5744,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -3831,35 +5799,35 @@
       </c>
       <c r="C21" s="37">
         <f>(Inventario_Dinamico!C7+Inventario_Dinamico!C10)/2*Inputs!$C$59</f>
-        <v>521.1</v>
+        <v>-512576.39999999997</v>
       </c>
       <c r="D21" s="37">
         <f>(Inventario_Dinamico!D7+Inventario_Dinamico!D10)/2*Inputs!$C$59</f>
-        <v>-33.9</v>
+        <v>-950769701.39999998</v>
       </c>
       <c r="E21" s="37">
         <f>(Inventario_Dinamico!E7+Inventario_Dinamico!E10)/2*Inputs!$C$59</f>
-        <v>-588.9</v>
+        <v>-1758926450951.3999</v>
       </c>
       <c r="F21" s="37">
         <f>(Inventario_Dinamico!F7+Inventario_Dinamico!F10)/2*Inputs!$C$59</f>
-        <v>-1143.8999999999999</v>
+        <v>-3515952388451.3999</v>
       </c>
       <c r="G21" s="37">
         <f>(Inventario_Dinamico!G7+Inventario_Dinamico!G10)/2*Inputs!$C$59</f>
-        <v>-1698.8999999999999</v>
+        <v>-3515952388451.3999</v>
       </c>
       <c r="H21" s="37">
         <f>(Inventario_Dinamico!H7+Inventario_Dinamico!H10)/2*Inputs!$C$59</f>
-        <v>-2253.9</v>
+        <v>-3515952388451.3999</v>
       </c>
       <c r="I21" s="37">
         <f>(Inventario_Dinamico!I7+Inventario_Dinamico!I10)/2*Inputs!$C$59</f>
-        <v>-2808.9</v>
+        <v>-3515952388728.8999</v>
       </c>
       <c r="J21" s="37">
         <f>SUM(B21:I21)</f>
-        <v>-6931.2000000000007</v>
+        <v>-15823687286236.201</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3872,35 +5840,35 @@
       </c>
       <c r="C22" s="37">
         <f>(Inventario_Dinamico!C13+Inventario_Dinamico!C16)/2*Inputs!$C$60</f>
-        <v>2263.5</v>
+        <v>-1537029</v>
       </c>
       <c r="D22" s="37">
         <f>(Inventario_Dinamico!D13+Inventario_Dinamico!D16)/2*Inputs!$C$60</f>
-        <v>598.5</v>
+        <v>-2852308404</v>
       </c>
       <c r="E22" s="37">
         <f>(Inventario_Dinamico!E13+Inventario_Dinamico!E16)/2*Inputs!$C$60</f>
-        <v>-1066.5</v>
+        <v>-5276779352154</v>
       </c>
       <c r="F22" s="37">
         <f>(Inventario_Dinamico!F13+Inventario_Dinamico!F16)/2*Inputs!$C$60</f>
-        <v>-2731.5</v>
+        <v>-9762041810289654</v>
       </c>
       <c r="G22" s="37">
         <f>(Inventario_Dinamico!G13+Inventario_Dinamico!G16)/2*Inputs!$C$60</f>
-        <v>-4396.5</v>
+        <v>-1.9513535763414656E+16</v>
       </c>
       <c r="H22" s="37">
         <f>(Inventario_Dinamico!H13+Inventario_Dinamico!H16)/2*Inputs!$C$60</f>
-        <v>-6061.5</v>
+        <v>-1.9513535763414656E+16</v>
       </c>
       <c r="I22" s="37">
         <f>(Inventario_Dinamico!I13+Inventario_Dinamico!I16)/2*Inputs!$C$60</f>
-        <v>-7726.5</v>
+        <v>-1.9513535763415488E+16</v>
       </c>
       <c r="J22" s="37">
         <f>SUM(B22:I22)</f>
-        <v>-15192</v>
+        <v>-6.8307928733728112E+16</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,88 +5881,88 @@
       </c>
       <c r="C23" s="67">
         <f t="shared" si="2"/>
-        <v>2784.6</v>
+        <v>-2049605.4</v>
       </c>
       <c r="D23" s="67">
         <f t="shared" si="2"/>
-        <v>564.6</v>
+        <v>-3803078105.4000001</v>
       </c>
       <c r="E23" s="67">
         <f t="shared" si="2"/>
-        <v>-1655.4</v>
+        <v>-7035705803105.4004</v>
       </c>
       <c r="F23" s="67">
         <f t="shared" si="2"/>
-        <v>-3875.3999999999996</v>
+        <v>-9765557762678106</v>
       </c>
       <c r="G23" s="67">
         <f t="shared" si="2"/>
-        <v>-6095.4</v>
+        <v>-1.9517051715803108E+16</v>
       </c>
       <c r="H23" s="67">
         <f t="shared" si="2"/>
-        <v>-8315.4</v>
+        <v>-1.9517051715803108E+16</v>
       </c>
       <c r="I23" s="67">
         <f t="shared" si="2"/>
-        <v>-10535.4</v>
+        <v>-1.9517051715804216E+16</v>
       </c>
       <c r="J23" s="67">
         <f t="shared" si="2"/>
-        <v>-22123.200000000001</v>
+        <v>-6.8323752421014352E+16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="92" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="68">
         <f t="shared" ref="B26:J26" si="3">B9+B16+B23</f>
-        <v>718958.6</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C26" s="68">
         <f t="shared" si="3"/>
-        <v>2784.6</v>
+        <v>-2049605.4</v>
       </c>
       <c r="D26" s="68">
         <f t="shared" si="3"/>
-        <v>564.6</v>
+        <v>-3803078105.4000001</v>
       </c>
       <c r="E26" s="68">
         <f t="shared" si="3"/>
-        <v>-1655.4</v>
+        <v>-7035705803105.4004</v>
       </c>
       <c r="F26" s="68">
         <f t="shared" si="3"/>
-        <v>-3875.3999999999996</v>
+        <v>-9765557762678106</v>
       </c>
       <c r="G26" s="68">
         <f t="shared" si="3"/>
-        <v>-6095.4</v>
+        <v>-1.9517051715803108E+16</v>
       </c>
       <c r="H26" s="68">
         <f t="shared" si="3"/>
-        <v>-8315.4</v>
+        <v>-1.9517051715803108E+16</v>
       </c>
       <c r="I26" s="68">
         <f t="shared" si="3"/>
-        <v>-10535.4</v>
+        <v>-1.9517051715804216E+16</v>
       </c>
       <c r="J26" s="68">
         <f t="shared" si="3"/>
-        <v>691830.8</v>
+        <v>3.5792471470981802E+24</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
+      <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -4002,7 +5970,7 @@
       </c>
       <c r="B30" s="69">
         <f>MAX(B26:I26)</f>
-        <v>718958.6</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>247</v>
@@ -4014,7 +5982,7 @@
       </c>
       <c r="B31" s="69">
         <f>MIN(B26:I26)</f>
-        <v>-10535.4</v>
+        <v>-1.9517051715804216E+16</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>249</v>
@@ -4026,7 +5994,7 @@
       </c>
       <c r="B32" s="69">
         <f>AVERAGE(B26:I26)</f>
-        <v>86478.849999999977</v>
+        <v>4.4740589338727245E+23</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>251</v>
@@ -4038,7 +6006,7 @@
       </c>
       <c r="B33" s="69">
         <f>STDEV(B26:I26)</f>
-        <v>255598.97798015541</v>
+        <v>1.2654549922348287E+24</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>253</v>
@@ -4074,31 +6042,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4126,7 +6094,7 @@
       </c>
       <c r="C6" s="33">
         <f>Compras_y_Lotes!E7</f>
-        <v>5</v>
+        <v>2.4735213389001101E+19</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>261</v>
@@ -4145,7 +6113,7 @@
       </c>
       <c r="C7" s="33">
         <f>Compras_y_Lotes!E8</f>
-        <v>9867</v>
+        <v>4.9470426778002203E+22</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>261</v>
@@ -4164,7 +6132,7 @@
       </c>
       <c r="C8" s="33">
         <f>Compras_y_Lotes!E9</f>
-        <v>4440</v>
+        <v>2.2261692050100999E+22</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>261</v>
@@ -4183,7 +6151,7 @@
       </c>
       <c r="C9" s="33">
         <f>Compras_y_Lotes!E10</f>
-        <v>89</v>
+        <v>4.4523384100202001E+20</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>261</v>
@@ -4202,7 +6170,7 @@
       </c>
       <c r="C10" s="33">
         <f>Compras_y_Lotes!E11</f>
-        <v>987</v>
+        <v>4.9470426778002197E+21</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>261</v>
@@ -4221,7 +6189,7 @@
       </c>
       <c r="C11" s="33">
         <f>Compras_y_Lotes!E12</f>
-        <v>185</v>
+        <v>9.27570502087541E+20</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>261</v>
@@ -4232,13 +6200,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -4418,13 +6386,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -4628,31 +6596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4828,7 +6796,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4837,37 +6805,37 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>273</v>
       </c>
@@ -4884,7 +6852,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>278</v>
       </c>
@@ -4901,7 +6869,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>282</v>
       </c>
@@ -4918,7 +6886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>284</v>
       </c>
@@ -4935,7 +6903,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>286</v>
       </c>
@@ -4952,7 +6920,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>288</v>
       </c>
@@ -4967,6 +6935,225 @@
       </c>
       <c r="E10" s="9" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14">
+        <f>Inputs!B6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="C14">
+        <f>Inputs!C6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="D14">
+        <f>Inputs!D6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="E14">
+        <f>Inputs!E6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="F14">
+        <f>Inputs!F6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="G14">
+        <f>Inputs!G6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="H14">
+        <f>Inputs!H6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+      <c r="I14">
+        <f>Inputs!I6*Inputs!$B$101</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15">
+        <f>IFERROR(C14,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:I18" si="0">IFERROR(D14,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16">
+        <f>IFERROR(C15,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17">
+        <f>IFERROR(C16,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18">
+        <f>IFERROR(C17,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +7169,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4991,217 +7178,895 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="J5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35">
-        <v>0</v>
-      </c>
-      <c r="C6" s="71">
+      <c r="B7" s="35"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="75">
         <f>Inventario_Dinamico!B10</f>
         <v>2662</v>
       </c>
-      <c r="D6" s="72">
-        <f t="shared" ref="D6:D13" si="0">IFERROR(B6-C6,0)</f>
-        <v>-2662</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" ref="E6:E13" si="1">IF(ABS(D6)&gt;100,"REVISAR","OK")</f>
-        <v>REVISAR</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="C18" s="75">
+        <f>Inventario_Dinamico!C10</f>
+        <v>-3419838</v>
+      </c>
+      <c r="D18" s="75">
+        <f>Inventario_Dinamico!D10</f>
+        <v>-6335044838</v>
+      </c>
+      <c r="E18" s="75">
+        <f>Inventario_Dinamico!E10</f>
+        <v>-11719841294838</v>
+      </c>
+      <c r="F18" s="75">
+        <f>Inventario_Dinamico!F10</f>
+        <v>-11719841294838</v>
+      </c>
+      <c r="G18" s="75">
+        <f>Inventario_Dinamico!G10</f>
+        <v>-11719841294838</v>
+      </c>
+      <c r="H18" s="75">
+        <f>Inventario_Dinamico!H10</f>
+        <v>-11719841294838</v>
+      </c>
+      <c r="I18" s="75">
+        <f>Inventario_Dinamico!I10</f>
+        <v>-11719841296688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="71">
-        <f>Inventario_Dinamico!B15</f>
-        <v>370</v>
-      </c>
-      <c r="D7" s="72">
-        <f t="shared" si="0"/>
-        <v>-370</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>REVISAR</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B19" s="75">
+        <f>Inventario_Dinamico!B16</f>
+        <v>688</v>
+      </c>
+      <c r="C19" s="75">
+        <f>Inventario_Dinamico!C16</f>
+        <v>-683812</v>
+      </c>
+      <c r="D19" s="75">
+        <f>Inventario_Dinamico!D16</f>
+        <v>-1267008812</v>
+      </c>
+      <c r="E19" s="75">
+        <f>Inventario_Dinamico!E16</f>
+        <v>-2343968258812</v>
+      </c>
+      <c r="F19" s="75">
+        <f>Inventario_Dinamico!F16</f>
+        <v>-4336341280758812</v>
+      </c>
+      <c r="G19" s="75">
+        <f>Inventario_Dinamico!G16</f>
+        <v>-4336341280758812</v>
+      </c>
+      <c r="H19" s="75">
+        <f>Inventario_Dinamico!H16</f>
+        <v>-4336341280758812</v>
+      </c>
+      <c r="I19" s="75">
+        <f>Inventario_Dinamico!I16</f>
+        <v>-4336341280759182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="71">
-        <f>Inventario_Dinamico!B20</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="B20" s="75">
+        <f>Inventario_Dinamico!B22</f>
+        <v>111.5</v>
+      </c>
+      <c r="C20" s="75">
+        <f>Inventario_Dinamico!C22</f>
+        <v>-34113.5</v>
+      </c>
+      <c r="D20" s="75">
+        <f>Inventario_Dinamico!D22</f>
+        <v>-63350363.5</v>
+      </c>
+      <c r="E20" s="75">
+        <f>Inventario_Dinamico!E22</f>
+        <v>-117198412863.5</v>
+      </c>
+      <c r="F20" s="75">
+        <f>Inventario_Dinamico!F22</f>
+        <v>-216817064037863.5</v>
+      </c>
+      <c r="G20" s="75">
+        <f>Inventario_Dinamico!G22</f>
+        <v>-4.0111156847028787E+17</v>
+      </c>
+      <c r="H20" s="75">
+        <f>Inventario_Dinamico!H22</f>
+        <v>-7.4205640167003272E+20</v>
+      </c>
+      <c r="I20" s="75">
+        <f>Inventario_Dinamico!I22</f>
+        <v>-7.4205640167003272E+20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" s="71">
-        <f>Inventario_Dinamico!B25</f>
-        <v>5268</v>
-      </c>
-      <c r="D9" s="72">
-        <f t="shared" si="0"/>
-        <v>-5268</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>REVISAR</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B21" s="75">
+        <f>Inventario_Dinamico!B28</f>
+        <v>-9532</v>
+      </c>
+      <c r="C21" s="75">
+        <f>Inventario_Dinamico!C28</f>
+        <v>-27389532</v>
+      </c>
+      <c r="D21" s="75">
+        <f>Inventario_Dinamico!D28</f>
+        <v>-50680389532</v>
+      </c>
+      <c r="E21" s="75">
+        <f>Inventario_Dinamico!E28</f>
+        <v>-93758730389532</v>
+      </c>
+      <c r="F21" s="75">
+        <f>Inventario_Dinamico!F28</f>
+        <v>-1.7345365123038954E+17</v>
+      </c>
+      <c r="G21" s="75">
+        <f>Inventario_Dinamico!G28</f>
+        <v>-3.2088925477623038E+20</v>
+      </c>
+      <c r="H21" s="75">
+        <f>Inventario_Dinamico!H28</f>
+        <v>-5.9364512133602621E+23</v>
+      </c>
+      <c r="I21" s="75">
+        <f>Inventario_Dinamico!I28</f>
+        <v>-5.9364512133602621E+23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="35">
-        <v>0</v>
-      </c>
-      <c r="C10" s="71" t="str">
-        <f>Inventario_Dinamico!B30</f>
-        <v>Q1</v>
-      </c>
-      <c r="D10" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B22" s="75">
+        <f>Inventario_Dinamico!B34</f>
+        <v>3778</v>
+      </c>
+      <c r="C22" s="75">
+        <f>Inventario_Dinamico!C34</f>
+        <v>-1022972</v>
+      </c>
+      <c r="D22" s="75">
+        <f>Inventario_Dinamico!D34</f>
+        <v>-1900510472</v>
+      </c>
+      <c r="E22" s="75">
+        <f>Inventario_Dinamico!E34</f>
+        <v>-3515952385472</v>
+      </c>
+      <c r="F22" s="75">
+        <f>Inventario_Dinamico!F34</f>
+        <v>-6504511921135472</v>
+      </c>
+      <c r="G22" s="75">
+        <f>Inventario_Dinamico!G34</f>
+        <v>-1.2033347054108635E+19</v>
+      </c>
+      <c r="H22" s="75">
+        <f>Inventario_Dinamico!H34</f>
+        <v>-2.2261692050100986E+22</v>
+      </c>
+      <c r="I22" s="75">
+        <f>Inventario_Dinamico!I34</f>
+        <v>-2.2261692050100986E+22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="35">
-        <v>0</v>
-      </c>
-      <c r="C11" s="71">
-        <f>Inventario_Dinamico!B35</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="35">
-        <v>0</v>
-      </c>
-      <c r="C12" s="71">
+      <c r="B23" s="75">
         <f>Inventario_Dinamico!B40</f>
         <v>7377</v>
       </c>
-      <c r="D12" s="72">
+      <c r="C23" s="75">
+        <f>Inventario_Dinamico!C40</f>
+        <v>-2046123</v>
+      </c>
+      <c r="D23" s="75">
+        <f>Inventario_Dinamico!D40</f>
+        <v>-3801021123</v>
+      </c>
+      <c r="E23" s="75">
+        <f>Inventario_Dinamico!E40</f>
+        <v>-7031904771123</v>
+      </c>
+      <c r="F23" s="75">
+        <f>Inventario_Dinamico!F40</f>
+        <v>-1.3009023842271124E+16</v>
+      </c>
+      <c r="G23" s="75">
+        <f>Inventario_Dinamico!G40</f>
+        <v>-2.406669410821727E+19</v>
+      </c>
+      <c r="H23" s="75">
+        <f>Inventario_Dinamico!H40</f>
+        <v>-4.4523384100201972E+22</v>
+      </c>
+      <c r="I23" s="75">
+        <f>Inventario_Dinamico!I40</f>
+        <v>-4.4523384100201972E+22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="75">
+        <f>Inventario_Dinamico!B46</f>
+        <v>19492</v>
+      </c>
+      <c r="C24" s="75">
+        <f>Inventario_Dinamico!C46</f>
+        <v>-6825508</v>
+      </c>
+      <c r="D24" s="75">
+        <f>Inventario_Dinamico!D46</f>
+        <v>-12670075508</v>
+      </c>
+      <c r="E24" s="75">
+        <f>Inventario_Dinamico!E46</f>
+        <v>-23439682575508</v>
+      </c>
+      <c r="F24" s="75">
+        <f>Inventario_Dinamico!F46</f>
+        <v>-4.3363412807575504E+16</v>
+      </c>
+      <c r="G24" s="75">
+        <f>Inventario_Dinamico!G46</f>
+        <v>-8.0222313694057578E+19</v>
+      </c>
+      <c r="H24" s="75">
+        <f>Inventario_Dinamico!H46</f>
+        <v>-1.4841128033400655E+23</v>
+      </c>
+      <c r="I24" s="75">
+        <f>Inventario_Dinamico!I46</f>
+        <v>-1.4841128033400655E+23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="75">
+        <f>Inventario_Dinamico!B52</f>
+        <v>4647.5</v>
+      </c>
+      <c r="C25" s="75">
+        <f>Inventario_Dinamico!C52</f>
+        <v>-2562227.5</v>
+      </c>
+      <c r="D25" s="75">
+        <f>Inventario_Dinamico!D52</f>
+        <v>-4751280977.5</v>
+      </c>
+      <c r="E25" s="75">
+        <f>Inventario_Dinamico!E52</f>
+        <v>-8789880968477.5</v>
+      </c>
+      <c r="F25" s="75">
+        <f>Inventario_Dinamico!F52</f>
+        <v>-1.6261279802843478E+16</v>
+      </c>
+      <c r="G25" s="75">
+        <f>Inventario_Dinamico!G52</f>
+        <v>-3.0083367635271594E+19</v>
+      </c>
+      <c r="H25" s="75">
+        <f>Inventario_Dinamico!H52</f>
+        <v>-5.5654230125252467E+22</v>
+      </c>
+      <c r="I25" s="75">
+        <f>Inventario_Dinamico!I52</f>
+        <v>-5.5654230125252467E+22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="75">
+        <f t="shared" ref="B29:B36" si="0">B7-B18</f>
+        <v>-2662</v>
+      </c>
+      <c r="C29" s="75">
+        <f t="shared" ref="C29:I29" si="1">C7-C18</f>
+        <v>3419838</v>
+      </c>
+      <c r="D29" s="75">
+        <f t="shared" si="1"/>
+        <v>6335044838</v>
+      </c>
+      <c r="E29" s="75">
+        <f t="shared" si="1"/>
+        <v>11719841294838</v>
+      </c>
+      <c r="F29" s="75">
+        <f t="shared" si="1"/>
+        <v>11719841294838</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="1"/>
+        <v>11719841294838</v>
+      </c>
+      <c r="H29" s="75">
+        <f t="shared" si="1"/>
+        <v>11719841294838</v>
+      </c>
+      <c r="I29" s="75">
+        <f t="shared" si="1"/>
+        <v>11719841296688</v>
+      </c>
+      <c r="J29" t="e">
+        <f>SUM(ABS(B29:I29))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" t="e">
+        <f>IF(J29&gt;$K$5,"REVISAR","OK")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="75">
+        <f t="shared" si="0"/>
+        <v>-688</v>
+      </c>
+      <c r="C30" s="75">
+        <f t="shared" ref="C30:I30" si="2">C8-C19</f>
+        <v>683812</v>
+      </c>
+      <c r="D30" s="75">
+        <f t="shared" si="2"/>
+        <v>1267008812</v>
+      </c>
+      <c r="E30" s="75">
+        <f t="shared" si="2"/>
+        <v>2343968258812</v>
+      </c>
+      <c r="F30" s="75">
+        <f t="shared" si="2"/>
+        <v>4336341280758812</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" si="2"/>
+        <v>4336341280758812</v>
+      </c>
+      <c r="H30" s="75">
+        <f t="shared" si="2"/>
+        <v>4336341280758812</v>
+      </c>
+      <c r="I30" s="75">
+        <f t="shared" si="2"/>
+        <v>4336341280759182</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" ref="J30:J36" si="3">SUM(ABS(B30:I30))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" ref="K30:K36" si="4">IF(J30&gt;$K$5,"REVISAR","OK")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="75">
+        <f t="shared" si="0"/>
+        <v>-111.5</v>
+      </c>
+      <c r="C31" s="75">
+        <f t="shared" ref="C31:I31" si="5">C9-C20</f>
+        <v>34113.5</v>
+      </c>
+      <c r="D31" s="75">
+        <f t="shared" si="5"/>
+        <v>63350363.5</v>
+      </c>
+      <c r="E31" s="75">
+        <f t="shared" si="5"/>
+        <v>117198412863.5</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="5"/>
+        <v>216817064037863.5</v>
+      </c>
+      <c r="G31" s="75">
+        <f t="shared" si="5"/>
+        <v>4.0111156847028787E+17</v>
+      </c>
+      <c r="H31" s="75">
+        <f t="shared" si="5"/>
+        <v>7.4205640167003272E+20</v>
+      </c>
+      <c r="I31" s="75">
+        <f t="shared" si="5"/>
+        <v>7.4205640167003272E+20</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="75">
+        <f t="shared" si="0"/>
+        <v>9532</v>
+      </c>
+      <c r="C32" s="75">
+        <f t="shared" ref="C32:I32" si="6">C10-C21</f>
+        <v>27389532</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" si="6"/>
+        <v>50680389532</v>
+      </c>
+      <c r="E32" s="75">
+        <f t="shared" si="6"/>
+        <v>93758730389532</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="6"/>
+        <v>1.7345365123038954E+17</v>
+      </c>
+      <c r="G32" s="75">
+        <f t="shared" si="6"/>
+        <v>3.2088925477623038E+20</v>
+      </c>
+      <c r="H32" s="75">
+        <f t="shared" si="6"/>
+        <v>5.9364512133602621E+23</v>
+      </c>
+      <c r="I32" s="75">
+        <f t="shared" si="6"/>
+        <v>5.9364512133602621E+23</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="75">
+        <f t="shared" si="0"/>
+        <v>-3778</v>
+      </c>
+      <c r="C33" s="75">
+        <f t="shared" ref="C33:I33" si="7">C11-C22</f>
+        <v>1022972</v>
+      </c>
+      <c r="D33" s="75">
+        <f t="shared" si="7"/>
+        <v>1900510472</v>
+      </c>
+      <c r="E33" s="75">
+        <f t="shared" si="7"/>
+        <v>3515952385472</v>
+      </c>
+      <c r="F33" s="75">
+        <f t="shared" si="7"/>
+        <v>6504511921135472</v>
+      </c>
+      <c r="G33" s="75">
+        <f t="shared" si="7"/>
+        <v>1.2033347054108635E+19</v>
+      </c>
+      <c r="H33" s="75">
+        <f t="shared" si="7"/>
+        <v>2.2261692050100986E+22</v>
+      </c>
+      <c r="I33" s="75">
+        <f t="shared" si="7"/>
+        <v>2.2261692050100986E+22</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="75">
         <f t="shared" si="0"/>
         <v>-7377</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>REVISAR</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="C34" s="75">
+        <f t="shared" ref="C34:I34" si="8">C12-C23</f>
+        <v>2046123</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" si="8"/>
+        <v>3801021123</v>
+      </c>
+      <c r="E34" s="75">
+        <f t="shared" si="8"/>
+        <v>7031904771123</v>
+      </c>
+      <c r="F34" s="75">
+        <f t="shared" si="8"/>
+        <v>1.3009023842271124E+16</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" si="8"/>
+        <v>2.406669410821727E+19</v>
+      </c>
+      <c r="H34" s="75">
+        <f t="shared" si="8"/>
+        <v>4.4523384100201972E+22</v>
+      </c>
+      <c r="I34" s="75">
+        <f t="shared" si="8"/>
+        <v>4.4523384100201972E+22</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="75">
+        <f t="shared" si="0"/>
+        <v>-19492</v>
+      </c>
+      <c r="C35" s="75">
+        <f t="shared" ref="C35:I35" si="9">C13-C24</f>
+        <v>6825508</v>
+      </c>
+      <c r="D35" s="75">
+        <f t="shared" si="9"/>
+        <v>12670075508</v>
+      </c>
+      <c r="E35" s="75">
+        <f t="shared" si="9"/>
+        <v>23439682575508</v>
+      </c>
+      <c r="F35" s="75">
+        <f t="shared" si="9"/>
+        <v>4.3363412807575504E+16</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="9"/>
+        <v>8.0222313694057578E+19</v>
+      </c>
+      <c r="H35" s="75">
+        <f t="shared" si="9"/>
+        <v>1.4841128033400655E+23</v>
+      </c>
+      <c r="I35" s="75">
+        <f t="shared" si="9"/>
+        <v>1.4841128033400655E+23</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="35">
-        <v>0</v>
-      </c>
-      <c r="C13" s="71">
-        <f>Inventario_Dinamico!B45</f>
-        <v>3700</v>
-      </c>
-      <c r="D13" s="72">
-        <f t="shared" si="0"/>
-        <v>-3700</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>REVISAR</v>
+      <c r="B36" s="75">
+        <f t="shared" si="0"/>
+        <v>-4647.5</v>
+      </c>
+      <c r="C36" s="75">
+        <f t="shared" ref="C36:I36" si="10">C14-C25</f>
+        <v>2562227.5</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" si="10"/>
+        <v>4751280977.5</v>
+      </c>
+      <c r="E36" s="75">
+        <f t="shared" si="10"/>
+        <v>8789880968477.5</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" si="10"/>
+        <v>1.6261279802843478E+16</v>
+      </c>
+      <c r="G36" s="75">
+        <f t="shared" si="10"/>
+        <v>3.0083367635271594E+19</v>
+      </c>
+      <c r="H36" s="75">
+        <f t="shared" si="10"/>
+        <v>5.5654230125252467E+22</v>
+      </c>
+      <c r="I36" s="75">
+        <f t="shared" si="10"/>
+        <v>5.5654230125252467E+22</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="e">
+        <f>SUM(J29:J36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" t="e">
+        <f>IF(J37&gt;$K$5*8,"REVISAR","OK")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -5227,59 +8092,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="A1" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="A2" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="A4" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5358,52 +8223,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5449,32 +8314,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="26">
-        <f>Inputs!B$6*B6</f>
+        <f>MRP_LeadTimes!B$18*B6</f>
         <v>1850</v>
       </c>
       <c r="D6" s="26">
-        <f>Inputs!C$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!C$18*C6</f>
+        <v>3422500</v>
       </c>
       <c r="E6" s="26">
-        <f>Inputs!D$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!D$18*D6</f>
+        <v>6331625000</v>
       </c>
       <c r="F6" s="26">
-        <f>Inputs!E$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!E$18*E6</f>
+        <v>11713506250000</v>
       </c>
       <c r="G6" s="26">
-        <f>Inputs!F$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!F$18*F6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="26">
-        <f>Inputs!G$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!G$18*G6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="26">
-        <f>Inputs!H$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!H$18*H6</f>
+        <v>0</v>
       </c>
       <c r="J6" s="26">
         <f>Inputs!I$6*B6</f>
@@ -5482,7 +8347,7 @@
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:K13" si="0">SUM(C6:J6)</f>
-        <v>14800</v>
+        <v>11719841301200</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5494,32 +8359,32 @@
         <v>0.2</v>
       </c>
       <c r="C7" s="26">
-        <f>Inputs!B$6*B7</f>
+        <f>MRP_LeadTimes!B$17*B7</f>
         <v>370</v>
       </c>
       <c r="D7" s="26">
-        <f>Inputs!C$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!C$17*C7</f>
+        <v>684500</v>
       </c>
       <c r="E7" s="26">
-        <f>Inputs!D$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!D$17*D7</f>
+        <v>1266325000</v>
       </c>
       <c r="F7" s="26">
-        <f>Inputs!E$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!E$17*E7</f>
+        <v>2342701250000</v>
       </c>
       <c r="G7" s="26">
-        <f>Inputs!F$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!F$17*F7</f>
+        <v>4333997312500000</v>
       </c>
       <c r="H7" s="26">
-        <f>Inputs!G$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!G$17*G7</f>
+        <v>0</v>
       </c>
       <c r="I7" s="26">
-        <f>Inputs!H$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!H$17*H7</f>
+        <v>0</v>
       </c>
       <c r="J7" s="26">
         <f>Inputs!I$6*B7</f>
@@ -5527,7 +8392,7 @@
       </c>
       <c r="K7" s="27">
         <f t="shared" si="0"/>
-        <v>2960</v>
+        <v>4336341280760240</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5539,32 +8404,32 @@
         <v>0.01</v>
       </c>
       <c r="C8" s="26">
-        <f>Inputs!B$6*B8</f>
+        <f>MRP_LeadTimes!B$15*B8</f>
         <v>18.5</v>
       </c>
       <c r="D8" s="26">
-        <f>Inputs!C$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!C$15*C8</f>
+        <v>34225</v>
       </c>
       <c r="E8" s="26">
-        <f>Inputs!D$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!D$15*D8</f>
+        <v>63316250</v>
       </c>
       <c r="F8" s="26">
-        <f>Inputs!E$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!E$15*E8</f>
+        <v>117135062500</v>
       </c>
       <c r="G8" s="26">
-        <f>Inputs!F$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!F$15*F8</f>
+        <v>216699865625000</v>
       </c>
       <c r="H8" s="26">
-        <f>Inputs!G$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!G$15*G8</f>
+        <v>4.0089475140624998E+17</v>
       </c>
       <c r="I8" s="26">
-        <f>Inputs!H$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!H$15*H8</f>
+        <v>7.4165529010156247E+20</v>
       </c>
       <c r="J8" s="26">
         <f>Inputs!I$6*B8</f>
@@ -5572,7 +8437,7 @@
       </c>
       <c r="K8" s="27">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>7.4205640167003272E+20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5584,32 +8449,32 @@
         <v>8</v>
       </c>
       <c r="C9" s="26">
-        <f>Inputs!B$6*B9</f>
+        <f>MRP_LeadTimes!B$15*B9</f>
         <v>14800</v>
       </c>
       <c r="D9" s="26">
-        <f>Inputs!C$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!C$15*C9</f>
+        <v>27380000</v>
       </c>
       <c r="E9" s="26">
-        <f>Inputs!D$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!D$15*D9</f>
+        <v>50653000000</v>
       </c>
       <c r="F9" s="26">
-        <f>Inputs!E$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!E$15*E9</f>
+        <v>93708050000000</v>
       </c>
       <c r="G9" s="26">
-        <f>Inputs!F$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!F$15*F9</f>
+        <v>1.733598925E+17</v>
       </c>
       <c r="H9" s="26">
-        <f>Inputs!G$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!G$15*G9</f>
+        <v>3.2071580112499999E+20</v>
       </c>
       <c r="I9" s="26">
-        <f>Inputs!H$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!H$15*H9</f>
+        <v>5.9332423208124999E+23</v>
       </c>
       <c r="J9" s="26">
         <f>Inputs!I$6*B9</f>
@@ -5617,7 +8482,7 @@
       </c>
       <c r="K9" s="27">
         <f t="shared" si="0"/>
-        <v>118400</v>
+        <v>5.9364512133602621E+23</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5629,32 +8494,32 @@
         <v>0.3</v>
       </c>
       <c r="C10" s="26">
-        <f>Inputs!B$6*B10</f>
+        <f>MRP_LeadTimes!B$15*B10</f>
         <v>555</v>
       </c>
       <c r="D10" s="26">
-        <f>Inputs!C$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!C$15*C10</f>
+        <v>1026750</v>
       </c>
       <c r="E10" s="26">
-        <f>Inputs!D$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!D$15*D10</f>
+        <v>1899487500</v>
       </c>
       <c r="F10" s="26">
-        <f>Inputs!E$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!E$15*E10</f>
+        <v>3514051875000</v>
       </c>
       <c r="G10" s="26">
-        <f>Inputs!F$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!F$15*F10</f>
+        <v>6500995968750000</v>
       </c>
       <c r="H10" s="26">
-        <f>Inputs!G$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!G$15*G10</f>
+        <v>1.20268425421875E+19</v>
       </c>
       <c r="I10" s="26">
-        <f>Inputs!H$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!H$15*H10</f>
+        <v>2.2249658703046876E+22</v>
       </c>
       <c r="J10" s="26">
         <f>Inputs!I$6*B10</f>
@@ -5662,7 +8527,7 @@
       </c>
       <c r="K10" s="27">
         <f t="shared" si="0"/>
-        <v>4440</v>
+        <v>2.2261692050100986E+22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5674,32 +8539,32 @@
         <v>0.6</v>
       </c>
       <c r="C11" s="26">
-        <f>Inputs!B$6*B11</f>
+        <f>MRP_LeadTimes!B$15*B11</f>
         <v>1110</v>
       </c>
       <c r="D11" s="26">
-        <f>Inputs!C$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!C$15*C11</f>
+        <v>2053500</v>
       </c>
       <c r="E11" s="26">
-        <f>Inputs!D$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!D$15*D11</f>
+        <v>3798975000</v>
       </c>
       <c r="F11" s="26">
-        <f>Inputs!E$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!E$15*E11</f>
+        <v>7028103750000</v>
       </c>
       <c r="G11" s="26">
-        <f>Inputs!F$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!F$15*F11</f>
+        <v>1.30019919375E+16</v>
       </c>
       <c r="H11" s="26">
-        <f>Inputs!G$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!G$15*G11</f>
+        <v>2.4053685084374999E+19</v>
       </c>
       <c r="I11" s="26">
-        <f>Inputs!H$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!H$15*H11</f>
+        <v>4.4499317406093751E+22</v>
       </c>
       <c r="J11" s="26">
         <f>Inputs!I$6*B11</f>
@@ -5707,7 +8572,7 @@
       </c>
       <c r="K11" s="27">
         <f t="shared" si="0"/>
-        <v>8880</v>
+        <v>4.4523384100201972E+22</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5719,32 +8584,32 @@
         <v>2</v>
       </c>
       <c r="C12" s="26">
-        <f>Inputs!B$6*B12</f>
+        <f>MRP_LeadTimes!B$15*B12</f>
         <v>3700</v>
       </c>
       <c r="D12" s="26">
-        <f>Inputs!C$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!C$15*C12</f>
+        <v>6845000</v>
       </c>
       <c r="E12" s="26">
-        <f>Inputs!D$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!D$15*D12</f>
+        <v>12663250000</v>
       </c>
       <c r="F12" s="26">
-        <f>Inputs!E$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!E$15*E12</f>
+        <v>23427012500000</v>
       </c>
       <c r="G12" s="26">
-        <f>Inputs!F$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!F$15*F12</f>
+        <v>4.3339973125E+16</v>
       </c>
       <c r="H12" s="26">
-        <f>Inputs!G$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!G$15*G12</f>
+        <v>8.0178950281249997E+19</v>
       </c>
       <c r="I12" s="26">
-        <f>Inputs!H$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!H$15*H12</f>
+        <v>1.483310580203125E+23</v>
       </c>
       <c r="J12" s="26">
         <f>Inputs!I$6*B12</f>
@@ -5752,7 +8617,7 @@
       </c>
       <c r="K12" s="27">
         <f t="shared" si="0"/>
-        <v>29600</v>
+        <v>1.4841128033400655E+23</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5764,32 +8629,32 @@
         <v>0.75</v>
       </c>
       <c r="C13" s="26">
-        <f>Inputs!B$6*B13</f>
+        <f>MRP_LeadTimes!B$15*B13</f>
         <v>1387.5</v>
       </c>
       <c r="D13" s="26">
-        <f>Inputs!C$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!C$15*C13</f>
+        <v>2566875</v>
       </c>
       <c r="E13" s="26">
-        <f>Inputs!D$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!D$15*D13</f>
+        <v>4748718750</v>
       </c>
       <c r="F13" s="26">
-        <f>Inputs!E$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!E$15*E13</f>
+        <v>8785129687500</v>
       </c>
       <c r="G13" s="26">
-        <f>Inputs!F$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!F$15*F13</f>
+        <v>1.6252489921875E+16</v>
       </c>
       <c r="H13" s="26">
-        <f>Inputs!G$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!G$15*G13</f>
+        <v>3.0067106355468751E+19</v>
       </c>
       <c r="I13" s="26">
-        <f>Inputs!H$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!H$15*H13</f>
+        <v>5.5624146757617193E+22</v>
       </c>
       <c r="J13" s="26">
         <f>Inputs!I$6*B13</f>
@@ -5797,40 +8662,40 @@
       </c>
       <c r="K13" s="27">
         <f t="shared" si="0"/>
-        <v>11100</v>
+        <v>5.5654230125252467E+22</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="28">
-        <f>Inputs!B6</f>
+        <f>MRP_LeadTimes!B$14</f>
         <v>1850</v>
       </c>
       <c r="D15" s="28">
-        <f>Inputs!C6</f>
+        <f>MRP_LeadTimes!C$14</f>
         <v>1850</v>
       </c>
       <c r="E15" s="28">
-        <f>Inputs!D6</f>
+        <f>MRP_LeadTimes!D$14</f>
         <v>1850</v>
       </c>
       <c r="F15" s="28">
-        <f>Inputs!E6</f>
+        <f>MRP_LeadTimes!E$14</f>
         <v>1850</v>
       </c>
       <c r="G15" s="28">
-        <f>Inputs!F6</f>
+        <f>MRP_LeadTimes!F$14</f>
         <v>1850</v>
       </c>
       <c r="H15" s="28">
-        <f>Inputs!G6</f>
+        <f>MRP_LeadTimes!G$14</f>
         <v>1850</v>
       </c>
       <c r="I15" s="28">
-        <f>Inputs!H6</f>
+        <f>MRP_LeadTimes!H$14</f>
         <v>1850</v>
       </c>
       <c r="J15" s="28">
@@ -5856,7 +8721,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5867,64 +8732,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -5969,27 +8834,27 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="0"/>
-        <v>812</v>
+        <v>-3419838</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="0"/>
-        <v>-1038</v>
+        <v>-6335044838</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="0"/>
-        <v>-2888</v>
+        <v>-11719841294838</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>-4738</v>
+        <v>-11719841294838</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="0"/>
-        <v>-6588</v>
+        <v>-11719841294838</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="0"/>
-        <v>-8438</v>
+        <v>-11719841294838</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6031,27 +8896,27 @@
       </c>
       <c r="C9" s="29">
         <f>BOM_Consumo!D6</f>
-        <v>1850</v>
+        <v>3422500</v>
       </c>
       <c r="D9" s="29">
         <f>BOM_Consumo!E6</f>
-        <v>1850</v>
+        <v>6331625000</v>
       </c>
       <c r="E9" s="29">
         <f>BOM_Consumo!F6</f>
-        <v>1850</v>
+        <v>11713506250000</v>
       </c>
       <c r="F9" s="29">
         <f>BOM_Consumo!G6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="G9" s="29">
         <f>BOM_Consumo!H6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="H9" s="29">
         <f>BOM_Consumo!I6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="I9" s="29">
         <f>BOM_Consumo!J6</f>
@@ -6068,47 +8933,47 @@
       </c>
       <c r="C10" s="27">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>-3419838</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="1"/>
-        <v>-1038</v>
+        <v>-6335044838</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>-2888</v>
+        <v>-11719841294838</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>-4738</v>
+        <v>-11719841294838</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-6588</v>
+        <v>-11719841294838</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>-8438</v>
+        <v>-11719841294838</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>-10288</v>
+        <v>-11719841296688</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -6153,27 +9018,27 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="2"/>
-        <v>318</v>
+        <v>-683812</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="2"/>
-        <v>-52</v>
+        <v>-1267008812</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="2"/>
-        <v>-422</v>
+        <v>-2343968258812</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="2"/>
-        <v>-792</v>
+        <v>-4336341280758812</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="2"/>
-        <v>-1162</v>
+        <v>-4336341280758812</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="2"/>
-        <v>-1532</v>
+        <v>-4336341280758812</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6215,27 +9080,27 @@
       </c>
       <c r="C15" s="29">
         <f>BOM_Consumo!D7</f>
-        <v>370</v>
+        <v>684500</v>
       </c>
       <c r="D15" s="29">
         <f>BOM_Consumo!E7</f>
-        <v>370</v>
+        <v>1266325000</v>
       </c>
       <c r="E15" s="29">
         <f>BOM_Consumo!F7</f>
-        <v>370</v>
+        <v>2342701250000</v>
       </c>
       <c r="F15" s="29">
         <f>BOM_Consumo!G7</f>
-        <v>370</v>
+        <v>4333997312500000</v>
       </c>
       <c r="G15" s="29">
         <f>BOM_Consumo!H7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="H15" s="29">
         <f>BOM_Consumo!I7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I15" s="29">
         <f>BOM_Consumo!J7</f>
@@ -6252,47 +9117,47 @@
       </c>
       <c r="C16" s="27">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>-683812</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="3"/>
-        <v>-52</v>
+        <v>-1267008812</v>
       </c>
       <c r="E16" s="27">
         <f t="shared" si="3"/>
-        <v>-422</v>
+        <v>-2343968258812</v>
       </c>
       <c r="F16" s="27">
         <f t="shared" si="3"/>
-        <v>-792</v>
+        <v>-4336341280758812</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" si="3"/>
-        <v>-1162</v>
+        <v>-4336341280758812</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>-1532</v>
+        <v>-4336341280758812</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="3"/>
-        <v>-1902</v>
+        <v>-4336341280759182</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -6337,27 +9202,27 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>-34113.5</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>74.5</v>
+        <v>-63350363.5</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>-117198412863.5</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
-        <v>37.5</v>
+        <v>-216817064037863.5</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>-4.0111156847028787E+17</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>-7.4205640167003272E+20</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6399,27 +9264,27 @@
       </c>
       <c r="C21" s="29">
         <f>BOM_Consumo!D8</f>
-        <v>18.5</v>
+        <v>34225</v>
       </c>
       <c r="D21" s="29">
         <f>BOM_Consumo!E8</f>
-        <v>18.5</v>
+        <v>63316250</v>
       </c>
       <c r="E21" s="29">
         <f>BOM_Consumo!F8</f>
-        <v>18.5</v>
+        <v>117135062500</v>
       </c>
       <c r="F21" s="29">
         <f>BOM_Consumo!G8</f>
-        <v>18.5</v>
+        <v>216699865625000</v>
       </c>
       <c r="G21" s="29">
         <f>BOM_Consumo!H8</f>
-        <v>18.5</v>
+        <v>4.0089475140624998E+17</v>
       </c>
       <c r="H21" s="29">
         <f>BOM_Consumo!I8</f>
-        <v>18.5</v>
+        <v>7.4165529010156247E+20</v>
       </c>
       <c r="I21" s="29">
         <f>BOM_Consumo!J8</f>
@@ -6436,47 +9301,47 @@
       </c>
       <c r="C22" s="27">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>-34113.5</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="5"/>
-        <v>74.5</v>
+        <v>-63350363.5</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>-117198412863.5</v>
       </c>
       <c r="F22" s="27">
         <f t="shared" si="5"/>
-        <v>37.5</v>
+        <v>-216817064037863.5</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>-4.0111156847028787E+17</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>-7.4205640167003272E+20</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="5"/>
-        <v>-18</v>
+        <v>-7.4205640167003272E+20</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -6521,27 +9386,27 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="6"/>
-        <v>-24332</v>
+        <v>-27389532</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="6"/>
-        <v>-39132</v>
+        <v>-50680389532</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="6"/>
-        <v>-53932</v>
+        <v>-93758730389532</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>-68732</v>
+        <v>-1.7345365123038954E+17</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="6"/>
-        <v>-83532</v>
+        <v>-3.2088925477623038E+20</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="6"/>
-        <v>-98332</v>
+        <v>-5.9364512133602621E+23</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6583,27 +9448,27 @@
       </c>
       <c r="C27" s="29">
         <f>BOM_Consumo!D9</f>
-        <v>14800</v>
+        <v>27380000</v>
       </c>
       <c r="D27" s="29">
         <f>BOM_Consumo!E9</f>
-        <v>14800</v>
+        <v>50653000000</v>
       </c>
       <c r="E27" s="29">
         <f>BOM_Consumo!F9</f>
-        <v>14800</v>
+        <v>93708050000000</v>
       </c>
       <c r="F27" s="29">
         <f>BOM_Consumo!G9</f>
-        <v>14800</v>
+        <v>1.733598925E+17</v>
       </c>
       <c r="G27" s="29">
         <f>BOM_Consumo!H9</f>
-        <v>14800</v>
+        <v>3.2071580112499999E+20</v>
       </c>
       <c r="H27" s="29">
         <f>BOM_Consumo!I9</f>
-        <v>14800</v>
+        <v>5.9332423208124999E+23</v>
       </c>
       <c r="I27" s="29">
         <f>BOM_Consumo!J9</f>
@@ -6620,47 +9485,47 @@
       </c>
       <c r="C28" s="27">
         <f t="shared" si="7"/>
-        <v>-24332</v>
+        <v>-27389532</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="7"/>
-        <v>-39132</v>
+        <v>-50680389532</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="7"/>
-        <v>-53932</v>
+        <v>-93758730389532</v>
       </c>
       <c r="F28" s="27">
         <f t="shared" si="7"/>
-        <v>-68732</v>
+        <v>-1.7345365123038954E+17</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" si="7"/>
-        <v>-83532</v>
+        <v>-3.2088925477623038E+20</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="7"/>
-        <v>-98332</v>
+        <v>-5.9364512133602621E+23</v>
       </c>
       <c r="I28" s="27">
         <f t="shared" si="7"/>
-        <v>-113132</v>
+        <v>-5.9364512133602621E+23</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -6705,27 +9570,27 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="8"/>
-        <v>3223</v>
+        <v>-1022972</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="8"/>
-        <v>2668</v>
+        <v>-1900510472</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="8"/>
-        <v>2113</v>
+        <v>-3515952385472</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="8"/>
-        <v>1558</v>
+        <v>-6504511921135472</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="8"/>
-        <v>1003</v>
+        <v>-1.2033347054108635E+19</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="8"/>
-        <v>448</v>
+        <v>-2.2261692050100986E+22</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6767,27 +9632,27 @@
       </c>
       <c r="C33" s="29">
         <f>BOM_Consumo!D10</f>
-        <v>555</v>
+        <v>1026750</v>
       </c>
       <c r="D33" s="29">
         <f>BOM_Consumo!E10</f>
-        <v>555</v>
+        <v>1899487500</v>
       </c>
       <c r="E33" s="29">
         <f>BOM_Consumo!F10</f>
-        <v>555</v>
+        <v>3514051875000</v>
       </c>
       <c r="F33" s="29">
         <f>BOM_Consumo!G10</f>
-        <v>555</v>
+        <v>6500995968750000</v>
       </c>
       <c r="G33" s="29">
         <f>BOM_Consumo!H10</f>
-        <v>555</v>
+        <v>1.20268425421875E+19</v>
       </c>
       <c r="H33" s="29">
         <f>BOM_Consumo!I10</f>
-        <v>555</v>
+        <v>2.2249658703046876E+22</v>
       </c>
       <c r="I33" s="29">
         <f>BOM_Consumo!J10</f>
@@ -6804,47 +9669,47 @@
       </c>
       <c r="C34" s="27">
         <f t="shared" si="9"/>
-        <v>3223</v>
+        <v>-1022972</v>
       </c>
       <c r="D34" s="27">
         <f t="shared" si="9"/>
-        <v>2668</v>
+        <v>-1900510472</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="9"/>
-        <v>2113</v>
+        <v>-3515952385472</v>
       </c>
       <c r="F34" s="27">
         <f t="shared" si="9"/>
-        <v>1558</v>
+        <v>-6504511921135472</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" si="9"/>
-        <v>1003</v>
+        <v>-1.2033347054108635E+19</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="9"/>
-        <v>448</v>
+        <v>-2.2261692050100986E+22</v>
       </c>
       <c r="I34" s="27">
         <f t="shared" si="9"/>
-        <v>-107</v>
+        <v>-2.2261692050100986E+22</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -6889,27 +9754,27 @@
       </c>
       <c r="D37" s="22">
         <f t="shared" si="10"/>
-        <v>6267</v>
+        <v>-2046123</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="10"/>
-        <v>5157</v>
+        <v>-3801021123</v>
       </c>
       <c r="F37" s="22">
         <f t="shared" si="10"/>
-        <v>4047</v>
+        <v>-7031904771123</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="10"/>
-        <v>2937</v>
+        <v>-1.3009023842271124E+16</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="10"/>
-        <v>1827</v>
+        <v>-2.406669410821727E+19</v>
       </c>
       <c r="I37" s="22">
         <f t="shared" si="10"/>
-        <v>717</v>
+        <v>-4.4523384100201972E+22</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6951,27 +9816,27 @@
       </c>
       <c r="C39" s="29">
         <f>BOM_Consumo!D11</f>
-        <v>1110</v>
+        <v>2053500</v>
       </c>
       <c r="D39" s="29">
         <f>BOM_Consumo!E11</f>
-        <v>1110</v>
+        <v>3798975000</v>
       </c>
       <c r="E39" s="29">
         <f>BOM_Consumo!F11</f>
-        <v>1110</v>
+        <v>7028103750000</v>
       </c>
       <c r="F39" s="29">
         <f>BOM_Consumo!G11</f>
-        <v>1110</v>
+        <v>1.30019919375E+16</v>
       </c>
       <c r="G39" s="29">
         <f>BOM_Consumo!H11</f>
-        <v>1110</v>
+        <v>2.4053685084374999E+19</v>
       </c>
       <c r="H39" s="29">
         <f>BOM_Consumo!I11</f>
-        <v>1110</v>
+        <v>4.4499317406093751E+22</v>
       </c>
       <c r="I39" s="29">
         <f>BOM_Consumo!J11</f>
@@ -6988,47 +9853,47 @@
       </c>
       <c r="C40" s="27">
         <f t="shared" si="11"/>
-        <v>6267</v>
+        <v>-2046123</v>
       </c>
       <c r="D40" s="27">
         <f t="shared" si="11"/>
-        <v>5157</v>
+        <v>-3801021123</v>
       </c>
       <c r="E40" s="27">
         <f t="shared" si="11"/>
-        <v>4047</v>
+        <v>-7031904771123</v>
       </c>
       <c r="F40" s="27">
         <f t="shared" si="11"/>
-        <v>2937</v>
+        <v>-1.3009023842271124E+16</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" si="11"/>
-        <v>1827</v>
+        <v>-2.406669410821727E+19</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="11"/>
-        <v>717</v>
+        <v>-4.4523384100201972E+22</v>
       </c>
       <c r="I40" s="27">
         <f t="shared" si="11"/>
-        <v>-393</v>
+        <v>-4.4523384100201972E+22</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -7073,27 +9938,27 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" si="12"/>
-        <v>15792</v>
+        <v>-6825508</v>
       </c>
       <c r="E43" s="22">
         <f t="shared" si="12"/>
-        <v>12092</v>
+        <v>-12670075508</v>
       </c>
       <c r="F43" s="22">
         <f t="shared" si="12"/>
-        <v>8392</v>
+        <v>-23439682575508</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="12"/>
-        <v>4692</v>
+        <v>-4.3363412807575504E+16</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="12"/>
-        <v>992</v>
+        <v>-8.0222313694057578E+19</v>
       </c>
       <c r="I43" s="22">
         <f t="shared" si="12"/>
-        <v>-2708</v>
+        <v>-1.4841128033400655E+23</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7135,27 +10000,27 @@
       </c>
       <c r="C45" s="29">
         <f>BOM_Consumo!D12</f>
-        <v>3700</v>
+        <v>6845000</v>
       </c>
       <c r="D45" s="29">
         <f>BOM_Consumo!E12</f>
-        <v>3700</v>
+        <v>12663250000</v>
       </c>
       <c r="E45" s="29">
         <f>BOM_Consumo!F12</f>
-        <v>3700</v>
+        <v>23427012500000</v>
       </c>
       <c r="F45" s="29">
         <f>BOM_Consumo!G12</f>
-        <v>3700</v>
+        <v>4.3339973125E+16</v>
       </c>
       <c r="G45" s="29">
         <f>BOM_Consumo!H12</f>
-        <v>3700</v>
+        <v>8.0178950281249997E+19</v>
       </c>
       <c r="H45" s="29">
         <f>BOM_Consumo!I12</f>
-        <v>3700</v>
+        <v>1.483310580203125E+23</v>
       </c>
       <c r="I45" s="29">
         <f>BOM_Consumo!J12</f>
@@ -7172,47 +10037,47 @@
       </c>
       <c r="C46" s="27">
         <f t="shared" si="13"/>
-        <v>15792</v>
+        <v>-6825508</v>
       </c>
       <c r="D46" s="27">
         <f t="shared" si="13"/>
-        <v>12092</v>
+        <v>-12670075508</v>
       </c>
       <c r="E46" s="27">
         <f t="shared" si="13"/>
-        <v>8392</v>
+        <v>-23439682575508</v>
       </c>
       <c r="F46" s="27">
         <f t="shared" si="13"/>
-        <v>4692</v>
+        <v>-4.3363412807575504E+16</v>
       </c>
       <c r="G46" s="27">
         <f t="shared" si="13"/>
-        <v>992</v>
+        <v>-8.0222313694057578E+19</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="13"/>
-        <v>-2708</v>
+        <v>-1.4841128033400655E+23</v>
       </c>
       <c r="I46" s="27">
         <f t="shared" si="13"/>
-        <v>-6408</v>
+        <v>-1.4841128033400655E+23</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -7248,408 +10113,511 @@
         <v>101</v>
       </c>
       <c r="B49" s="29">
-        <f>Inputs!B18</f>
+        <f>Inputs!$B$18</f>
         <v>6035</v>
       </c>
-      <c r="C49" s="22" t="str">
-        <f t="shared" ref="C49:I49" si="14">B52</f>
-        <v>OK</v>
-      </c>
-      <c r="D49" s="22" t="str">
+      <c r="C49" s="22">
+        <f t="shared" ref="C49:I49" si="14">B$52</f>
+        <v>4647.5</v>
+      </c>
+      <c r="D49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="E49" s="22" t="str">
+        <v>-2562227.5</v>
+      </c>
+      <c r="E49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="F49" s="22" t="str">
+        <v>-4751280977.5</v>
+      </c>
+      <c r="F49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="G49" s="22" t="str">
+        <v>-8789880968477.5</v>
+      </c>
+      <c r="G49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="H49" s="22" t="str">
+        <v>-1.6261279802843478E+16</v>
+      </c>
+      <c r="H49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="I49" s="22" t="str">
+        <v>-3.0083367635271594E+19</v>
+      </c>
+      <c r="I49" s="22">
         <f t="shared" si="14"/>
-        <v>OK</v>
+        <v>-5.5654230125252467E+22</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="29">
+        <v>0</v>
+      </c>
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0</v>
+      </c>
+      <c r="I50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="29">
+        <f>BOM_Consumo!C$13</f>
+        <v>1387.5</v>
+      </c>
+      <c r="C51" s="22">
+        <f>BOM_Consumo!D$13</f>
+        <v>2566875</v>
+      </c>
+      <c r="D51" s="22">
+        <f>BOM_Consumo!E$13</f>
+        <v>4748718750</v>
+      </c>
+      <c r="E51" s="22">
+        <f>BOM_Consumo!F$13</f>
+        <v>8785129687500</v>
+      </c>
+      <c r="F51" s="22">
+        <f>BOM_Consumo!G$13</f>
+        <v>1.6252489921875E+16</v>
+      </c>
+      <c r="G51" s="22">
+        <f>BOM_Consumo!H$13</f>
+        <v>3.0067106355468751E+19</v>
+      </c>
+      <c r="H51" s="22">
+        <f>BOM_Consumo!I$13</f>
+        <v>5.5624146757617193E+22</v>
+      </c>
+      <c r="I51" s="22">
+        <f>BOM_Consumo!J$13</f>
+        <v>1387.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="29">
+        <f t="shared" ref="B52:I52" si="15">B$49+B$50-B$51</f>
+        <v>4647.5</v>
+      </c>
+      <c r="C52" s="22">
+        <f t="shared" si="15"/>
+        <v>-2562227.5</v>
+      </c>
+      <c r="D52" s="22">
+        <f t="shared" si="15"/>
+        <v>-4751280977.5</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="shared" si="15"/>
+        <v>-8789880968477.5</v>
+      </c>
+      <c r="F52" s="22">
+        <f t="shared" si="15"/>
+        <v>-1.6261279802843478E+16</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="shared" si="15"/>
+        <v>-3.0083367635271594E+19</v>
+      </c>
+      <c r="H52" s="22">
+        <f t="shared" si="15"/>
+        <v>-5.5654230125252467E+22</v>
+      </c>
+      <c r="I52" s="22">
+        <f t="shared" si="15"/>
+        <v>-5.5654230125252467E+22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C54" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D54" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E54" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F54" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G54" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H54" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I54" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J54" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="27" t="str">
+      <c r="B55" s="27" t="str">
         <f>IF(B9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="C52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="C55" s="27" t="str">
         <f>IF(C9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="D52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="D55" s="27" t="str">
         <f>IF(D9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="E52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="E55" s="27" t="str">
         <f>IF(E9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="F55" s="27" t="str">
         <f>IF(F9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="G55" s="27" t="str">
         <f>IF(G9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="H52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="H55" s="27" t="str">
         <f>IF(H9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="I52" s="27" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="I55" s="27" t="str">
         <f>IF(I9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J52" s="31">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="J55" s="31">
         <f>MIN(B9:I9)</f>
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B56" s="23" t="str">
         <f>IF(B14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C53" s="23" t="str">
+      <c r="C56" s="23" t="str">
         <f>IF(C14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D53" s="23" t="str">
+      <c r="D56" s="23" t="str">
         <f>IF(D14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E53" s="23" t="str">
+      <c r="E56" s="23" t="str">
         <f>IF(E14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F53" s="23" t="str">
+      <c r="F56" s="23" t="str">
         <f>IF(F14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G53" s="23" t="str">
+      <c r="G56" s="23" t="str">
         <f>IF(G14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H53" s="23" t="str">
+      <c r="H56" s="23" t="str">
         <f>IF(H14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I53" s="23" t="str">
+      <c r="I56" s="23" t="str">
         <f>IF(I14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J56" s="31">
         <f>MIN(B14:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B57" s="23" t="str">
         <f>IF(B19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C54" s="23" t="str">
+      <c r="C57" s="23" t="str">
         <f>IF(C19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D54" s="23" t="str">
+      <c r="D57" s="23" t="str">
         <f>IF(D19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E54" s="23" t="str">
+      <c r="E57" s="23" t="str">
         <f>IF(E19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F54" s="23" t="str">
+      <c r="F57" s="23" t="str">
         <f>IF(F19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G54" s="23" t="str">
+      <c r="G57" s="23" t="str">
         <f>IF(G19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H54" s="23" t="str">
+      <c r="H57" s="23" t="str">
         <f>IF(H19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I54" s="23" t="str">
+      <c r="I57" s="23" t="str">
         <f>IF(I19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J57" s="31">
         <f>MIN(B19:I19)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+        <v>-7.4205640167003272E+20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="23" t="str">
+      <c r="B58" s="23" t="str">
         <f>IF(B24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C55" s="23" t="str">
+      <c r="C58" s="23" t="str">
         <f>IF(C24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="D55" s="23" t="str">
+      <c r="D58" s="23" t="str">
         <f>IF(D24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E55" s="23" t="str">
+      <c r="E58" s="23" t="str">
         <f>IF(E24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F55" s="23" t="str">
+      <c r="F58" s="23" t="str">
         <f>IF(F24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G55" s="23" t="str">
+      <c r="G58" s="23" t="str">
         <f>IF(G24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H55" s="23" t="str">
+      <c r="H58" s="23" t="str">
         <f>IF(H24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="I55" s="23" t="str">
+      <c r="I58" s="23" t="str">
         <f>IF(I24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J58" s="31">
         <f>MIN(B24:I24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="23" t="str">
+      <c r="B59" s="23" t="str">
         <f>IF(B29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C56" s="23" t="str">
+      <c r="C59" s="23" t="str">
         <f>IF(C29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D56" s="23" t="str">
+      <c r="D59" s="23" t="str">
         <f>IF(D29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E56" s="23" t="str">
+      <c r="E59" s="23" t="str">
         <f>IF(E29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F56" s="23" t="str">
+      <c r="F59" s="23" t="str">
         <f>IF(F29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G56" s="23" t="str">
+      <c r="G59" s="23" t="str">
         <f>IF(G29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H56" s="23" t="str">
+      <c r="H59" s="23" t="str">
         <f>IF(H29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I56" s="23" t="str">
+      <c r="I59" s="23" t="str">
         <f>IF(I29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J59" s="31">
         <f>MIN(B29:I29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="23" t="str">
+      <c r="B60" s="23" t="str">
         <f>IF(B34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="C57" s="23" t="str">
+        <v>⚠ RIESGO</v>
+      </c>
+      <c r="C60" s="23" t="str">
         <f>IF(C34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D57" s="23" t="str">
+      <c r="D60" s="23" t="str">
         <f>IF(D34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E57" s="23" t="str">
+      <c r="E60" s="23" t="str">
         <f>IF(E34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F57" s="23" t="str">
+      <c r="F60" s="23" t="str">
         <f>IF(F34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G57" s="23" t="str">
+      <c r="G60" s="23" t="str">
         <f>IF(G34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H57" s="23" t="str">
+      <c r="H60" s="23" t="str">
         <f>IF(H34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I57" s="23" t="str">
+      <c r="I60" s="23" t="str">
         <f>IF(I34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J60" s="31">
         <f>MIN(B34:I34)</f>
-        <v>-107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+        <v>-2.2261692050100986E+22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="23" t="str">
+      <c r="B61" s="23" t="str">
         <f>IF(B39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C58" s="23" t="str">
+      <c r="C61" s="23" t="str">
         <f>IF(C39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D58" s="23" t="str">
+      <c r="D61" s="23" t="str">
         <f>IF(D39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E58" s="23" t="str">
+      <c r="E61" s="23" t="str">
         <f>IF(E39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F58" s="23" t="str">
+      <c r="F61" s="23" t="str">
         <f>IF(F39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G58" s="23" t="str">
+      <c r="G61" s="23" t="str">
         <f>IF(G39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H58" s="23" t="str">
+      <c r="H61" s="23" t="str">
         <f>IF(H39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
-      </c>
-      <c r="I58" s="23" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I61" s="23" t="str">
         <f>IF(I39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J61" s="31">
         <f>MIN(B39:I39)</f>
         <v>1110</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="23" t="str">
+      <c r="B62" s="23" t="str">
         <f>IF(B44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C59" s="23" t="str">
+      <c r="C62" s="23" t="str">
         <f>IF(C44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="D59" s="23" t="str">
+      <c r="D62" s="23" t="str">
         <f>IF(D44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E59" s="23" t="str">
+      <c r="E62" s="23" t="str">
         <f>IF(E44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F59" s="23" t="str">
+      <c r="F62" s="23" t="str">
         <f>IF(F44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G59" s="23" t="str">
+      <c r="G62" s="23" t="str">
         <f>IF(G44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H59" s="23" t="str">
+      <c r="H62" s="23" t="str">
         <f>IF(H44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="I59" s="23" t="str">
+      <c r="I62" s="23" t="str">
         <f>IF(I44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J62" s="31">
         <f>MIN(B44:I44)</f>
         <v>0</v>
       </c>
@@ -7662,7 +10630,7 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A29:K29"/>
@@ -7704,12 +10672,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:I52">
+  <conditionalFormatting sqref="B55:I55">
     <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:I59">
+  <conditionalFormatting sqref="B55:I62">
     <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
       <formula>"⚠ RIESGO"</formula>
     </cfRule>
@@ -7732,66 +10700,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -7828,7 +10796,7 @@
       </c>
       <c r="B7" s="33">
         <f>BOM_Consumo!K8</f>
-        <v>148</v>
+        <v>7.4205640167003272E+20</v>
       </c>
       <c r="C7" s="33">
         <f>Inputs!B35</f>
@@ -7836,15 +10804,15 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" ref="D7:D12" si="0">ROUNDUP(B7/C7,0)</f>
-        <v>5</v>
+        <v>2.4735213389001101E+19</v>
       </c>
       <c r="E7" s="35">
         <f t="shared" ref="E7:E12" si="1">D7</f>
-        <v>5</v>
+        <v>2.4735213389001101E+19</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F12" si="2">E7*C7</f>
-        <v>150</v>
+        <v>7.4205640167003298E+20</v>
       </c>
       <c r="G7" s="36">
         <f>Inputs!B45</f>
@@ -7865,7 +10833,7 @@
       </c>
       <c r="B8" s="33">
         <f>BOM_Consumo!K9</f>
-        <v>118400</v>
+        <v>5.9364512133602621E+23</v>
       </c>
       <c r="C8" s="33">
         <f>Inputs!B36</f>
@@ -7873,15 +10841,15 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>9867</v>
+        <v>4.9470426778002203E+22</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>9867</v>
+        <v>4.9470426778002203E+22</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>118404</v>
+        <v>5.9364512133602641E+23</v>
       </c>
       <c r="G8" s="36">
         <f>Inputs!B46</f>
@@ -7889,7 +10857,7 @@
       </c>
       <c r="H8" s="37">
         <f t="shared" si="3"/>
-        <v>69069</v>
+        <v>3.4629298744601545E+23</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="4"/>
@@ -7902,7 +10870,7 @@
       </c>
       <c r="B9" s="33">
         <f>BOM_Consumo!K10</f>
-        <v>4440</v>
+        <v>2.2261692050100986E+22</v>
       </c>
       <c r="C9" s="33">
         <f>Inputs!B37</f>
@@ -7910,15 +10878,15 @@
       </c>
       <c r="D9" s="34">
         <f t="shared" si="0"/>
-        <v>4440</v>
+        <v>2.2261692050100999E+22</v>
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>4440</v>
+        <v>2.2261692050100999E+22</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>2.2261692050100999E+22</v>
       </c>
       <c r="G9" s="36">
         <f>Inputs!B47</f>
@@ -7926,7 +10894,7 @@
       </c>
       <c r="H9" s="37">
         <f t="shared" si="3"/>
-        <v>555000</v>
+        <v>2.7827115062626248E+24</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="4"/>
@@ -7939,7 +10907,7 @@
       </c>
       <c r="B10" s="33">
         <f>BOM_Consumo!K11</f>
-        <v>8880</v>
+        <v>4.4523384100201972E+22</v>
       </c>
       <c r="C10" s="33">
         <f>Inputs!B38</f>
@@ -7947,15 +10915,15 @@
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>4.4523384100202001E+20</v>
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>4.4523384100202001E+20</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8900</v>
+        <v>4.4523384100201997E+22</v>
       </c>
       <c r="G10" s="36">
         <f>Inputs!B48</f>
@@ -7963,7 +10931,7 @@
       </c>
       <c r="H10" s="37">
         <f t="shared" si="3"/>
-        <v>29370</v>
+        <v>1.469271675306666E+23</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="4"/>
@@ -7976,7 +10944,7 @@
       </c>
       <c r="B11" s="33">
         <f>BOM_Consumo!K12</f>
-        <v>29600</v>
+        <v>1.4841128033400655E+23</v>
       </c>
       <c r="C11" s="33">
         <f>Inputs!B39</f>
@@ -7984,15 +10952,15 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>987</v>
+        <v>4.9470426778002197E+21</v>
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>987</v>
+        <v>4.9470426778002197E+21</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>29610</v>
+        <v>1.4841128033400658E+23</v>
       </c>
       <c r="G11" s="36">
         <f>Inputs!B49</f>
@@ -8000,7 +10968,7 @@
       </c>
       <c r="H11" s="37">
         <f t="shared" si="3"/>
-        <v>59220</v>
+        <v>2.9682256066801317E+23</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="4"/>
@@ -8013,7 +10981,7 @@
       </c>
       <c r="B12" s="33">
         <f>BOM_Consumo!K13</f>
-        <v>11100</v>
+        <v>5.5654230125252467E+22</v>
       </c>
       <c r="C12" s="33">
         <f>Inputs!B40</f>
@@ -8021,15 +10989,15 @@
       </c>
       <c r="D12" s="34">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>9.27570502087541E+20</v>
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>9.27570502087541E+20</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11100</v>
+        <v>5.5654230125252459E+22</v>
       </c>
       <c r="G12" s="36">
         <f>Inputs!B50</f>
@@ -8037,7 +11005,7 @@
       </c>
       <c r="H12" s="37">
         <f t="shared" si="3"/>
-        <v>1295</v>
+        <v>6.4929935146127867E+21</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="4"/>
@@ -8045,35 +11013,35 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="38">
         <f>SUM(H7:H12)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -8111,7 +11079,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="85" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -8154,13 +11122,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="33">
         <f>BOM_Consumo!D6</f>
-        <v>1850</v>
+        <v>3422500</v>
       </c>
       <c r="D19" s="33">
         <f>Inputs!B35</f>
@@ -8168,7 +11136,7 @@
       </c>
       <c r="E19" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>114084</v>
       </c>
       <c r="F19" s="35">
         <v>0</v>
@@ -8195,13 +11163,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="33">
         <f>BOM_Consumo!E6</f>
-        <v>1850</v>
+        <v>6331625000</v>
       </c>
       <c r="D20" s="33">
         <f>Inputs!B35</f>
@@ -8209,7 +11177,7 @@
       </c>
       <c r="E20" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>211054167</v>
       </c>
       <c r="F20" s="35">
         <v>0</v>
@@ -8236,13 +11204,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="33">
         <f>BOM_Consumo!F6</f>
-        <v>1850</v>
+        <v>11713506250000</v>
       </c>
       <c r="D21" s="33">
         <f>Inputs!B35</f>
@@ -8250,7 +11218,7 @@
       </c>
       <c r="E21" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>390450208334</v>
       </c>
       <c r="F21" s="35">
         <v>0</v>
@@ -8277,13 +11245,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="33">
         <f>BOM_Consumo!G6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="D22" s="33">
         <f>Inputs!B35</f>
@@ -8291,7 +11259,7 @@
       </c>
       <c r="E22" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F22" s="35">
         <v>0</v>
@@ -8318,13 +11286,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="33">
         <f>BOM_Consumo!H6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="D23" s="33">
         <f>Inputs!B35</f>
@@ -8332,7 +11300,7 @@
       </c>
       <c r="E23" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F23" s="35">
         <v>0</v>
@@ -8359,13 +11327,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="33">
         <f>BOM_Consumo!I6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="D24" s="33">
         <f>Inputs!B35</f>
@@ -8373,7 +11341,7 @@
       </c>
       <c r="E24" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F24" s="35">
         <v>0</v>
@@ -8400,7 +11368,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
@@ -8441,7 +11409,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="85" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -8484,13 +11452,13 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="33">
         <f>BOM_Consumo!D7</f>
-        <v>370</v>
+        <v>684500</v>
       </c>
       <c r="D27" s="33">
         <f>Inputs!B36</f>
@@ -8498,7 +11466,7 @@
       </c>
       <c r="E27" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>57042</v>
       </c>
       <c r="F27" s="35">
         <v>0</v>
@@ -8525,13 +11493,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="33">
         <f>BOM_Consumo!E7</f>
-        <v>370</v>
+        <v>1266325000</v>
       </c>
       <c r="D28" s="33">
         <f>Inputs!B36</f>
@@ -8539,7 +11507,7 @@
       </c>
       <c r="E28" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>105527084</v>
       </c>
       <c r="F28" s="35">
         <v>0</v>
@@ -8566,13 +11534,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="33">
         <f>BOM_Consumo!F7</f>
-        <v>370</v>
+        <v>2342701250000</v>
       </c>
       <c r="D29" s="33">
         <f>Inputs!B36</f>
@@ -8580,7 +11548,7 @@
       </c>
       <c r="E29" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>195225104167</v>
       </c>
       <c r="F29" s="35">
         <v>0</v>
@@ -8607,13 +11575,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="33">
         <f>BOM_Consumo!G7</f>
-        <v>370</v>
+        <v>4333997312500000</v>
       </c>
       <c r="D30" s="33">
         <f>Inputs!B36</f>
@@ -8621,7 +11589,7 @@
       </c>
       <c r="E30" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>361166442708333</v>
       </c>
       <c r="F30" s="35">
         <v>0</v>
@@ -8648,13 +11616,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="33">
         <f>BOM_Consumo!H7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D31" s="33">
         <f>Inputs!B36</f>
@@ -8662,7 +11630,7 @@
       </c>
       <c r="E31" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F31" s="35">
         <v>0</v>
@@ -8689,13 +11657,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="33">
         <f>BOM_Consumo!I7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D32" s="33">
         <f>Inputs!B36</f>
@@ -8703,7 +11671,7 @@
       </c>
       <c r="E32" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F32" s="35">
         <v>0</v>
@@ -8730,7 +11698,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8798,24 +11766,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
@@ -8865,7 +11833,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H8</f>
-        <v>69069</v>
+        <v>3.4629298744601545E+23</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
@@ -8878,7 +11846,7 @@
       </c>
       <c r="F6" s="37">
         <f t="shared" si="0"/>
-        <v>69069</v>
+        <v>3.4629298744601545E+23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8887,7 +11855,7 @@
       </c>
       <c r="B7" s="36">
         <f>Compras_y_Lotes!H9</f>
-        <v>555000</v>
+        <v>2.7827115062626248E+24</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -8900,7 +11868,7 @@
       </c>
       <c r="F7" s="37">
         <f t="shared" si="0"/>
-        <v>555000</v>
+        <v>2.7827115062626248E+24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8909,7 +11877,7 @@
       </c>
       <c r="B8" s="36">
         <f>Compras_y_Lotes!H10</f>
-        <v>29370</v>
+        <v>1.469271675306666E+23</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
@@ -8922,7 +11890,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="0"/>
-        <v>29370</v>
+        <v>1.469271675306666E+23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8931,7 +11899,7 @@
       </c>
       <c r="B9" s="36">
         <f>Compras_y_Lotes!H11</f>
-        <v>59220</v>
+        <v>2.9682256066801317E+23</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -8944,7 +11912,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="0"/>
-        <v>59220</v>
+        <v>2.9682256066801317E+23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8953,7 +11921,7 @@
       </c>
       <c r="B10" s="36">
         <f>Compras_y_Lotes!H12</f>
-        <v>1295</v>
+        <v>6.4929935146127867E+21</v>
       </c>
       <c r="C10" s="41">
         <v>1</v>
@@ -8966,7 +11934,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="0"/>
-        <v>1295</v>
+        <v>6.4929935146127867E+21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8987,11 +11955,11 @@
       </c>
       <c r="E11" s="43">
         <f>SUMPRODUCT((Inventario_Dinamico!B7:I7+Inventario_Dinamico!B10:I10)/2)*Inputs!C59</f>
-        <v>-6931.2</v>
+        <v>-15823687286236.199</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="0"/>
-        <v>-6931.2</v>
+        <v>-15823687286236.199</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9012,11 +11980,11 @@
       </c>
       <c r="E12" s="43">
         <f>SUMPRODUCT((Inventario_Dinamico!B13:I13+Inventario_Dinamico!B16:I16)/2)*Inputs!C60</f>
-        <v>-15192</v>
+        <v>-6.8307928733728096E+16</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="0"/>
-        <v>-15192</v>
+        <v>-6.8307928733728096E+16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9025,7 +11993,7 @@
       </c>
       <c r="B13" s="38">
         <f>SUM(B5:B12)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C13" s="44">
         <f>SUM(C5:C12)</f>
@@ -9037,11 +12005,11 @@
       </c>
       <c r="E13" s="38">
         <f>SUM(E5:E12)</f>
-        <v>-22123.200000000001</v>
+        <v>-6.8323752421014336E+16</v>
       </c>
       <c r="F13" s="38">
         <f>SUM(F5:F12)</f>
-        <v>691830.8</v>
+        <v>3.5792471470981802E+24</v>
       </c>
     </row>
   </sheetData>
@@ -9067,52 +12035,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -9152,7 +12120,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -9177,7 +12145,7 @@
       </c>
       <c r="J6" s="37">
         <f>SUM(B6:I6)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9252,7 +12220,7 @@
       </c>
       <c r="B9" s="38">
         <f t="shared" ref="B9:I9" si="0">SUM(B6:B8)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
       <c r="C9" s="38">
         <f t="shared" si="0"/>
@@ -9284,7 +12252,7 @@
       </c>
       <c r="J9" s="38">
         <f>SUM(B9:I9)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
   </sheetData>
@@ -9300,7 +12268,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9311,24 +12279,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -9508,14 +12476,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -9543,23 +12511,23 @@
       </c>
       <c r="B22" s="37">
         <f>Costos!F13</f>
-        <v>691830.8</v>
+        <v>3.5792471470981802E+24</v>
       </c>
       <c r="C22" s="37">
         <f>Costos!F13</f>
-        <v>691830.8</v>
+        <v>3.5792471470981802E+24</v>
       </c>
       <c r="D22" s="37">
         <f>Costos!F13*0.9</f>
-        <v>622647.72000000009</v>
+        <v>3.221322432388362E+24</v>
       </c>
       <c r="E22" s="48">
         <f>MIN(B22:D22)</f>
-        <v>622647.72000000009</v>
+        <v>3.221322432388362E+24</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" ref="F22:F27" si="0">MAX(B22:D22)-MIN(B22:D22)</f>
-        <v>69183.079999999958</v>
+        <v>3.5792471470981818E+23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9679,6 +12647,72 @@
       <c r="F27" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>Costos!F13</f>
+        <v>3.5792471470981802E+24</v>
+      </c>
+      <c r="C31">
+        <f>Cashflow_Integrado!B30</f>
+        <v>3.5792472154219326E+24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.9</v>
+      </c>
+      <c r="B32">
+        <f t="dataTable" ref="B32:C34" dt2D="0" dtr="0" r1="E29"/>
+        <v>1.7120456883020339E+24</v>
+      </c>
+      <c r="C32">
+        <v>1.7120457286506825E+24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3.5792471470981802E+24</v>
+      </c>
+      <c r="C33">
+        <v>3.5792472154219326E+24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B34">
+        <v>6.9745972263766885E+24</v>
+      </c>
+      <c r="C34">
+        <v>6.9745973364035029E+24</v>
       </c>
     </row>
   </sheetData>
@@ -9704,46 +12738,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9916,18 +12950,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -10124,28 +13158,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
@@ -10153,7 +13187,7 @@
       </c>
       <c r="B5" s="55">
         <f>Costos!F13</f>
-        <v>691830.8</v>
+        <v>3.5792471470981802E+24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10162,7 +13196,7 @@
       </c>
       <c r="B6" s="55">
         <f>Cashflow_Compras!J9</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10183,7 +13217,7 @@
       </c>
       <c r="B8" s="55">
         <f>MAX(Cashflow_Compras!B9:I9)</f>
-        <v>713954</v>
+        <v>3.5792472154219326E+24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10212,16 +13246,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
@@ -10251,22 +13285,22 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
         <v>209</v>
       </c>
       <c r="B27" s="58">
-        <f>COUNTIF(Inventario_Dinamico!J52:J59,"&lt;0")</f>
-        <v>1</v>
+        <f>COUNTIF(Inventario_Dinamico!J55:J62,"&lt;0")</f>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>202</v>

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6EFE9A-C269-4793-B1D4-34D3873DD220}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040BF187-44CC-4C0F-B0E1-D589DF8C14E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1075,105 +1075,105 @@
       <b/>
       <sz val="14"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FFFF6B00"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1181,27 +1181,27 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1807,14 +1807,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2966,7 +2969,7 @@
         <v>7.4205640167003276E+22</v>
       </c>
       <c r="D94" s="22">
-        <f t="shared" si="1"/>
+        <f>B94*C94</f>
         <v>7.4205640167003276E+22</v>
       </c>
       <c r="E94" s="23" t="str">
@@ -3096,14 +3099,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3456,7 +3466,7 @@
       </c>
       <c r="B26">
         <f>Costos!F13</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3511,7 +3521,7 @@
       </c>
       <c r="D31">
         <f ca="1">$B$26+B31*$B$27+C31*$B$28</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3529,7 +3539,7 @@
       </c>
       <c r="D32">
         <f t="shared" ref="D32:D95" ca="1" si="3">$B$26+B32*$B$27+C32*$B$28</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3547,7 +3557,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,7 +3575,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,7 +3593,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3601,7 +3611,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3619,7 +3629,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3637,7 +3647,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,7 +3665,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3673,7 +3683,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,7 +3701,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3709,7 +3719,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3727,7 +3737,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,7 +3755,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3763,7 +3773,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3781,7 +3791,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3799,7 +3809,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3817,7 +3827,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,7 +3845,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3853,7 +3863,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3871,7 +3881,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3889,7 +3899,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3907,7 +3917,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,7 +3935,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,7 +3953,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,7 +3971,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3979,7 +3989,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3997,7 +4007,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4015,7 +4025,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4033,7 +4043,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4051,7 +4061,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4069,7 +4079,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4087,7 +4097,7 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,7 +4115,7 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4123,7 +4133,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4141,7 +4151,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,7 +4169,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4177,7 +4187,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4195,7 +4205,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4213,7 +4223,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4231,7 +4241,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4249,7 +4259,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4267,7 +4277,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4285,7 +4295,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4303,7 +4313,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4321,7 +4331,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4339,7 +4349,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4357,7 +4367,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4375,7 +4385,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4393,7 +4403,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4411,7 +4421,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4429,7 +4439,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4447,7 +4457,7 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4465,7 +4475,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4483,7 +4493,7 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4501,7 +4511,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,7 +4529,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4537,7 +4547,7 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4573,7 +4583,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4591,7 +4601,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,7 +4619,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4627,7 +4637,7 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4645,7 +4655,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4663,7 +4673,7 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4681,7 +4691,7 @@
       </c>
       <c r="D96">
         <f t="shared" ref="D96:D130" ca="1" si="7">$B$26+B96*$B$27+C96*$B$28</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,7 +4709,7 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4717,7 +4727,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4735,7 +4745,7 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4753,7 +4763,7 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4771,7 +4781,7 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4789,7 +4799,7 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4807,7 +4817,7 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4825,7 +4835,7 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4843,7 +4853,7 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4861,7 +4871,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4879,7 +4889,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4897,7 +4907,7 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4915,7 +4925,7 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4933,7 +4943,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4951,7 +4961,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4969,7 +4979,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4987,7 +4997,7 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -5005,7 +5015,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -5023,7 +5033,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -5041,7 +5051,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -5059,7 +5069,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -5077,7 +5087,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5095,7 +5105,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5113,7 +5123,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -5131,7 +5141,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5149,7 +5159,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -5167,7 +5177,7 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,7 +5195,7 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -5203,7 +5213,7 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5221,7 +5231,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -5239,7 +5249,7 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5257,7 +5267,7 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,7 +5285,7 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5293,7 +5303,7 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5302,7 +5312,7 @@
       </c>
       <c r="D132">
         <f ca="1">AVERAGE(D31:D130)</f>
-        <v>3.5792471470981786E+24</v>
+        <v>1.334266812305747E+24</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,7 +5321,7 @@
       </c>
       <c r="D133">
         <f ca="1">_xlfn.PERCENTILE.INC(D31:D130,0.9)</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
   </sheetData>
@@ -5333,12 +5343,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="10" width="13" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5441,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -5448,7 +5466,7 @@
       </c>
       <c r="J6" s="37">
         <f>B6</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5539,7 +5557,7 @@
       </c>
       <c r="B9" s="67">
         <f t="shared" ref="B9:J9" si="0">SUM(B6:B8)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C9" s="67">
         <f t="shared" si="0"/>
@@ -5571,7 +5589,7 @@
       </c>
       <c r="J9" s="67">
         <f t="shared" si="0"/>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5918,7 +5936,7 @@
       </c>
       <c r="B26" s="68">
         <f t="shared" ref="B26:J26" si="3">B9+B16+B23</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C26" s="68">
         <f t="shared" si="3"/>
@@ -5950,7 +5968,7 @@
       </c>
       <c r="J26" s="68">
         <f t="shared" si="3"/>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5970,7 +5988,7 @@
       </c>
       <c r="B30" s="69">
         <f>MAX(B26:I26)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>247</v>
@@ -5994,7 +6012,7 @@
       </c>
       <c r="B32" s="69">
         <f>AVERAGE(B26:I26)</f>
-        <v>4.4740589338727245E+23</v>
+        <v>1.6678335153821821E+23</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>251</v>
@@ -6006,7 +6024,7 @@
       </c>
       <c r="B33" s="69">
         <f>STDEV(B26:I26)</f>
-        <v>1.2654549922348287E+24</v>
+        <v>4.7173458305374049E+23</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>253</v>
@@ -6031,14 +6049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6588,11 +6609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6798,7 +6825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7171,7 +7200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8084,7 +8115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8214,12 +8247,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="11" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8310,7 +8354,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="25">
-        <f>Inputs!B23</f>
+        <f>_xlfn.XLOOKUP(A6,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>1</v>
       </c>
       <c r="C6" s="26">
@@ -8355,7 +8399,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="25">
-        <f>Inputs!B24</f>
+        <f>_xlfn.XLOOKUP(A7,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.2</v>
       </c>
       <c r="C7" s="26">
@@ -8400,7 +8444,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="25">
-        <f>Inputs!B25</f>
+        <f>_xlfn.XLOOKUP(A8,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.01</v>
       </c>
       <c r="C8" s="26">
@@ -8445,7 +8489,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="25">
-        <f>Inputs!B26</f>
+        <f>_xlfn.XLOOKUP(A9,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>8</v>
       </c>
       <c r="C9" s="26">
@@ -8490,7 +8534,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="25">
-        <f>Inputs!B27</f>
+        <f>_xlfn.XLOOKUP(A10,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.3</v>
       </c>
       <c r="C10" s="26">
@@ -8535,7 +8579,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="25">
-        <f>Inputs!B28</f>
+        <f>_xlfn.XLOOKUP(A11,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.6</v>
       </c>
       <c r="C11" s="26">
@@ -8580,7 +8624,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="25">
-        <f>Inputs!B29</f>
+        <f>_xlfn.XLOOKUP(A12,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>2</v>
       </c>
       <c r="C12" s="26">
@@ -8625,7 +8669,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="25">
-        <f>Inputs!B30</f>
+        <f>_xlfn.XLOOKUP(A13,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.75</v>
       </c>
       <c r="C13" s="26">
@@ -8723,12 +8767,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="9" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8825,7 +8878,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="29">
-        <f>Inputs!B11</f>
+        <f>Multi_Planta!D6</f>
         <v>4512</v>
       </c>
       <c r="C7" s="22">
@@ -9009,7 +9062,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="29">
-        <f>Inputs!B12</f>
+        <f>Multi_Planta!D7</f>
         <v>1058</v>
       </c>
       <c r="C13" s="22">
@@ -9193,7 +9246,7 @@
         <v>101</v>
       </c>
       <c r="B19" s="29">
-        <f>Inputs!B13</f>
+        <f>Multi_Planta!D8</f>
         <v>130</v>
       </c>
       <c r="C19" s="22">
@@ -9377,7 +9430,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="29">
-        <f>Inputs!B14</f>
+        <f>Multi_Planta!D9</f>
         <v>5268</v>
       </c>
       <c r="C25" s="22">
@@ -9561,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="29">
-        <f>Inputs!B15</f>
+        <f>Multi_Planta!D10</f>
         <v>4333</v>
       </c>
       <c r="C31" s="22">
@@ -9745,7 +9798,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="29">
-        <f>Inputs!B16</f>
+        <f>Multi_Planta!D11</f>
         <v>8487</v>
       </c>
       <c r="C37" s="22">
@@ -9929,7 +9982,7 @@
         <v>101</v>
       </c>
       <c r="B43" s="29">
-        <f>Inputs!B17</f>
+        <f>Multi_Planta!D12</f>
         <v>23192</v>
       </c>
       <c r="C43" s="22">
@@ -10113,7 +10166,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="29">
-        <f>Inputs!$B$18</f>
+        <f>Multi_Planta!D13</f>
         <v>6035</v>
       </c>
       <c r="C49" s="22">
@@ -10691,12 +10744,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="11" width="11" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10815,12 +10878,12 @@
         <v>7.4205640167003298E+20</v>
       </c>
       <c r="G7" s="36">
-        <f>Inputs!B45</f>
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(A7,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
+        <v>60</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" ref="H7:H12" si="3">E7*G7</f>
-        <v>0</v>
+        <v>1.484112803340066E+21</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" ref="I7:I12" si="4">IF(F7&gt;=B7,"OK","INSUFICIENTE")</f>
@@ -10852,7 +10915,7 @@
         <v>5.9364512133602641E+23</v>
       </c>
       <c r="G8" s="36">
-        <f>Inputs!B46</f>
+        <f>_xlfn.XLOOKUP(A8,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>7</v>
       </c>
       <c r="H8" s="37">
@@ -10889,12 +10952,12 @@
         <v>2.2261692050100999E+22</v>
       </c>
       <c r="G9" s="36">
-        <f>Inputs!B47</f>
-        <v>125</v>
+        <f>_xlfn.XLOOKUP(A9,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
+        <v>36</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="3"/>
-        <v>2.7827115062626248E+24</v>
+        <v>8.0142091380363598E+23</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="4"/>
@@ -10926,12 +10989,12 @@
         <v>4.4523384100201997E+22</v>
       </c>
       <c r="G10" s="36">
-        <f>Inputs!B48</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(A10,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
+        <v>24</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="3"/>
-        <v>1.469271675306666E+23</v>
+        <v>1.068561218404848E+22</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="4"/>
@@ -10963,12 +11026,12 @@
         <v>1.4841128033400658E+23</v>
       </c>
       <c r="G11" s="36">
-        <f>Inputs!B49</f>
-        <v>60</v>
+        <f>_xlfn.XLOOKUP(A11,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
+        <v>30</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="3"/>
-        <v>2.9682256066801317E+23</v>
+        <v>1.4841128033400658E+23</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="4"/>
@@ -11000,12 +11063,12 @@
         <v>5.5654230125252459E+22</v>
       </c>
       <c r="G12" s="36">
-        <f>Inputs!B50</f>
-        <v>7</v>
+        <f>_xlfn.XLOOKUP(A12,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
+        <v>28</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="3"/>
-        <v>6.4929935146127867E+21</v>
+        <v>2.5971974058451147E+22</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="4"/>
@@ -11024,7 +11087,7 @@
       <c r="G13" s="83"/>
       <c r="H13" s="38">
         <f>SUM(H7:H12)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11758,11 +11821,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11811,7 +11881,7 @@
       </c>
       <c r="B5" s="36">
         <f>Compras_y_Lotes!H7</f>
-        <v>0</v>
+        <v>1.484112803340066E+21</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -11824,7 +11894,7 @@
       </c>
       <c r="F5" s="37">
         <f t="shared" ref="F5:F12" si="0">B5+D5+E5</f>
-        <v>0</v>
+        <v>1.484112803340066E+21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11855,7 +11925,7 @@
       </c>
       <c r="B7" s="36">
         <f>Compras_y_Lotes!H9</f>
-        <v>2.7827115062626248E+24</v>
+        <v>8.0142091380363598E+23</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -11868,7 +11938,7 @@
       </c>
       <c r="F7" s="37">
         <f t="shared" si="0"/>
-        <v>2.7827115062626248E+24</v>
+        <v>8.0142091380363598E+23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11877,7 +11947,7 @@
       </c>
       <c r="B8" s="36">
         <f>Compras_y_Lotes!H10</f>
-        <v>1.469271675306666E+23</v>
+        <v>1.068561218404848E+22</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
@@ -11890,7 +11960,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="0"/>
-        <v>1.469271675306666E+23</v>
+        <v>1.068561218404848E+22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11899,7 +11969,7 @@
       </c>
       <c r="B9" s="36">
         <f>Compras_y_Lotes!H11</f>
-        <v>2.9682256066801317E+23</v>
+        <v>1.4841128033400658E+23</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -11912,7 +11982,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="0"/>
-        <v>2.9682256066801317E+23</v>
+        <v>1.4841128033400658E+23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11921,7 +11991,7 @@
       </c>
       <c r="B10" s="36">
         <f>Compras_y_Lotes!H12</f>
-        <v>6.4929935146127867E+21</v>
+        <v>2.5971974058451147E+22</v>
       </c>
       <c r="C10" s="41">
         <v>1</v>
@@ -11934,7 +12004,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="0"/>
-        <v>6.4929935146127867E+21</v>
+        <v>2.5971974058451147E+22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11993,7 +12063,7 @@
       </c>
       <c r="B13" s="38">
         <f>SUM(B5:B12)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C13" s="44">
         <f>SUM(C5:C12)</f>
@@ -12009,7 +12079,7 @@
       </c>
       <c r="F13" s="38">
         <f>SUM(F5:F12)</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
   </sheetData>
@@ -12026,12 +12096,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="10" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12120,7 +12194,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -12145,7 +12219,7 @@
       </c>
       <c r="J6" s="37">
         <f>SUM(B6:I6)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12220,7 +12294,7 @@
       </c>
       <c r="B9" s="38">
         <f t="shared" ref="B9:I9" si="0">SUM(B6:B8)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
       <c r="C9" s="38">
         <f t="shared" si="0"/>
@@ -12252,7 +12326,7 @@
       </c>
       <c r="J9" s="38">
         <f>SUM(B9:I9)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
   </sheetData>
@@ -12270,12 +12344,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12511,23 +12589,23 @@
       </c>
       <c r="B22" s="37">
         <f>Costos!F13</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
       <c r="C22" s="37">
         <f>Costos!F13</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
       <c r="D22" s="37">
         <f>Costos!F13*0.9</f>
-        <v>3.221322432388362E+24</v>
+        <v>1.2008401310751709E+24</v>
       </c>
       <c r="E22" s="48">
         <f>MIN(B22:D22)</f>
-        <v>3.221322432388362E+24</v>
+        <v>1.2008401310751709E+24</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" ref="F22:F27" si="0">MAX(B22:D22)-MIN(B22:D22)</f>
-        <v>3.5792471470981818E+23</v>
+        <v>1.3342668123057449E+23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12674,11 +12752,11 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>Costos!F13</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
       <c r="C31">
         <f>Cashflow_Integrado!B30</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12687,10 +12765,10 @@
       </c>
       <c r="B32">
         <f t="dataTable" ref="B32:C34" dt2D="0" dtr="0" r1="E29"/>
-        <v>1.7120456883020339E+24</v>
+        <v>6.3821402433492687E+23</v>
       </c>
       <c r="C32">
-        <v>1.7120457286506825E+24</v>
+        <v>6.3821406468357528E+23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12698,10 +12776,10 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
       <c r="C33">
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12709,10 +12787,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B34">
-        <v>6.9745972263766885E+24</v>
+        <v>2.5999807439340891E+24</v>
       </c>
       <c r="C34">
-        <v>6.9745973364035029E+24</v>
+        <v>2.5999808539609029E+24</v>
       </c>
     </row>
   </sheetData>
@@ -12730,11 +12808,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="13" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13149,12 +13238,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13187,7 +13278,7 @@
       </c>
       <c r="B5" s="55">
         <f>Costos!F13</f>
-        <v>3.5792471470981802E+24</v>
+        <v>1.3342668123057454E+24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13196,7 +13287,7 @@
       </c>
       <c r="B6" s="55">
         <f>Cashflow_Compras!J9</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13217,7 +13308,7 @@
       </c>
       <c r="B8" s="55">
         <f>MAX(Cashflow_Compras!B9:I9)</f>
-        <v>3.5792472154219326E+24</v>
+        <v>1.3342668806294978E+24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="497" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040BF187-44CC-4C0F-B0E1-D589DF8C14E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1447,11 +1447,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1807,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -1821,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2351,12 +2351,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2494,13 +2494,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2559,15 +2559,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2658,15 +2658,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2757,12 +2757,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2863,22 +2863,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -3076,11 +3076,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3089,6 +3084,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3145,12 +3145,12 @@
       <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3197,18 +3197,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -3314,16 +3314,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -5360,48 +5360,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5593,18 +5593,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5762,18 +5762,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5975,12 +5975,12 @@
       <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -6081,13 +6081,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6221,13 +6221,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6407,13 +6407,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6623,13 +6623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6641,13 +6641,13 @@
       <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6835,14 +6835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6855,14 +6855,14 @@
       <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7234,16 +7234,16 @@
       <c r="H2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8115,7 +8115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -8147,15 +8147,15 @@
       <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8267,20 +8267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8785,19 +8785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8830,19 +8830,19 @@
       <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9014,19 +9014,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9198,19 +9198,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9382,19 +9382,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9566,19 +9566,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9750,19 +9750,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9934,19 +9934,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -10118,19 +10118,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10302,18 +10302,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10677,11 +10677,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10689,6 +10684,11 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10763,20 +10763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -10811,18 +10811,18 @@
       <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -11091,20 +11091,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -11836,14 +11836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12109,20 +12109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12357,14 +12357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12554,14 +12554,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12827,18 +12827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12855,18 +12855,18 @@
       <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13039,18 +13039,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13261,16 +13261,16 @@
       <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
@@ -13337,16 +13337,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="497" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040BF187-44CC-4C0F-B0E1-D589DF8C14E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1447,11 +1447,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2351,12 +2351,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2494,13 +2494,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2559,15 +2559,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2658,15 +2658,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2757,12 +2757,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2863,22 +2863,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -3076,6 +3076,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3084,11 +3089,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3145,12 +3145,12 @@
       <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3197,18 +3197,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -3314,16 +3314,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -5360,48 +5360,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5593,18 +5593,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5762,18 +5762,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5975,12 +5975,12 @@
       <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -6081,13 +6081,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6221,13 +6221,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6407,13 +6407,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6623,13 +6623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6641,13 +6641,13 @@
       <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6835,14 +6835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6855,14 +6855,14 @@
       <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7234,16 +7234,16 @@
       <c r="H2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8147,15 +8147,15 @@
       <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8267,20 +8267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8785,19 +8785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8830,19 +8830,19 @@
       <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9014,19 +9014,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9198,19 +9198,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9382,19 +9382,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9566,19 +9566,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9750,19 +9750,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9934,19 +9934,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -10118,19 +10118,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10302,18 +10302,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10677,6 +10677,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10684,11 +10689,6 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10744,7 +10744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10763,20 +10763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -10811,18 +10811,18 @@
       <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -11091,20 +11091,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -11836,14 +11836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12109,20 +12109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12357,14 +12357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12554,14 +12554,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12827,18 +12827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12855,18 +12855,18 @@
       <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13039,18 +13039,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13261,16 +13261,16 @@
       <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
@@ -13337,16 +13337,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="497" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040BF187-44CC-4C0F-B0E1-D589DF8C14E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1447,11 +1447,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1807,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -1821,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2351,12 +2351,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2494,13 +2494,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2559,15 +2559,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2658,15 +2658,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2757,12 +2757,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2863,22 +2863,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -3076,11 +3076,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3089,6 +3084,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3145,12 +3145,12 @@
       <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3197,18 +3197,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -3314,16 +3314,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -5360,48 +5360,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5593,18 +5593,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5762,18 +5762,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5975,12 +5975,12 @@
       <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -6081,13 +6081,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6221,13 +6221,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6407,13 +6407,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6623,13 +6623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6641,13 +6641,13 @@
       <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6835,14 +6835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6855,14 +6855,14 @@
       <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7234,16 +7234,16 @@
       <c r="H2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8147,15 +8147,15 @@
       <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8267,20 +8267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8785,19 +8785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8830,19 +8830,19 @@
       <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9014,19 +9014,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9198,19 +9198,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9382,19 +9382,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9566,19 +9566,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9750,19 +9750,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9934,19 +9934,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -10118,19 +10118,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10302,18 +10302,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10677,11 +10677,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10689,6 +10684,11 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10744,8 +10744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10763,20 +10763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -10811,18 +10811,18 @@
       <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -11091,20 +11091,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -11836,14 +11836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12109,20 +12109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12357,14 +12357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12554,14 +12554,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12827,18 +12827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12855,18 +12855,18 @@
       <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13039,18 +13039,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13261,16 +13261,16 @@
       <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
@@ -13337,16 +13337,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040BF187-44CC-4C0F-B0E1-D589DF8C14E2}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C158505E-1BEC-4396-B943-81F5F8F979A7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1447,11 +1447,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1821,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2351,12 +2351,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2494,13 +2494,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2559,15 +2559,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2658,15 +2658,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2757,12 +2757,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2863,22 +2863,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -2906,11 +2906,11 @@
       </c>
       <c r="C91" s="22">
         <f>BOM_Consumo!K6/8</f>
-        <v>1464980162650</v>
+        <v>925</v>
       </c>
       <c r="D91" s="22">
         <f t="shared" ref="D91:D98" si="1">B91*C91</f>
-        <v>1464980162650</v>
+        <v>925</v>
       </c>
       <c r="E91" s="23" t="str">
         <f t="shared" ref="E91:E98" si="2">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="C92" s="22">
         <f>BOM_Consumo!K7/8</f>
-        <v>542042660095030</v>
+        <v>231.25</v>
       </c>
       <c r="D92" s="22">
         <f t="shared" si="1"/>
-        <v>542042660095030</v>
+        <v>231.25</v>
       </c>
       <c r="E92" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2946,11 +2946,11 @@
       </c>
       <c r="C93" s="22">
         <f>BOM_Consumo!K8/8</f>
-        <v>9.275705020875409E+19</v>
+        <v>16.1875</v>
       </c>
       <c r="D93" s="22">
         <f t="shared" si="1"/>
-        <v>1.8551410041750818E+20</v>
+        <v>32.375</v>
       </c>
       <c r="E93" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2966,11 +2966,11 @@
       </c>
       <c r="C94" s="22">
         <f>BOM_Consumo!K9/8</f>
-        <v>7.4205640167003276E+22</v>
+        <v>12950</v>
       </c>
       <c r="D94" s="22">
         <f>B94*C94</f>
-        <v>7.4205640167003276E+22</v>
+        <v>12950</v>
       </c>
       <c r="E94" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="C95" s="22">
         <f>BOM_Consumo!K10/8</f>
-        <v>2.7827115062626233E+21</v>
+        <v>485.625</v>
       </c>
       <c r="D95" s="22">
         <f t="shared" si="1"/>
-        <v>2.7827115062626233E+21</v>
+        <v>485.625</v>
       </c>
       <c r="E95" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3006,11 +3006,11 @@
       </c>
       <c r="C96" s="22">
         <f>BOM_Consumo!K11/8</f>
-        <v>5.5654230125252465E+21</v>
+        <v>971.25</v>
       </c>
       <c r="D96" s="22">
         <f t="shared" si="1"/>
-        <v>5.5654230125252465E+21</v>
+        <v>971.25</v>
       </c>
       <c r="E96" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3026,11 +3026,11 @@
       </c>
       <c r="C97" s="22">
         <f>BOM_Consumo!K12/8</f>
-        <v>1.8551410041750819E+22</v>
+        <v>3237.5</v>
       </c>
       <c r="D97" s="22">
         <f t="shared" si="1"/>
-        <v>1.8551410041750819E+22</v>
+        <v>3237.5</v>
       </c>
       <c r="E97" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3046,11 +3046,11 @@
       </c>
       <c r="C98" s="22">
         <f>BOM_Consumo!K13/8</f>
-        <v>6.9567787656565584E+21</v>
+        <v>1214.0625</v>
       </c>
       <c r="D98" s="22">
         <f t="shared" si="1"/>
-        <v>6.9567787656565584E+21</v>
+        <v>1214.0625</v>
       </c>
       <c r="E98" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3076,6 +3076,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3084,11 +3089,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3145,12 +3145,12 @@
       <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3197,18 +3197,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -3314,16 +3314,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B26">
         <f>Costos!F13</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="D31">
         <f ca="1">$B$26+B31*$B$27+C31*$B$28</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="D32">
         <f t="shared" ref="D32:D95" ca="1" si="3">$B$26+B32*$B$27+C32*$B$28</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="D96">
         <f t="shared" ref="D96:D130" ca="1" si="7">$B$26+B96*$B$27+C96*$B$28</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="D132">
         <f ca="1">AVERAGE(D31:D130)</f>
-        <v>1.334266812305747E+24</v>
+        <v>222735.3000000004</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="D133">
         <f ca="1">_xlfn.PERCENTILE.INC(D31:D130,0.9)</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
   </sheetData>
@@ -5360,48 +5360,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="J6" s="37">
         <f>B6</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B9" s="67">
         <f t="shared" ref="B9:J9" si="0">SUM(B6:B8)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
       <c r="C9" s="67">
         <f t="shared" si="0"/>
@@ -5589,22 +5589,22 @@
       </c>
       <c r="J9" s="67">
         <f t="shared" si="0"/>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5762,18 +5762,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5817,35 +5817,35 @@
       </c>
       <c r="C21" s="37">
         <f>(Inventario_Dinamico!C7+Inventario_Dinamico!C10)/2*Inputs!$C$59</f>
-        <v>-512576.39999999997</v>
+        <v>521.1</v>
       </c>
       <c r="D21" s="37">
         <f>(Inventario_Dinamico!D7+Inventario_Dinamico!D10)/2*Inputs!$C$59</f>
-        <v>-950769701.39999998</v>
+        <v>-33.9</v>
       </c>
       <c r="E21" s="37">
         <f>(Inventario_Dinamico!E7+Inventario_Dinamico!E10)/2*Inputs!$C$59</f>
-        <v>-1758926450951.3999</v>
+        <v>-588.9</v>
       </c>
       <c r="F21" s="37">
         <f>(Inventario_Dinamico!F7+Inventario_Dinamico!F10)/2*Inputs!$C$59</f>
-        <v>-3515952388451.3999</v>
+        <v>-866.4</v>
       </c>
       <c r="G21" s="37">
         <f>(Inventario_Dinamico!G7+Inventario_Dinamico!G10)/2*Inputs!$C$59</f>
-        <v>-3515952388451.3999</v>
+        <v>-866.4</v>
       </c>
       <c r="H21" s="37">
         <f>(Inventario_Dinamico!H7+Inventario_Dinamico!H10)/2*Inputs!$C$59</f>
-        <v>-3515952388451.3999</v>
+        <v>-866.4</v>
       </c>
       <c r="I21" s="37">
         <f>(Inventario_Dinamico!I7+Inventario_Dinamico!I10)/2*Inputs!$C$59</f>
-        <v>-3515952388728.8999</v>
+        <v>-866.4</v>
       </c>
       <c r="J21" s="37">
         <f>SUM(B21:I21)</f>
-        <v>-15823687286236.201</v>
+        <v>-2491.2000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5858,35 +5858,35 @@
       </c>
       <c r="C22" s="37">
         <f>(Inventario_Dinamico!C13+Inventario_Dinamico!C16)/2*Inputs!$C$60</f>
-        <v>-1537029</v>
+        <v>2263.5</v>
       </c>
       <c r="D22" s="37">
         <f>(Inventario_Dinamico!D13+Inventario_Dinamico!D16)/2*Inputs!$C$60</f>
-        <v>-2852308404</v>
+        <v>598.5</v>
       </c>
       <c r="E22" s="37">
         <f>(Inventario_Dinamico!E13+Inventario_Dinamico!E16)/2*Inputs!$C$60</f>
-        <v>-5276779352154</v>
+        <v>-1066.5</v>
       </c>
       <c r="F22" s="37">
         <f>(Inventario_Dinamico!F13+Inventario_Dinamico!F16)/2*Inputs!$C$60</f>
-        <v>-9762041810289654</v>
+        <v>-2731.5</v>
       </c>
       <c r="G22" s="37">
         <f>(Inventario_Dinamico!G13+Inventario_Dinamico!G16)/2*Inputs!$C$60</f>
-        <v>-1.9513535763414656E+16</v>
+        <v>-3564</v>
       </c>
       <c r="H22" s="37">
         <f>(Inventario_Dinamico!H13+Inventario_Dinamico!H16)/2*Inputs!$C$60</f>
-        <v>-1.9513535763414656E+16</v>
+        <v>-3564</v>
       </c>
       <c r="I22" s="37">
         <f>(Inventario_Dinamico!I13+Inventario_Dinamico!I16)/2*Inputs!$C$60</f>
-        <v>-1.9513535763415488E+16</v>
+        <v>-3564</v>
       </c>
       <c r="J22" s="37">
         <f>SUM(B22:I22)</f>
-        <v>-6.8307928733728112E+16</v>
+        <v>-7699.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5899,35 +5899,35 @@
       </c>
       <c r="C23" s="67">
         <f t="shared" si="2"/>
-        <v>-2049605.4</v>
+        <v>2784.6</v>
       </c>
       <c r="D23" s="67">
         <f t="shared" si="2"/>
-        <v>-3803078105.4000001</v>
+        <v>564.6</v>
       </c>
       <c r="E23" s="67">
         <f t="shared" si="2"/>
-        <v>-7035705803105.4004</v>
+        <v>-1655.4</v>
       </c>
       <c r="F23" s="67">
         <f t="shared" si="2"/>
-        <v>-9765557762678106</v>
+        <v>-3597.9</v>
       </c>
       <c r="G23" s="67">
         <f t="shared" si="2"/>
-        <v>-1.9517051715803108E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="H23" s="67">
         <f t="shared" si="2"/>
-        <v>-1.9517051715803108E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="I23" s="67">
         <f t="shared" si="2"/>
-        <v>-1.9517051715804216E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="J23" s="67">
         <f t="shared" si="2"/>
-        <v>-6.8323752421014352E+16</v>
+        <v>-10190.700000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5936,51 +5936,51 @@
       </c>
       <c r="B26" s="68">
         <f t="shared" ref="B26:J26" si="3">B9+B16+B23</f>
-        <v>1.3342668806294978E+24</v>
+        <v>237930.6</v>
       </c>
       <c r="C26" s="68">
         <f t="shared" si="3"/>
-        <v>-2049605.4</v>
+        <v>2784.6</v>
       </c>
       <c r="D26" s="68">
         <f t="shared" si="3"/>
-        <v>-3803078105.4000001</v>
+        <v>564.6</v>
       </c>
       <c r="E26" s="68">
         <f t="shared" si="3"/>
-        <v>-7035705803105.4004</v>
+        <v>-1655.4</v>
       </c>
       <c r="F26" s="68">
         <f t="shared" si="3"/>
-        <v>-9765557762678106</v>
+        <v>-3597.9</v>
       </c>
       <c r="G26" s="68">
         <f t="shared" si="3"/>
-        <v>-1.9517051715803108E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="H26" s="68">
         <f t="shared" si="3"/>
-        <v>-1.9517051715803108E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="I26" s="68">
         <f t="shared" si="3"/>
-        <v>-1.9517051715804216E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="J26" s="68">
         <f t="shared" si="3"/>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B30" s="69">
         <f>MAX(B26:I26)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>237930.6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>247</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B31" s="69">
         <f>MIN(B26:I26)</f>
-        <v>-1.9517051715804216E+16</v>
+        <v>-4430.3999999999996</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>249</v>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B32" s="69">
         <f>AVERAGE(B26:I26)</f>
-        <v>1.6678335153821821E+23</v>
+        <v>27841.912500000006</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>251</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B33" s="69">
         <f>STDEV(B26:I26)</f>
-        <v>4.7173458305374049E+23</v>
+        <v>84930.422800472195</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>253</v>
@@ -6081,13 +6081,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="C6" s="33">
         <f>Compras_y_Lotes!E7</f>
-        <v>2.4735213389001101E+19</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>261</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C7" s="33">
         <f>Compras_y_Lotes!E8</f>
-        <v>4.9470426778002203E+22</v>
+        <v>8634</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>261</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="C8" s="33">
         <f>Compras_y_Lotes!E9</f>
-        <v>2.2261692050100999E+22</v>
+        <v>3885</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>261</v>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C9" s="33">
         <f>Compras_y_Lotes!E10</f>
-        <v>4.4523384100202001E+20</v>
+        <v>78</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>261</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C10" s="33">
         <f>Compras_y_Lotes!E11</f>
-        <v>4.9470426778002197E+21</v>
+        <v>864</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>261</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="C11" s="33">
         <f>Compras_y_Lotes!E12</f>
-        <v>9.27570502087541E+20</v>
+        <v>162</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>261</v>
@@ -6221,13 +6221,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6407,13 +6407,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6623,13 +6623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6641,13 +6641,13 @@
       <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6835,14 +6835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -6855,14 +6855,14 @@
       <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7234,16 +7234,16 @@
       <c r="H2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7401,31 +7401,31 @@
       </c>
       <c r="C18" s="75">
         <f>Inventario_Dinamico!C10</f>
-        <v>-3419838</v>
+        <v>812</v>
       </c>
       <c r="D18" s="75">
         <f>Inventario_Dinamico!D10</f>
-        <v>-6335044838</v>
+        <v>-1038</v>
       </c>
       <c r="E18" s="75">
         <f>Inventario_Dinamico!E10</f>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="F18" s="75">
         <f>Inventario_Dinamico!F10</f>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="G18" s="75">
         <f>Inventario_Dinamico!G10</f>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="H18" s="75">
         <f>Inventario_Dinamico!H10</f>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="I18" s="75">
         <f>Inventario_Dinamico!I10</f>
-        <v>-11719841296688</v>
+        <v>-2888</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7438,31 +7438,31 @@
       </c>
       <c r="C19" s="75">
         <f>Inventario_Dinamico!C16</f>
-        <v>-683812</v>
+        <v>318</v>
       </c>
       <c r="D19" s="75">
         <f>Inventario_Dinamico!D16</f>
-        <v>-1267008812</v>
+        <v>-52</v>
       </c>
       <c r="E19" s="75">
         <f>Inventario_Dinamico!E16</f>
-        <v>-2343968258812</v>
+        <v>-422</v>
       </c>
       <c r="F19" s="75">
         <f>Inventario_Dinamico!F16</f>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="G19" s="75">
         <f>Inventario_Dinamico!G16</f>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="H19" s="75">
         <f>Inventario_Dinamico!H16</f>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="I19" s="75">
         <f>Inventario_Dinamico!I16</f>
-        <v>-4336341280759182</v>
+        <v>-792</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7475,31 +7475,31 @@
       </c>
       <c r="C20" s="75">
         <f>Inventario_Dinamico!C22</f>
-        <v>-34113.5</v>
+        <v>93</v>
       </c>
       <c r="D20" s="75">
         <f>Inventario_Dinamico!D22</f>
-        <v>-63350363.5</v>
+        <v>74.5</v>
       </c>
       <c r="E20" s="75">
         <f>Inventario_Dinamico!E22</f>
-        <v>-117198412863.5</v>
+        <v>56</v>
       </c>
       <c r="F20" s="75">
         <f>Inventario_Dinamico!F22</f>
-        <v>-216817064037863.5</v>
+        <v>37.5</v>
       </c>
       <c r="G20" s="75">
         <f>Inventario_Dinamico!G22</f>
-        <v>-4.0111156847028787E+17</v>
+        <v>19</v>
       </c>
       <c r="H20" s="75">
         <f>Inventario_Dinamico!H22</f>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="75">
         <f>Inventario_Dinamico!I22</f>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -7512,31 +7512,31 @@
       </c>
       <c r="C21" s="75">
         <f>Inventario_Dinamico!C28</f>
-        <v>-27389532</v>
+        <v>-24332</v>
       </c>
       <c r="D21" s="75">
         <f>Inventario_Dinamico!D28</f>
-        <v>-50680389532</v>
+        <v>-39132</v>
       </c>
       <c r="E21" s="75">
         <f>Inventario_Dinamico!E28</f>
-        <v>-93758730389532</v>
+        <v>-53932</v>
       </c>
       <c r="F21" s="75">
         <f>Inventario_Dinamico!F28</f>
-        <v>-1.7345365123038954E+17</v>
+        <v>-68732</v>
       </c>
       <c r="G21" s="75">
         <f>Inventario_Dinamico!G28</f>
-        <v>-3.2088925477623038E+20</v>
+        <v>-83532</v>
       </c>
       <c r="H21" s="75">
         <f>Inventario_Dinamico!H28</f>
-        <v>-5.9364512133602621E+23</v>
+        <v>-98332</v>
       </c>
       <c r="I21" s="75">
         <f>Inventario_Dinamico!I28</f>
-        <v>-5.9364512133602621E+23</v>
+        <v>-98332</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7549,31 +7549,31 @@
       </c>
       <c r="C22" s="75">
         <f>Inventario_Dinamico!C34</f>
-        <v>-1022972</v>
+        <v>3223</v>
       </c>
       <c r="D22" s="75">
         <f>Inventario_Dinamico!D34</f>
-        <v>-1900510472</v>
+        <v>2668</v>
       </c>
       <c r="E22" s="75">
         <f>Inventario_Dinamico!E34</f>
-        <v>-3515952385472</v>
+        <v>2113</v>
       </c>
       <c r="F22" s="75">
         <f>Inventario_Dinamico!F34</f>
-        <v>-6504511921135472</v>
+        <v>1558</v>
       </c>
       <c r="G22" s="75">
         <f>Inventario_Dinamico!G34</f>
-        <v>-1.2033347054108635E+19</v>
+        <v>1003</v>
       </c>
       <c r="H22" s="75">
         <f>Inventario_Dinamico!H34</f>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
       <c r="I22" s="75">
         <f>Inventario_Dinamico!I34</f>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7586,31 +7586,31 @@
       </c>
       <c r="C23" s="75">
         <f>Inventario_Dinamico!C40</f>
-        <v>-2046123</v>
+        <v>6267</v>
       </c>
       <c r="D23" s="75">
         <f>Inventario_Dinamico!D40</f>
-        <v>-3801021123</v>
+        <v>5157</v>
       </c>
       <c r="E23" s="75">
         <f>Inventario_Dinamico!E40</f>
-        <v>-7031904771123</v>
+        <v>4047</v>
       </c>
       <c r="F23" s="75">
         <f>Inventario_Dinamico!F40</f>
-        <v>-1.3009023842271124E+16</v>
+        <v>2937</v>
       </c>
       <c r="G23" s="75">
         <f>Inventario_Dinamico!G40</f>
-        <v>-2.406669410821727E+19</v>
+        <v>1827</v>
       </c>
       <c r="H23" s="75">
         <f>Inventario_Dinamico!H40</f>
-        <v>-4.4523384100201972E+22</v>
+        <v>717</v>
       </c>
       <c r="I23" s="75">
         <f>Inventario_Dinamico!I40</f>
-        <v>-4.4523384100201972E+22</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -7623,31 +7623,31 @@
       </c>
       <c r="C24" s="75">
         <f>Inventario_Dinamico!C46</f>
-        <v>-6825508</v>
+        <v>15792</v>
       </c>
       <c r="D24" s="75">
         <f>Inventario_Dinamico!D46</f>
-        <v>-12670075508</v>
+        <v>12092</v>
       </c>
       <c r="E24" s="75">
         <f>Inventario_Dinamico!E46</f>
-        <v>-23439682575508</v>
+        <v>8392</v>
       </c>
       <c r="F24" s="75">
         <f>Inventario_Dinamico!F46</f>
-        <v>-4.3363412807575504E+16</v>
+        <v>4692</v>
       </c>
       <c r="G24" s="75">
         <f>Inventario_Dinamico!G46</f>
-        <v>-8.0222313694057578E+19</v>
+        <v>992</v>
       </c>
       <c r="H24" s="75">
         <f>Inventario_Dinamico!H46</f>
-        <v>-1.4841128033400655E+23</v>
+        <v>-2708</v>
       </c>
       <c r="I24" s="75">
         <f>Inventario_Dinamico!I46</f>
-        <v>-1.4841128033400655E+23</v>
+        <v>-2708</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7660,31 +7660,31 @@
       </c>
       <c r="C25" s="75">
         <f>Inventario_Dinamico!C52</f>
-        <v>-2562227.5</v>
+        <v>3260</v>
       </c>
       <c r="D25" s="75">
         <f>Inventario_Dinamico!D52</f>
-        <v>-4751280977.5</v>
+        <v>1872.5</v>
       </c>
       <c r="E25" s="75">
         <f>Inventario_Dinamico!E52</f>
-        <v>-8789880968477.5</v>
+        <v>485</v>
       </c>
       <c r="F25" s="75">
         <f>Inventario_Dinamico!F52</f>
-        <v>-1.6261279802843478E+16</v>
+        <v>-902.5</v>
       </c>
       <c r="G25" s="75">
         <f>Inventario_Dinamico!G52</f>
-        <v>-3.0083367635271594E+19</v>
+        <v>-2290</v>
       </c>
       <c r="H25" s="75">
         <f>Inventario_Dinamico!H52</f>
-        <v>-5.5654230125252467E+22</v>
+        <v>-3677.5</v>
       </c>
       <c r="I25" s="75">
         <f>Inventario_Dinamico!I52</f>
-        <v>-5.5654230125252467E+22</v>
+        <v>-3677.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7737,31 +7737,31 @@
       </c>
       <c r="C29" s="75">
         <f t="shared" ref="C29:I29" si="1">C7-C18</f>
-        <v>3419838</v>
+        <v>-812</v>
       </c>
       <c r="D29" s="75">
         <f t="shared" si="1"/>
-        <v>6335044838</v>
+        <v>1038</v>
       </c>
       <c r="E29" s="75">
         <f t="shared" si="1"/>
-        <v>11719841294838</v>
+        <v>2888</v>
       </c>
       <c r="F29" s="75">
         <f t="shared" si="1"/>
-        <v>11719841294838</v>
+        <v>2888</v>
       </c>
       <c r="G29" s="75">
         <f t="shared" si="1"/>
-        <v>11719841294838</v>
+        <v>2888</v>
       </c>
       <c r="H29" s="75">
         <f t="shared" si="1"/>
-        <v>11719841294838</v>
+        <v>2888</v>
       </c>
       <c r="I29" s="75">
         <f t="shared" si="1"/>
-        <v>11719841296688</v>
+        <v>2888</v>
       </c>
       <c r="J29" t="e">
         <f>SUM(ABS(B29:I29))</f>
@@ -7782,31 +7782,31 @@
       </c>
       <c r="C30" s="75">
         <f t="shared" ref="C30:I30" si="2">C8-C19</f>
-        <v>683812</v>
+        <v>-318</v>
       </c>
       <c r="D30" s="75">
         <f t="shared" si="2"/>
-        <v>1267008812</v>
+        <v>52</v>
       </c>
       <c r="E30" s="75">
         <f t="shared" si="2"/>
-        <v>2343968258812</v>
+        <v>422</v>
       </c>
       <c r="F30" s="75">
         <f t="shared" si="2"/>
-        <v>4336341280758812</v>
+        <v>792</v>
       </c>
       <c r="G30" s="75">
         <f t="shared" si="2"/>
-        <v>4336341280758812</v>
+        <v>792</v>
       </c>
       <c r="H30" s="75">
         <f t="shared" si="2"/>
-        <v>4336341280758812</v>
+        <v>792</v>
       </c>
       <c r="I30" s="75">
         <f t="shared" si="2"/>
-        <v>4336341280759182</v>
+        <v>792</v>
       </c>
       <c r="J30" t="e">
         <f t="shared" ref="J30:J36" si="3">SUM(ABS(B30:I30))</f>
@@ -7827,31 +7827,31 @@
       </c>
       <c r="C31" s="75">
         <f t="shared" ref="C31:I31" si="5">C9-C20</f>
-        <v>34113.5</v>
+        <v>-93</v>
       </c>
       <c r="D31" s="75">
         <f t="shared" si="5"/>
-        <v>63350363.5</v>
+        <v>-74.5</v>
       </c>
       <c r="E31" s="75">
         <f t="shared" si="5"/>
-        <v>117198412863.5</v>
+        <v>-56</v>
       </c>
       <c r="F31" s="75">
         <f t="shared" si="5"/>
-        <v>216817064037863.5</v>
+        <v>-37.5</v>
       </c>
       <c r="G31" s="75">
         <f t="shared" si="5"/>
-        <v>4.0111156847028787E+17</v>
+        <v>-19</v>
       </c>
       <c r="H31" s="75">
         <f t="shared" si="5"/>
-        <v>7.4205640167003272E+20</v>
+        <v>-0.5</v>
       </c>
       <c r="I31" s="75">
         <f t="shared" si="5"/>
-        <v>7.4205640167003272E+20</v>
+        <v>-0.5</v>
       </c>
       <c r="J31" t="e">
         <f t="shared" si="3"/>
@@ -7872,31 +7872,31 @@
       </c>
       <c r="C32" s="75">
         <f t="shared" ref="C32:I32" si="6">C10-C21</f>
-        <v>27389532</v>
+        <v>24332</v>
       </c>
       <c r="D32" s="75">
         <f t="shared" si="6"/>
-        <v>50680389532</v>
+        <v>39132</v>
       </c>
       <c r="E32" s="75">
         <f t="shared" si="6"/>
-        <v>93758730389532</v>
+        <v>53932</v>
       </c>
       <c r="F32" s="75">
         <f t="shared" si="6"/>
-        <v>1.7345365123038954E+17</v>
+        <v>68732</v>
       </c>
       <c r="G32" s="75">
         <f t="shared" si="6"/>
-        <v>3.2088925477623038E+20</v>
+        <v>83532</v>
       </c>
       <c r="H32" s="75">
         <f t="shared" si="6"/>
-        <v>5.9364512133602621E+23</v>
+        <v>98332</v>
       </c>
       <c r="I32" s="75">
         <f t="shared" si="6"/>
-        <v>5.9364512133602621E+23</v>
+        <v>98332</v>
       </c>
       <c r="J32" t="e">
         <f t="shared" si="3"/>
@@ -7917,31 +7917,31 @@
       </c>
       <c r="C33" s="75">
         <f t="shared" ref="C33:I33" si="7">C11-C22</f>
-        <v>1022972</v>
+        <v>-3223</v>
       </c>
       <c r="D33" s="75">
         <f t="shared" si="7"/>
-        <v>1900510472</v>
+        <v>-2668</v>
       </c>
       <c r="E33" s="75">
         <f t="shared" si="7"/>
-        <v>3515952385472</v>
+        <v>-2113</v>
       </c>
       <c r="F33" s="75">
         <f t="shared" si="7"/>
-        <v>6504511921135472</v>
+        <v>-1558</v>
       </c>
       <c r="G33" s="75">
         <f t="shared" si="7"/>
-        <v>1.2033347054108635E+19</v>
+        <v>-1003</v>
       </c>
       <c r="H33" s="75">
         <f t="shared" si="7"/>
-        <v>2.2261692050100986E+22</v>
+        <v>-448</v>
       </c>
       <c r="I33" s="75">
         <f t="shared" si="7"/>
-        <v>2.2261692050100986E+22</v>
+        <v>-448</v>
       </c>
       <c r="J33" t="e">
         <f t="shared" si="3"/>
@@ -7962,31 +7962,31 @@
       </c>
       <c r="C34" s="75">
         <f t="shared" ref="C34:I34" si="8">C12-C23</f>
-        <v>2046123</v>
+        <v>-6267</v>
       </c>
       <c r="D34" s="75">
         <f t="shared" si="8"/>
-        <v>3801021123</v>
+        <v>-5157</v>
       </c>
       <c r="E34" s="75">
         <f t="shared" si="8"/>
-        <v>7031904771123</v>
+        <v>-4047</v>
       </c>
       <c r="F34" s="75">
         <f t="shared" si="8"/>
-        <v>1.3009023842271124E+16</v>
+        <v>-2937</v>
       </c>
       <c r="G34" s="75">
         <f t="shared" si="8"/>
-        <v>2.406669410821727E+19</v>
+        <v>-1827</v>
       </c>
       <c r="H34" s="75">
         <f t="shared" si="8"/>
-        <v>4.4523384100201972E+22</v>
+        <v>-717</v>
       </c>
       <c r="I34" s="75">
         <f t="shared" si="8"/>
-        <v>4.4523384100201972E+22</v>
+        <v>-717</v>
       </c>
       <c r="J34" t="e">
         <f t="shared" si="3"/>
@@ -8007,31 +8007,31 @@
       </c>
       <c r="C35" s="75">
         <f t="shared" ref="C35:I35" si="9">C13-C24</f>
-        <v>6825508</v>
+        <v>-15792</v>
       </c>
       <c r="D35" s="75">
         <f t="shared" si="9"/>
-        <v>12670075508</v>
+        <v>-12092</v>
       </c>
       <c r="E35" s="75">
         <f t="shared" si="9"/>
-        <v>23439682575508</v>
+        <v>-8392</v>
       </c>
       <c r="F35" s="75">
         <f t="shared" si="9"/>
-        <v>4.3363412807575504E+16</v>
+        <v>-4692</v>
       </c>
       <c r="G35" s="75">
         <f t="shared" si="9"/>
-        <v>8.0222313694057578E+19</v>
+        <v>-992</v>
       </c>
       <c r="H35" s="75">
         <f t="shared" si="9"/>
-        <v>1.4841128033400655E+23</v>
+        <v>2708</v>
       </c>
       <c r="I35" s="75">
         <f t="shared" si="9"/>
-        <v>1.4841128033400655E+23</v>
+        <v>2708</v>
       </c>
       <c r="J35" t="e">
         <f t="shared" si="3"/>
@@ -8052,31 +8052,31 @@
       </c>
       <c r="C36" s="75">
         <f t="shared" ref="C36:I36" si="10">C14-C25</f>
-        <v>2562227.5</v>
+        <v>-3260</v>
       </c>
       <c r="D36" s="75">
         <f t="shared" si="10"/>
-        <v>4751280977.5</v>
+        <v>-1872.5</v>
       </c>
       <c r="E36" s="75">
         <f t="shared" si="10"/>
-        <v>8789880968477.5</v>
+        <v>-485</v>
       </c>
       <c r="F36" s="75">
         <f t="shared" si="10"/>
-        <v>1.6261279802843478E+16</v>
+        <v>902.5</v>
       </c>
       <c r="G36" s="75">
         <f t="shared" si="10"/>
-        <v>3.0083367635271594E+19</v>
+        <v>2290</v>
       </c>
       <c r="H36" s="75">
         <f t="shared" si="10"/>
-        <v>5.5654230125252467E+22</v>
+        <v>3677.5</v>
       </c>
       <c r="I36" s="75">
         <f t="shared" si="10"/>
-        <v>5.5654230125252467E+22</v>
+        <v>3677.5</v>
       </c>
       <c r="J36" t="e">
         <f t="shared" si="3"/>
@@ -8147,15 +8147,15 @@
       <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8267,20 +8267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8358,40 +8358,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="26">
-        <f>MRP_LeadTimes!B$18*B6</f>
+        <f>MRP_LeadTimes!B$18*$B6</f>
         <v>1850</v>
       </c>
       <c r="D6" s="26">
-        <f>MRP_LeadTimes!C$18*C6</f>
-        <v>3422500</v>
+        <f>MRP_LeadTimes!C$18*$B6</f>
+        <v>1850</v>
       </c>
       <c r="E6" s="26">
-        <f>MRP_LeadTimes!D$18*D6</f>
-        <v>6331625000</v>
+        <f>MRP_LeadTimes!D$18*$B6</f>
+        <v>1850</v>
       </c>
       <c r="F6" s="26">
-        <f>MRP_LeadTimes!E$18*E6</f>
-        <v>11713506250000</v>
+        <f>MRP_LeadTimes!E$18*$B6</f>
+        <v>1850</v>
       </c>
       <c r="G6" s="26">
-        <f>MRP_LeadTimes!F$18*F6</f>
+        <f>MRP_LeadTimes!F$18*$B6</f>
         <v>0</v>
       </c>
       <c r="H6" s="26">
-        <f>MRP_LeadTimes!G$18*G6</f>
+        <f>MRP_LeadTimes!G$18*$B6</f>
         <v>0</v>
       </c>
       <c r="I6" s="26">
-        <f>MRP_LeadTimes!H$18*H6</f>
+        <f>MRP_LeadTimes!H$18*$B6</f>
         <v>0</v>
       </c>
       <c r="J6" s="26">
-        <f>Inputs!I$6*B6</f>
-        <v>1850</v>
+        <f>MRP_LeadTimes!I$18*$B6</f>
+        <v>0</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:K13" si="0">SUM(C6:J6)</f>
-        <v>11719841301200</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8403,40 +8403,40 @@
         <v>0.2</v>
       </c>
       <c r="C7" s="26">
-        <f>MRP_LeadTimes!B$17*B7</f>
+        <f>MRP_LeadTimes!B$17*$B7</f>
         <v>370</v>
       </c>
       <c r="D7" s="26">
-        <f>MRP_LeadTimes!C$17*C7</f>
-        <v>684500</v>
+        <f>MRP_LeadTimes!C$17*$B7</f>
+        <v>370</v>
       </c>
       <c r="E7" s="26">
-        <f>MRP_LeadTimes!D$17*D7</f>
-        <v>1266325000</v>
+        <f>MRP_LeadTimes!D$17*$B7</f>
+        <v>370</v>
       </c>
       <c r="F7" s="26">
-        <f>MRP_LeadTimes!E$17*E7</f>
-        <v>2342701250000</v>
+        <f>MRP_LeadTimes!E$17*$B7</f>
+        <v>370</v>
       </c>
       <c r="G7" s="26">
-        <f>MRP_LeadTimes!F$17*F7</f>
-        <v>4333997312500000</v>
+        <f>MRP_LeadTimes!F$17*$B7</f>
+        <v>370</v>
       </c>
       <c r="H7" s="26">
-        <f>MRP_LeadTimes!G$17*G7</f>
+        <f>MRP_LeadTimes!G$17*$B7</f>
         <v>0</v>
       </c>
       <c r="I7" s="26">
-        <f>MRP_LeadTimes!H$17*H7</f>
+        <f>MRP_LeadTimes!H$17*$B7</f>
         <v>0</v>
       </c>
       <c r="J7" s="26">
-        <f>Inputs!I$6*B7</f>
-        <v>370</v>
+        <f>MRP_LeadTimes!I$17*$B7</f>
+        <v>0</v>
       </c>
       <c r="K7" s="27">
         <f t="shared" si="0"/>
-        <v>4336341280760240</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8448,40 +8448,40 @@
         <v>0.01</v>
       </c>
       <c r="C8" s="26">
-        <f>MRP_LeadTimes!B$15*B8</f>
+        <f>MRP_LeadTimes!B$15*$B8</f>
         <v>18.5</v>
       </c>
       <c r="D8" s="26">
-        <f>MRP_LeadTimes!C$15*C8</f>
-        <v>34225</v>
+        <f>MRP_LeadTimes!C$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="E8" s="26">
-        <f>MRP_LeadTimes!D$15*D8</f>
-        <v>63316250</v>
+        <f>MRP_LeadTimes!D$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="F8" s="26">
-        <f>MRP_LeadTimes!E$15*E8</f>
-        <v>117135062500</v>
+        <f>MRP_LeadTimes!E$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="G8" s="26">
-        <f>MRP_LeadTimes!F$15*F8</f>
-        <v>216699865625000</v>
+        <f>MRP_LeadTimes!F$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="H8" s="26">
-        <f>MRP_LeadTimes!G$15*G8</f>
-        <v>4.0089475140624998E+17</v>
+        <f>MRP_LeadTimes!G$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="I8" s="26">
-        <f>MRP_LeadTimes!H$15*H8</f>
-        <v>7.4165529010156247E+20</v>
+        <f>MRP_LeadTimes!H$15*$B8</f>
+        <v>18.5</v>
       </c>
       <c r="J8" s="26">
-        <f>Inputs!I$6*B8</f>
-        <v>18.5</v>
+        <f>MRP_LeadTimes!I$15*$B8</f>
+        <v>0</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="0"/>
-        <v>7.4205640167003272E+20</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8493,40 +8493,40 @@
         <v>8</v>
       </c>
       <c r="C9" s="26">
-        <f>MRP_LeadTimes!B$15*B9</f>
+        <f>MRP_LeadTimes!B$15*$B9</f>
         <v>14800</v>
       </c>
       <c r="D9" s="26">
-        <f>MRP_LeadTimes!C$15*C9</f>
-        <v>27380000</v>
+        <f>MRP_LeadTimes!C$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="E9" s="26">
-        <f>MRP_LeadTimes!D$15*D9</f>
-        <v>50653000000</v>
+        <f>MRP_LeadTimes!D$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="F9" s="26">
-        <f>MRP_LeadTimes!E$15*E9</f>
-        <v>93708050000000</v>
+        <f>MRP_LeadTimes!E$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="G9" s="26">
-        <f>MRP_LeadTimes!F$15*F9</f>
-        <v>1.733598925E+17</v>
+        <f>MRP_LeadTimes!F$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="H9" s="26">
-        <f>MRP_LeadTimes!G$15*G9</f>
-        <v>3.2071580112499999E+20</v>
+        <f>MRP_LeadTimes!G$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="I9" s="26">
-        <f>MRP_LeadTimes!H$15*H9</f>
-        <v>5.9332423208124999E+23</v>
+        <f>MRP_LeadTimes!H$15*$B9</f>
+        <v>14800</v>
       </c>
       <c r="J9" s="26">
-        <f>Inputs!I$6*B9</f>
-        <v>14800</v>
+        <f>MRP_LeadTimes!I$15*$B9</f>
+        <v>0</v>
       </c>
       <c r="K9" s="27">
         <f t="shared" si="0"/>
-        <v>5.9364512133602621E+23</v>
+        <v>103600</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8538,40 +8538,40 @@
         <v>0.3</v>
       </c>
       <c r="C10" s="26">
-        <f>MRP_LeadTimes!B$15*B10</f>
+        <f>MRP_LeadTimes!B$15*$B10</f>
         <v>555</v>
       </c>
       <c r="D10" s="26">
-        <f>MRP_LeadTimes!C$15*C10</f>
-        <v>1026750</v>
+        <f>MRP_LeadTimes!C$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="E10" s="26">
-        <f>MRP_LeadTimes!D$15*D10</f>
-        <v>1899487500</v>
+        <f>MRP_LeadTimes!D$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="F10" s="26">
-        <f>MRP_LeadTimes!E$15*E10</f>
-        <v>3514051875000</v>
+        <f>MRP_LeadTimes!E$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="G10" s="26">
-        <f>MRP_LeadTimes!F$15*F10</f>
-        <v>6500995968750000</v>
+        <f>MRP_LeadTimes!F$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="H10" s="26">
-        <f>MRP_LeadTimes!G$15*G10</f>
-        <v>1.20268425421875E+19</v>
+        <f>MRP_LeadTimes!G$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="I10" s="26">
-        <f>MRP_LeadTimes!H$15*H10</f>
-        <v>2.2249658703046876E+22</v>
+        <f>MRP_LeadTimes!H$15*$B10</f>
+        <v>555</v>
       </c>
       <c r="J10" s="26">
-        <f>Inputs!I$6*B10</f>
-        <v>555</v>
+        <f>MRP_LeadTimes!I$15*$B10</f>
+        <v>0</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="0"/>
-        <v>2.2261692050100986E+22</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8583,40 +8583,40 @@
         <v>0.6</v>
       </c>
       <c r="C11" s="26">
-        <f>MRP_LeadTimes!B$15*B11</f>
+        <f>MRP_LeadTimes!B$15*$B11</f>
         <v>1110</v>
       </c>
       <c r="D11" s="26">
-        <f>MRP_LeadTimes!C$15*C11</f>
-        <v>2053500</v>
+        <f>MRP_LeadTimes!C$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="E11" s="26">
-        <f>MRP_LeadTimes!D$15*D11</f>
-        <v>3798975000</v>
+        <f>MRP_LeadTimes!D$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="F11" s="26">
-        <f>MRP_LeadTimes!E$15*E11</f>
-        <v>7028103750000</v>
+        <f>MRP_LeadTimes!E$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="G11" s="26">
-        <f>MRP_LeadTimes!F$15*F11</f>
-        <v>1.30019919375E+16</v>
+        <f>MRP_LeadTimes!F$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="H11" s="26">
-        <f>MRP_LeadTimes!G$15*G11</f>
-        <v>2.4053685084374999E+19</v>
+        <f>MRP_LeadTimes!G$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="I11" s="26">
-        <f>MRP_LeadTimes!H$15*H11</f>
-        <v>4.4499317406093751E+22</v>
+        <f>MRP_LeadTimes!H$15*$B11</f>
+        <v>1110</v>
       </c>
       <c r="J11" s="26">
-        <f>Inputs!I$6*B11</f>
-        <v>1110</v>
+        <f>MRP_LeadTimes!I$15*$B11</f>
+        <v>0</v>
       </c>
       <c r="K11" s="27">
         <f t="shared" si="0"/>
-        <v>4.4523384100201972E+22</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8628,40 +8628,40 @@
         <v>2</v>
       </c>
       <c r="C12" s="26">
-        <f>MRP_LeadTimes!B$15*B12</f>
+        <f>MRP_LeadTimes!B$15*$B12</f>
         <v>3700</v>
       </c>
       <c r="D12" s="26">
-        <f>MRP_LeadTimes!C$15*C12</f>
-        <v>6845000</v>
+        <f>MRP_LeadTimes!C$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="E12" s="26">
-        <f>MRP_LeadTimes!D$15*D12</f>
-        <v>12663250000</v>
+        <f>MRP_LeadTimes!D$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="F12" s="26">
-        <f>MRP_LeadTimes!E$15*E12</f>
-        <v>23427012500000</v>
+        <f>MRP_LeadTimes!E$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="G12" s="26">
-        <f>MRP_LeadTimes!F$15*F12</f>
-        <v>4.3339973125E+16</v>
+        <f>MRP_LeadTimes!F$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="H12" s="26">
-        <f>MRP_LeadTimes!G$15*G12</f>
-        <v>8.0178950281249997E+19</v>
+        <f>MRP_LeadTimes!G$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="I12" s="26">
-        <f>MRP_LeadTimes!H$15*H12</f>
-        <v>1.483310580203125E+23</v>
+        <f>MRP_LeadTimes!H$15*$B12</f>
+        <v>3700</v>
       </c>
       <c r="J12" s="26">
-        <f>Inputs!I$6*B12</f>
-        <v>3700</v>
+        <f>MRP_LeadTimes!I$15*$B12</f>
+        <v>0</v>
       </c>
       <c r="K12" s="27">
         <f t="shared" si="0"/>
-        <v>1.4841128033400655E+23</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8673,40 +8673,40 @@
         <v>0.75</v>
       </c>
       <c r="C13" s="26">
-        <f>MRP_LeadTimes!B$15*B13</f>
+        <f>MRP_LeadTimes!B$15*$B13</f>
         <v>1387.5</v>
       </c>
       <c r="D13" s="26">
-        <f>MRP_LeadTimes!C$15*C13</f>
-        <v>2566875</v>
+        <f>MRP_LeadTimes!C$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="E13" s="26">
-        <f>MRP_LeadTimes!D$15*D13</f>
-        <v>4748718750</v>
+        <f>MRP_LeadTimes!D$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="F13" s="26">
-        <f>MRP_LeadTimes!E$15*E13</f>
-        <v>8785129687500</v>
+        <f>MRP_LeadTimes!E$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="G13" s="26">
-        <f>MRP_LeadTimes!F$15*F13</f>
-        <v>1.6252489921875E+16</v>
+        <f>MRP_LeadTimes!F$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="H13" s="26">
-        <f>MRP_LeadTimes!G$15*G13</f>
-        <v>3.0067106355468751E+19</v>
+        <f>MRP_LeadTimes!G$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="I13" s="26">
-        <f>MRP_LeadTimes!H$15*H13</f>
-        <v>5.5624146757617193E+22</v>
+        <f>MRP_LeadTimes!H$15*$B13</f>
+        <v>1387.5</v>
       </c>
       <c r="J13" s="26">
-        <f>Inputs!I$6*B13</f>
-        <v>1387.5</v>
+        <f>MRP_LeadTimes!I$15*$B13</f>
+        <v>0</v>
       </c>
       <c r="K13" s="27">
         <f t="shared" si="0"/>
-        <v>5.5654230125252467E+22</v>
+        <v>9712.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8785,19 +8785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -8830,19 +8830,19 @@
       <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8887,27 +8887,27 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="0"/>
-        <v>-3419838</v>
+        <v>812</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="0"/>
-        <v>-6335044838</v>
+        <v>-1038</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="0"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="0"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="0"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8949,15 +8949,15 @@
       </c>
       <c r="C9" s="29">
         <f>BOM_Consumo!D6</f>
-        <v>3422500</v>
+        <v>1850</v>
       </c>
       <c r="D9" s="29">
         <f>BOM_Consumo!E6</f>
-        <v>6331625000</v>
+        <v>1850</v>
       </c>
       <c r="E9" s="29">
         <f>BOM_Consumo!F6</f>
-        <v>11713506250000</v>
+        <v>1850</v>
       </c>
       <c r="F9" s="29">
         <f>BOM_Consumo!G6</f>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="I9" s="29">
         <f>BOM_Consumo!J6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8986,47 +8986,47 @@
       </c>
       <c r="C10" s="27">
         <f t="shared" si="1"/>
-        <v>-3419838</v>
+        <v>812</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="1"/>
-        <v>-6335044838</v>
+        <v>-1038</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>-11719841294838</v>
+        <v>-2888</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>-11719841296688</v>
+        <v>-2888</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9071,27 +9071,27 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="2"/>
-        <v>-683812</v>
+        <v>318</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="2"/>
-        <v>-1267008812</v>
+        <v>-52</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="2"/>
-        <v>-2343968258812</v>
+        <v>-422</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="2"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="2"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="2"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9133,19 +9133,19 @@
       </c>
       <c r="C15" s="29">
         <f>BOM_Consumo!D7</f>
-        <v>684500</v>
+        <v>370</v>
       </c>
       <c r="D15" s="29">
         <f>BOM_Consumo!E7</f>
-        <v>1266325000</v>
+        <v>370</v>
       </c>
       <c r="E15" s="29">
         <f>BOM_Consumo!F7</f>
-        <v>2342701250000</v>
+        <v>370</v>
       </c>
       <c r="F15" s="29">
         <f>BOM_Consumo!G7</f>
-        <v>4333997312500000</v>
+        <v>370</v>
       </c>
       <c r="G15" s="29">
         <f>BOM_Consumo!H7</f>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="I15" s="29">
         <f>BOM_Consumo!J7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9170,47 +9170,47 @@
       </c>
       <c r="C16" s="27">
         <f t="shared" si="3"/>
-        <v>-683812</v>
+        <v>318</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="3"/>
-        <v>-1267008812</v>
+        <v>-52</v>
       </c>
       <c r="E16" s="27">
         <f t="shared" si="3"/>
-        <v>-2343968258812</v>
+        <v>-422</v>
       </c>
       <c r="F16" s="27">
         <f t="shared" si="3"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" si="3"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>-4336341280758812</v>
+        <v>-792</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="3"/>
-        <v>-4336341280759182</v>
+        <v>-792</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9255,27 +9255,27 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="4"/>
-        <v>-34113.5</v>
+        <v>93</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>-63350363.5</v>
+        <v>74.5</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
-        <v>-117198412863.5</v>
+        <v>56</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
-        <v>-216817064037863.5</v>
+        <v>37.5</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
-        <v>-4.0111156847028787E+17</v>
+        <v>19</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="4"/>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9317,31 +9317,31 @@
       </c>
       <c r="C21" s="29">
         <f>BOM_Consumo!D8</f>
-        <v>34225</v>
+        <v>18.5</v>
       </c>
       <c r="D21" s="29">
         <f>BOM_Consumo!E8</f>
-        <v>63316250</v>
+        <v>18.5</v>
       </c>
       <c r="E21" s="29">
         <f>BOM_Consumo!F8</f>
-        <v>117135062500</v>
+        <v>18.5</v>
       </c>
       <c r="F21" s="29">
         <f>BOM_Consumo!G8</f>
-        <v>216699865625000</v>
+        <v>18.5</v>
       </c>
       <c r="G21" s="29">
         <f>BOM_Consumo!H8</f>
-        <v>4.0089475140624998E+17</v>
+        <v>18.5</v>
       </c>
       <c r="H21" s="29">
         <f>BOM_Consumo!I8</f>
-        <v>7.4165529010156247E+20</v>
+        <v>18.5</v>
       </c>
       <c r="I21" s="29">
         <f>BOM_Consumo!J8</f>
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9354,47 +9354,47 @@
       </c>
       <c r="C22" s="27">
         <f t="shared" si="5"/>
-        <v>-34113.5</v>
+        <v>93</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="5"/>
-        <v>-63350363.5</v>
+        <v>74.5</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="5"/>
-        <v>-117198412863.5</v>
+        <v>56</v>
       </c>
       <c r="F22" s="27">
         <f t="shared" si="5"/>
-        <v>-216817064037863.5</v>
+        <v>37.5</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" si="5"/>
-        <v>-4.0111156847028787E+17</v>
+        <v>19</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="5"/>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="5"/>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9439,27 +9439,27 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="6"/>
-        <v>-27389532</v>
+        <v>-24332</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="6"/>
-        <v>-50680389532</v>
+        <v>-39132</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="6"/>
-        <v>-93758730389532</v>
+        <v>-53932</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>-1.7345365123038954E+17</v>
+        <v>-68732</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="6"/>
-        <v>-3.2088925477623038E+20</v>
+        <v>-83532</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="6"/>
-        <v>-5.9364512133602621E+23</v>
+        <v>-98332</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9501,31 +9501,31 @@
       </c>
       <c r="C27" s="29">
         <f>BOM_Consumo!D9</f>
-        <v>27380000</v>
+        <v>14800</v>
       </c>
       <c r="D27" s="29">
         <f>BOM_Consumo!E9</f>
-        <v>50653000000</v>
+        <v>14800</v>
       </c>
       <c r="E27" s="29">
         <f>BOM_Consumo!F9</f>
-        <v>93708050000000</v>
+        <v>14800</v>
       </c>
       <c r="F27" s="29">
         <f>BOM_Consumo!G9</f>
-        <v>1.733598925E+17</v>
+        <v>14800</v>
       </c>
       <c r="G27" s="29">
         <f>BOM_Consumo!H9</f>
-        <v>3.2071580112499999E+20</v>
+        <v>14800</v>
       </c>
       <c r="H27" s="29">
         <f>BOM_Consumo!I9</f>
-        <v>5.9332423208124999E+23</v>
+        <v>14800</v>
       </c>
       <c r="I27" s="29">
         <f>BOM_Consumo!J9</f>
-        <v>14800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9538,47 +9538,47 @@
       </c>
       <c r="C28" s="27">
         <f t="shared" si="7"/>
-        <v>-27389532</v>
+        <v>-24332</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="7"/>
-        <v>-50680389532</v>
+        <v>-39132</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="7"/>
-        <v>-93758730389532</v>
+        <v>-53932</v>
       </c>
       <c r="F28" s="27">
         <f t="shared" si="7"/>
-        <v>-1.7345365123038954E+17</v>
+        <v>-68732</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" si="7"/>
-        <v>-3.2088925477623038E+20</v>
+        <v>-83532</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="7"/>
-        <v>-5.9364512133602621E+23</v>
+        <v>-98332</v>
       </c>
       <c r="I28" s="27">
         <f t="shared" si="7"/>
-        <v>-5.9364512133602621E+23</v>
+        <v>-98332</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9623,27 +9623,27 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="8"/>
-        <v>-1022972</v>
+        <v>3223</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="8"/>
-        <v>-1900510472</v>
+        <v>2668</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="8"/>
-        <v>-3515952385472</v>
+        <v>2113</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="8"/>
-        <v>-6504511921135472</v>
+        <v>1558</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="8"/>
-        <v>-1.2033347054108635E+19</v>
+        <v>1003</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="8"/>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9685,31 +9685,31 @@
       </c>
       <c r="C33" s="29">
         <f>BOM_Consumo!D10</f>
-        <v>1026750</v>
+        <v>555</v>
       </c>
       <c r="D33" s="29">
         <f>BOM_Consumo!E10</f>
-        <v>1899487500</v>
+        <v>555</v>
       </c>
       <c r="E33" s="29">
         <f>BOM_Consumo!F10</f>
-        <v>3514051875000</v>
+        <v>555</v>
       </c>
       <c r="F33" s="29">
         <f>BOM_Consumo!G10</f>
-        <v>6500995968750000</v>
+        <v>555</v>
       </c>
       <c r="G33" s="29">
         <f>BOM_Consumo!H10</f>
-        <v>1.20268425421875E+19</v>
+        <v>555</v>
       </c>
       <c r="H33" s="29">
         <f>BOM_Consumo!I10</f>
-        <v>2.2249658703046876E+22</v>
+        <v>555</v>
       </c>
       <c r="I33" s="29">
         <f>BOM_Consumo!J10</f>
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9722,47 +9722,47 @@
       </c>
       <c r="C34" s="27">
         <f t="shared" si="9"/>
-        <v>-1022972</v>
+        <v>3223</v>
       </c>
       <c r="D34" s="27">
         <f t="shared" si="9"/>
-        <v>-1900510472</v>
+        <v>2668</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="9"/>
-        <v>-3515952385472</v>
+        <v>2113</v>
       </c>
       <c r="F34" s="27">
         <f t="shared" si="9"/>
-        <v>-6504511921135472</v>
+        <v>1558</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" si="9"/>
-        <v>-1.2033347054108635E+19</v>
+        <v>1003</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="9"/>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
       <c r="I34" s="27">
         <f t="shared" si="9"/>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9807,27 +9807,27 @@
       </c>
       <c r="D37" s="22">
         <f t="shared" si="10"/>
-        <v>-2046123</v>
+        <v>6267</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="10"/>
-        <v>-3801021123</v>
+        <v>5157</v>
       </c>
       <c r="F37" s="22">
         <f t="shared" si="10"/>
-        <v>-7031904771123</v>
+        <v>4047</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="10"/>
-        <v>-1.3009023842271124E+16</v>
+        <v>2937</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="10"/>
-        <v>-2.406669410821727E+19</v>
+        <v>1827</v>
       </c>
       <c r="I37" s="22">
         <f t="shared" si="10"/>
-        <v>-4.4523384100201972E+22</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9869,31 +9869,31 @@
       </c>
       <c r="C39" s="29">
         <f>BOM_Consumo!D11</f>
-        <v>2053500</v>
+        <v>1110</v>
       </c>
       <c r="D39" s="29">
         <f>BOM_Consumo!E11</f>
-        <v>3798975000</v>
+        <v>1110</v>
       </c>
       <c r="E39" s="29">
         <f>BOM_Consumo!F11</f>
-        <v>7028103750000</v>
+        <v>1110</v>
       </c>
       <c r="F39" s="29">
         <f>BOM_Consumo!G11</f>
-        <v>1.30019919375E+16</v>
+        <v>1110</v>
       </c>
       <c r="G39" s="29">
         <f>BOM_Consumo!H11</f>
-        <v>2.4053685084374999E+19</v>
+        <v>1110</v>
       </c>
       <c r="H39" s="29">
         <f>BOM_Consumo!I11</f>
-        <v>4.4499317406093751E+22</v>
+        <v>1110</v>
       </c>
       <c r="I39" s="29">
         <f>BOM_Consumo!J11</f>
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9906,47 +9906,47 @@
       </c>
       <c r="C40" s="27">
         <f t="shared" si="11"/>
-        <v>-2046123</v>
+        <v>6267</v>
       </c>
       <c r="D40" s="27">
         <f t="shared" si="11"/>
-        <v>-3801021123</v>
+        <v>5157</v>
       </c>
       <c r="E40" s="27">
         <f t="shared" si="11"/>
-        <v>-7031904771123</v>
+        <v>4047</v>
       </c>
       <c r="F40" s="27">
         <f t="shared" si="11"/>
-        <v>-1.3009023842271124E+16</v>
+        <v>2937</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" si="11"/>
-        <v>-2.406669410821727E+19</v>
+        <v>1827</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="11"/>
-        <v>-4.4523384100201972E+22</v>
+        <v>717</v>
       </c>
       <c r="I40" s="27">
         <f t="shared" si="11"/>
-        <v>-4.4523384100201972E+22</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -9991,27 +9991,27 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" si="12"/>
-        <v>-6825508</v>
+        <v>15792</v>
       </c>
       <c r="E43" s="22">
         <f t="shared" si="12"/>
-        <v>-12670075508</v>
+        <v>12092</v>
       </c>
       <c r="F43" s="22">
         <f t="shared" si="12"/>
-        <v>-23439682575508</v>
+        <v>8392</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="12"/>
-        <v>-4.3363412807575504E+16</v>
+        <v>4692</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="12"/>
-        <v>-8.0222313694057578E+19</v>
+        <v>992</v>
       </c>
       <c r="I43" s="22">
         <f t="shared" si="12"/>
-        <v>-1.4841128033400655E+23</v>
+        <v>-2708</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10053,31 +10053,31 @@
       </c>
       <c r="C45" s="29">
         <f>BOM_Consumo!D12</f>
-        <v>6845000</v>
+        <v>3700</v>
       </c>
       <c r="D45" s="29">
         <f>BOM_Consumo!E12</f>
-        <v>12663250000</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="29">
         <f>BOM_Consumo!F12</f>
-        <v>23427012500000</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="29">
         <f>BOM_Consumo!G12</f>
-        <v>4.3339973125E+16</v>
+        <v>3700</v>
       </c>
       <c r="G45" s="29">
         <f>BOM_Consumo!H12</f>
-        <v>8.0178950281249997E+19</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="29">
         <f>BOM_Consumo!I12</f>
-        <v>1.483310580203125E+23</v>
+        <v>3700</v>
       </c>
       <c r="I45" s="29">
         <f>BOM_Consumo!J12</f>
-        <v>3700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10090,47 +10090,47 @@
       </c>
       <c r="C46" s="27">
         <f t="shared" si="13"/>
-        <v>-6825508</v>
+        <v>15792</v>
       </c>
       <c r="D46" s="27">
         <f t="shared" si="13"/>
-        <v>-12670075508</v>
+        <v>12092</v>
       </c>
       <c r="E46" s="27">
         <f t="shared" si="13"/>
-        <v>-23439682575508</v>
+        <v>8392</v>
       </c>
       <c r="F46" s="27">
         <f t="shared" si="13"/>
-        <v>-4.3363412807575504E+16</v>
+        <v>4692</v>
       </c>
       <c r="G46" s="27">
         <f t="shared" si="13"/>
-        <v>-8.0222313694057578E+19</v>
+        <v>992</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="13"/>
-        <v>-1.4841128033400655E+23</v>
+        <v>-2708</v>
       </c>
       <c r="I46" s="27">
         <f t="shared" si="13"/>
-        <v>-1.4841128033400655E+23</v>
+        <v>-2708</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10175,27 +10175,27 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" si="14"/>
-        <v>-2562227.5</v>
+        <v>3260</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="14"/>
-        <v>-4751280977.5</v>
+        <v>1872.5</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" si="14"/>
-        <v>-8789880968477.5</v>
+        <v>485</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="14"/>
-        <v>-1.6261279802843478E+16</v>
+        <v>-902.5</v>
       </c>
       <c r="H49" s="22">
         <f t="shared" si="14"/>
-        <v>-3.0083367635271594E+19</v>
+        <v>-2290</v>
       </c>
       <c r="I49" s="22">
         <f t="shared" si="14"/>
-        <v>-5.5654230125252467E+22</v>
+        <v>-3677.5</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10237,31 +10237,31 @@
       </c>
       <c r="C51" s="22">
         <f>BOM_Consumo!D$13</f>
-        <v>2566875</v>
+        <v>1387.5</v>
       </c>
       <c r="D51" s="22">
         <f>BOM_Consumo!E$13</f>
-        <v>4748718750</v>
+        <v>1387.5</v>
       </c>
       <c r="E51" s="22">
         <f>BOM_Consumo!F$13</f>
-        <v>8785129687500</v>
+        <v>1387.5</v>
       </c>
       <c r="F51" s="22">
         <f>BOM_Consumo!G$13</f>
-        <v>1.6252489921875E+16</v>
+        <v>1387.5</v>
       </c>
       <c r="G51" s="22">
         <f>BOM_Consumo!H$13</f>
-        <v>3.0067106355468751E+19</v>
+        <v>1387.5</v>
       </c>
       <c r="H51" s="22">
         <f>BOM_Consumo!I$13</f>
-        <v>5.5624146757617193E+22</v>
+        <v>1387.5</v>
       </c>
       <c r="I51" s="22">
         <f>BOM_Consumo!J$13</f>
-        <v>1387.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10274,46 +10274,46 @@
       </c>
       <c r="C52" s="22">
         <f t="shared" si="15"/>
-        <v>-2562227.5</v>
+        <v>3260</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="15"/>
-        <v>-4751280977.5</v>
+        <v>1872.5</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="15"/>
-        <v>-8789880968477.5</v>
+        <v>485</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="15"/>
-        <v>-1.6261279802843478E+16</v>
+        <v>-902.5</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="15"/>
-        <v>-3.0083367635271594E+19</v>
+        <v>-2290</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="15"/>
-        <v>-5.5654230125252467E+22</v>
+        <v>-3677.5</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="15"/>
-        <v>-5.5654230125252467E+22</v>
+        <v>-3677.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10353,19 +10353,19 @@
       </c>
       <c r="B55" s="27" t="str">
         <f>IF(B9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
+        <v>OK</v>
       </c>
       <c r="C55" s="27" t="str">
         <f>IF(C9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
+        <v>OK</v>
       </c>
       <c r="D55" s="27" t="str">
         <f>IF(D9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
+        <v>OK</v>
       </c>
       <c r="E55" s="27" t="str">
         <f>IF(E9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
+        <v>OK</v>
       </c>
       <c r="F55" s="27" t="str">
         <f>IF(F9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="J57" s="31">
         <f>MIN(B19:I19)</f>
-        <v>-7.4205640167003272E+20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="B60" s="23" t="str">
         <f>IF(B34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
-        <v>⚠ RIESGO</v>
+        <v>OK</v>
       </c>
       <c r="C60" s="23" t="str">
         <f>IF(C34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="J60" s="31">
         <f>MIN(B34:I34)</f>
-        <v>-2.2261692050100986E+22</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="H61" s="23" t="str">
         <f>IF(H39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
-        <v>OK</v>
+        <v>⚠ RIESGO</v>
       </c>
       <c r="I61" s="23" t="str">
         <f>IF(I39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="J61" s="31">
         <f>MIN(B39:I39)</f>
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10677,6 +10677,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10684,11 +10689,6 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10763,20 +10763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -10811,18 +10811,18 @@
       <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="B7" s="33">
         <f>BOM_Consumo!K8</f>
-        <v>7.4205640167003272E+20</v>
+        <v>129.5</v>
       </c>
       <c r="C7" s="33">
         <f>Inputs!B35</f>
@@ -10867,15 +10867,15 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" ref="D7:D12" si="0">ROUNDUP(B7/C7,0)</f>
-        <v>2.4735213389001101E+19</v>
+        <v>5</v>
       </c>
       <c r="E7" s="35">
         <f t="shared" ref="E7:E12" si="1">D7</f>
-        <v>2.4735213389001101E+19</v>
+        <v>5</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F12" si="2">E7*C7</f>
-        <v>7.4205640167003298E+20</v>
+        <v>150</v>
       </c>
       <c r="G7" s="36">
         <f>_xlfn.XLOOKUP(A7,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="H7" s="37">
         <f t="shared" ref="H7:H12" si="3">E7*G7</f>
-        <v>1.484112803340066E+21</v>
+        <v>300</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" ref="I7:I12" si="4">IF(F7&gt;=B7,"OK","INSUFICIENTE")</f>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="B8" s="33">
         <f>BOM_Consumo!K9</f>
-        <v>5.9364512133602621E+23</v>
+        <v>103600</v>
       </c>
       <c r="C8" s="33">
         <f>Inputs!B36</f>
@@ -10904,15 +10904,15 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>4.9470426778002203E+22</v>
+        <v>8634</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>4.9470426778002203E+22</v>
+        <v>8634</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>5.9364512133602641E+23</v>
+        <v>103608</v>
       </c>
       <c r="G8" s="36">
         <f>_xlfn.XLOOKUP(A8,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="H8" s="37">
         <f t="shared" si="3"/>
-        <v>3.4629298744601545E+23</v>
+        <v>60438</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="4"/>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B9" s="33">
         <f>BOM_Consumo!K10</f>
-        <v>2.2261692050100986E+22</v>
+        <v>3885</v>
       </c>
       <c r="C9" s="33">
         <f>Inputs!B37</f>
@@ -10941,15 +10941,15 @@
       </c>
       <c r="D9" s="34">
         <f t="shared" si="0"/>
-        <v>2.2261692050100999E+22</v>
+        <v>3885</v>
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>2.2261692050100999E+22</v>
+        <v>3885</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>2.2261692050100999E+22</v>
+        <v>3885</v>
       </c>
       <c r="G9" s="36">
         <f>_xlfn.XLOOKUP(A9,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="H9" s="37">
         <f t="shared" si="3"/>
-        <v>8.0142091380363598E+23</v>
+        <v>139860</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="4"/>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="B10" s="33">
         <f>BOM_Consumo!K11</f>
-        <v>4.4523384100201972E+22</v>
+        <v>7770</v>
       </c>
       <c r="C10" s="33">
         <f>Inputs!B38</f>
@@ -10978,15 +10978,15 @@
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>4.4523384100202001E+20</v>
+        <v>78</v>
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>4.4523384100202001E+20</v>
+        <v>78</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>4.4523384100201997E+22</v>
+        <v>7800</v>
       </c>
       <c r="G10" s="36">
         <f>_xlfn.XLOOKUP(A10,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="H10" s="37">
         <f t="shared" si="3"/>
-        <v>1.068561218404848E+22</v>
+        <v>1872</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="4"/>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="B11" s="33">
         <f>BOM_Consumo!K12</f>
-        <v>1.4841128033400655E+23</v>
+        <v>25900</v>
       </c>
       <c r="C11" s="33">
         <f>Inputs!B39</f>
@@ -11015,15 +11015,15 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>4.9470426778002197E+21</v>
+        <v>864</v>
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>4.9470426778002197E+21</v>
+        <v>864</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>1.4841128033400658E+23</v>
+        <v>25920</v>
       </c>
       <c r="G11" s="36">
         <f>_xlfn.XLOOKUP(A11,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H11" s="37">
         <f t="shared" si="3"/>
-        <v>1.4841128033400658E+23</v>
+        <v>25920</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="4"/>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="B12" s="33">
         <f>BOM_Consumo!K13</f>
-        <v>5.5654230125252467E+22</v>
+        <v>9712.5</v>
       </c>
       <c r="C12" s="33">
         <f>Inputs!B40</f>
@@ -11052,15 +11052,15 @@
       </c>
       <c r="D12" s="34">
         <f t="shared" si="0"/>
-        <v>9.27570502087541E+20</v>
+        <v>162</v>
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>9.27570502087541E+20</v>
+        <v>162</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>5.5654230125252459E+22</v>
+        <v>9720</v>
       </c>
       <c r="G12" s="36">
         <f>_xlfn.XLOOKUP(A12,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="H12" s="37">
         <f t="shared" si="3"/>
-        <v>2.5971974058451147E+22</v>
+        <v>4536</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="4"/>
@@ -11087,24 +11087,24 @@
       <c r="G13" s="83"/>
       <c r="H13" s="38">
         <f>SUM(H7:H12)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="C19" s="33">
         <f>BOM_Consumo!D6</f>
-        <v>3422500</v>
+        <v>1850</v>
       </c>
       <c r="D19" s="33">
         <f>Inputs!B35</f>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="E19" s="34">
         <f t="shared" si="5"/>
-        <v>114084</v>
+        <v>62</v>
       </c>
       <c r="F19" s="35">
         <v>0</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="C20" s="33">
         <f>BOM_Consumo!E6</f>
-        <v>6331625000</v>
+        <v>1850</v>
       </c>
       <c r="D20" s="33">
         <f>Inputs!B35</f>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="E20" s="34">
         <f t="shared" si="5"/>
-        <v>211054167</v>
+        <v>62</v>
       </c>
       <c r="F20" s="35">
         <v>0</v>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="C21" s="33">
         <f>BOM_Consumo!F6</f>
-        <v>11713506250000</v>
+        <v>1850</v>
       </c>
       <c r="D21" s="33">
         <f>Inputs!B35</f>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="E21" s="34">
         <f t="shared" si="5"/>
-        <v>390450208334</v>
+        <v>62</v>
       </c>
       <c r="F21" s="35">
         <v>0</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="C25" s="33">
         <f>BOM_Consumo!J6</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="D25" s="33">
         <f>Inputs!B35</f>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="E25" s="34">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F25" s="35">
         <v>0</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="C27" s="33">
         <f>BOM_Consumo!D7</f>
-        <v>684500</v>
+        <v>370</v>
       </c>
       <c r="D27" s="33">
         <f>Inputs!B36</f>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="E27" s="34">
         <f t="shared" si="5"/>
-        <v>57042</v>
+        <v>31</v>
       </c>
       <c r="F27" s="35">
         <v>0</v>
@@ -11562,7 +11562,7 @@
       </c>
       <c r="C28" s="33">
         <f>BOM_Consumo!E7</f>
-        <v>1266325000</v>
+        <v>370</v>
       </c>
       <c r="D28" s="33">
         <f>Inputs!B36</f>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="E28" s="34">
         <f t="shared" si="5"/>
-        <v>105527084</v>
+        <v>31</v>
       </c>
       <c r="F28" s="35">
         <v>0</v>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="C29" s="33">
         <f>BOM_Consumo!F7</f>
-        <v>2342701250000</v>
+        <v>370</v>
       </c>
       <c r="D29" s="33">
         <f>Inputs!B36</f>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E29" s="34">
         <f t="shared" si="5"/>
-        <v>195225104167</v>
+        <v>31</v>
       </c>
       <c r="F29" s="35">
         <v>0</v>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C30" s="33">
         <f>BOM_Consumo!G7</f>
-        <v>4333997312500000</v>
+        <v>370</v>
       </c>
       <c r="D30" s="33">
         <f>Inputs!B36</f>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="E30" s="34">
         <f t="shared" si="5"/>
-        <v>361166442708333</v>
+        <v>31</v>
       </c>
       <c r="F30" s="35">
         <v>0</v>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="C33" s="33">
         <f>BOM_Consumo!J7</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D33" s="33">
         <f>Inputs!B36</f>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="E33" s="34">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="35">
         <v>0</v>
@@ -11836,14 +11836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B5" s="36">
         <f>Compras_y_Lotes!H7</f>
-        <v>1.484112803340066E+21</v>
+        <v>300</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="F5" s="37">
         <f t="shared" ref="F5:F12" si="0">B5+D5+E5</f>
-        <v>1.484112803340066E+21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H8</f>
-        <v>3.4629298744601545E+23</v>
+        <v>60438</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="F6" s="37">
         <f t="shared" si="0"/>
-        <v>3.4629298744601545E+23</v>
+        <v>60438</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="B7" s="36">
         <f>Compras_y_Lotes!H9</f>
-        <v>8.0142091380363598E+23</v>
+        <v>139860</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="F7" s="37">
         <f t="shared" si="0"/>
-        <v>8.0142091380363598E+23</v>
+        <v>139860</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="B8" s="36">
         <f>Compras_y_Lotes!H10</f>
-        <v>1.068561218404848E+22</v>
+        <v>1872</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="0"/>
-        <v>1.068561218404848E+22</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B9" s="36">
         <f>Compras_y_Lotes!H11</f>
-        <v>1.4841128033400658E+23</v>
+        <v>25920</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="0"/>
-        <v>1.4841128033400658E+23</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="B10" s="36">
         <f>Compras_y_Lotes!H12</f>
-        <v>2.5971974058451147E+22</v>
+        <v>4536</v>
       </c>
       <c r="C10" s="41">
         <v>1</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="0"/>
-        <v>2.5971974058451147E+22</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12025,11 +12025,11 @@
       </c>
       <c r="E11" s="43">
         <f>SUMPRODUCT((Inventario_Dinamico!B7:I7+Inventario_Dinamico!B10:I10)/2)*Inputs!C59</f>
-        <v>-15823687286236.199</v>
+        <v>-2491.1999999999998</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="0"/>
-        <v>-15823687286236.199</v>
+        <v>-2491.1999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12050,11 +12050,11 @@
       </c>
       <c r="E12" s="43">
         <f>SUMPRODUCT((Inventario_Dinamico!B13:I13+Inventario_Dinamico!B16:I16)/2)*Inputs!C60</f>
-        <v>-6.8307928733728096E+16</v>
+        <v>-7699.5</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="0"/>
-        <v>-6.8307928733728096E+16</v>
+        <v>-7699.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B13" s="38">
         <f>SUM(B5:B12)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
       <c r="C13" s="44">
         <f>SUM(C5:C12)</f>
@@ -12075,11 +12075,11 @@
       </c>
       <c r="E13" s="38">
         <f>SUM(E5:E12)</f>
-        <v>-6.8323752421014336E+16</v>
+        <v>-10190.700000000001</v>
       </c>
       <c r="F13" s="38">
         <f>SUM(F5:F12)</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
   </sheetData>
@@ -12109,20 +12109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B6" s="36">
         <f>Compras_y_Lotes!H13</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="J6" s="37">
         <f>SUM(B6:I6)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B9" s="38">
         <f t="shared" ref="B9:I9" si="0">SUM(B6:B8)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
       <c r="C9" s="38">
         <f t="shared" si="0"/>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="J9" s="38">
         <f>SUM(B9:I9)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
   </sheetData>
@@ -12357,14 +12357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12554,14 +12554,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12589,23 +12589,23 @@
       </c>
       <c r="B22" s="37">
         <f>Costos!F13</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
       <c r="C22" s="37">
         <f>Costos!F13</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
       <c r="D22" s="37">
         <f>Costos!F13*0.9</f>
-        <v>1.2008401310751709E+24</v>
+        <v>200461.77</v>
       </c>
       <c r="E22" s="48">
         <f>MIN(B22:D22)</f>
-        <v>1.2008401310751709E+24</v>
+        <v>200461.77</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" ref="F22:F27" si="0">MAX(B22:D22)-MIN(B22:D22)</f>
-        <v>1.3342668123057449E+23</v>
+        <v>22273.53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12752,11 +12752,11 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>Costos!F13</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
       <c r="C31">
         <f>Cashflow_Integrado!B30</f>
-        <v>1.3342668806294978E+24</v>
+        <v>237930.6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12765,10 +12765,10 @@
       </c>
       <c r="B32">
         <f t="dataTable" ref="B32:C34" dt2D="0" dtr="0" r1="E29"/>
-        <v>6.3821402433492687E+23</v>
+        <v>205320.05</v>
       </c>
       <c r="C32">
-        <v>6.3821406468357528E+23</v>
+        <v>214715.6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12776,10 +12776,10 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
       <c r="C33">
-        <v>1.3342668806294978E+24</v>
+        <v>237930.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12787,10 +12787,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B34">
-        <v>2.5999807439340891E+24</v>
+        <v>240117.55</v>
       </c>
       <c r="C34">
-        <v>2.5999808539609029E+24</v>
+        <v>261112.6</v>
       </c>
     </row>
   </sheetData>
@@ -12827,18 +12827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
@@ -12855,18 +12855,18 @@
       <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13039,18 +13039,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13261,16 +13261,16 @@
       <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B5" s="55">
         <f>Costos!F13</f>
-        <v>1.3342668123057454E+24</v>
+        <v>222735.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="B6" s="55">
         <f>Cashflow_Compras!J9</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="B8" s="55">
         <f>MAX(Cashflow_Compras!B9:I9)</f>
-        <v>1.3342668806294978E+24</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13337,16 +13337,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B27" s="58">
         <f>COUNTIF(Inventario_Dinamico!J55:J62,"&lt;0")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>202</v>

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="500" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C158505E-1BEC-4396-B943-81F5F8F979A7}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13EEFA5D-291B-4DC8-B58D-B9B4FB5E27DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,9 +1335,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1447,11 +1444,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1807,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,49 +1818,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1928,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2062,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2090,7 +2087,7 @@
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2104,7 +2101,7 @@
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>0.2</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2118,7 +2115,7 @@
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>0.01</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2132,7 +2129,7 @@
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2146,7 +2143,7 @@
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>0.3</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -2160,7 +2157,7 @@
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>0.6</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2174,7 +2171,7 @@
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -2188,7 +2185,7 @@
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>0.75</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2199,12 +2196,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2351,12 +2348,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2377,10 +2374,10 @@
       <c r="A47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>125</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <f t="shared" ref="C47:C54" si="0">B47/B35</f>
         <v>4.166666666666667</v>
       </c>
@@ -2392,10 +2389,10 @@
       <c r="A48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>330</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
@@ -2407,10 +2404,10 @@
       <c r="A49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>60</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2422,10 +2419,10 @@
       <c r="A50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>7</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2437,10 +2434,10 @@
       <c r="A51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>36</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -2452,10 +2449,10 @@
       <c r="A52" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>24</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2467,10 +2464,10 @@
       <c r="A53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>30</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -2482,10 +2479,10 @@
       <c r="A54" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>28</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <f t="shared" si="0"/>
         <v>0.18666666666666668</v>
       </c>
@@ -2494,13 +2491,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2520,10 +2517,10 @@
       <c r="A59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>2300</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>0.3</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -2534,10 +2531,10 @@
       <c r="A60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>6000</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>4.5</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -2548,10 +2545,10 @@
       <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="13">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
+      <c r="B61" s="12">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
         <v>0</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -2559,15 +2556,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2593,16 +2590,16 @@
       <c r="A66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>125</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="10" t="s">
@@ -2613,16 +2610,16 @@
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>100</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <v>150</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -2633,16 +2630,16 @@
       <c r="A68" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>140</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -2653,20 +2650,20 @@
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2692,16 +2689,16 @@
       <c r="A74" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>330</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -2712,16 +2709,16 @@
       <c r="A75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>264</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="16">
         <v>80</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -2732,16 +2729,16 @@
       <c r="A76" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>370</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -2752,17 +2749,17 @@
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2785,10 +2782,10 @@
       <c r="B82" s="6">
         <v>2000</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="18">
         <v>10</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2799,10 +2796,10 @@
       <c r="B83" s="6">
         <v>500</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="18">
         <v>10</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2813,10 +2810,10 @@
       <c r="B84" s="6">
         <v>50</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="18">
         <v>20</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2827,10 +2824,10 @@
       <c r="B85" s="6">
         <v>10000</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="18">
         <v>10</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2841,10 +2838,10 @@
       <c r="B86" s="6">
         <v>1000</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="18">
         <v>15</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2855,30 +2852,30 @@
       <c r="B87" s="6">
         <v>2000</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="18">
         <v>15</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -2901,19 +2898,19 @@
       <c r="A91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>1</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="21">
         <f>BOM_Consumo!K6/8</f>
         <v>925</v>
       </c>
-      <c r="D91" s="22">
-        <f t="shared" ref="D91:D98" si="1">B91*C91</f>
+      <c r="D91" s="21">
+        <f>B91*C91</f>
         <v>925</v>
       </c>
-      <c r="E91" s="23" t="str">
-        <f t="shared" ref="E91:E98" si="2">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
+      <c r="E91" s="22" t="str">
+        <f t="shared" ref="E91:E98" si="1">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2921,19 +2918,19 @@
       <c r="A92" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>1</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="21">
         <f>BOM_Consumo!K7/8</f>
         <v>231.25</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="21">
+        <f t="shared" ref="D91:D98" si="2">B92*C92</f>
+        <v>231.25</v>
+      </c>
+      <c r="E92" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>231.25</v>
-      </c>
-      <c r="E92" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2941,19 +2938,19 @@
       <c r="A93" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>2</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="21">
         <f>BOM_Consumo!K8/8</f>
         <v>16.1875</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="21">
+        <f t="shared" si="2"/>
+        <v>32.375</v>
+      </c>
+      <c r="E93" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>32.375</v>
-      </c>
-      <c r="E93" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>NO</v>
       </c>
     </row>
@@ -2961,19 +2958,19 @@
       <c r="A94" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>1</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="21">
         <f>BOM_Consumo!K9/8</f>
         <v>12950</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="21">
         <f>B94*C94</f>
         <v>12950</v>
       </c>
-      <c r="E94" s="23" t="str">
-        <f t="shared" si="2"/>
+      <c r="E94" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2981,19 +2978,19 @@
       <c r="A95" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>1</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="21">
         <f>BOM_Consumo!K10/8</f>
         <v>485.625</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="21">
+        <f t="shared" si="2"/>
+        <v>485.625</v>
+      </c>
+      <c r="E95" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>485.625</v>
-      </c>
-      <c r="E95" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3001,19 +2998,19 @@
       <c r="A96" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>1</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="21">
         <f>BOM_Consumo!K11/8</f>
         <v>971.25</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="21">
+        <f t="shared" si="2"/>
+        <v>971.25</v>
+      </c>
+      <c r="E96" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>971.25</v>
-      </c>
-      <c r="E96" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3021,19 +3018,19 @@
       <c r="A97" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>1</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="21">
         <f>BOM_Consumo!K12/8</f>
         <v>3237.5</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="21">
+        <f t="shared" si="2"/>
+        <v>3237.5</v>
+      </c>
+      <c r="E97" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>3237.5</v>
-      </c>
-      <c r="E97" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3041,19 +3038,19 @@
       <c r="A98" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>1</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="21">
         <f>BOM_Consumo!K13/8</f>
         <v>1214.0625</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="21">
+        <f t="shared" si="2"/>
+        <v>1214.0625</v>
+      </c>
+      <c r="E98" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>1214.0625</v>
-      </c>
-      <c r="E98" s="23" t="str">
-        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3076,11 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3089,6 +3081,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3100,7 +3097,7 @@
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,40 +3114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3167,7 +3164,7 @@
       <c r="A7" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="58">
         <v>0.2</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3178,7 +3175,7 @@
       <c r="A8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>150</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3189,7 +3186,7 @@
       <c r="A9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3197,45 +3194,45 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3243,35 +3240,35 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="60" t="str">
+      <c r="B14" s="59" t="str">
         <f>Inputs!B69</f>
         <v>A</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <f>SUM(Compras_y_Lotes!F18:F25)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <f>IF(B14="B",$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <f>E14*Inputs!B35</f>
         <v>0</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <f>F14/Inputs!B23</f>
         <v>0</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <f>G14*$B$8</f>
         <v>0</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <f>H14</f>
         <v>0</v>
       </c>
@@ -3280,50 +3277,50 @@
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="60" t="str">
+      <c r="B15" s="59" t="str">
         <f>Inputs!B77</f>
         <v>A</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <f>SUM(Compras_y_Lotes!F26:F33)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="60">
         <f>IF(B15="B",$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="61">
         <f>C15*D15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <f>E15*Inputs!B36</f>
         <v>0</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="62">
         <f>F15/Inputs!B24</f>
         <v>0</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <f>G15*$B$8</f>
         <v>0</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="63">
         <f>H15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -3358,50 +3355,50 @@
       <c r="B20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <f>SUM(Compras_y_Lotes!I18:I25)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <v>0</v>
-      </c>
-      <c r="F20" s="45">
-        <v>0</v>
-      </c>
-      <c r="G20" s="37">
+      <c r="D20" s="50">
+        <v>0</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
         <f>C20+F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="89"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <f>IF(SUM(Compras_y_Lotes!F18:F25)&gt;=150,C20*(1-0.16),C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>0.16</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <f>C20-C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <f>I14</f>
         <v>0</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <f>C21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -3410,50 +3407,50 @@
       <c r="B22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <f>SUM(Compras_y_Lotes!I26:I33)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <v>0</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0</v>
-      </c>
-      <c r="G22" s="37">
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36">
         <f>C22+F22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="88"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <f>IF(SUM(Compras_y_Lotes!F26:F33)&gt;=80,C22*(1-0.2),C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="50">
         <v>0.2</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <f>C22-C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="65">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <f>C23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="89"/>
+      <c r="H23" s="88"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5344,7 +5341,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5360,78 +5357,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5439,32 +5436,32 @@
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <f>Compras_y_Lotes!H13</f>
         <v>232926</v>
       </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-      <c r="J6" s="37">
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
         <f>B6</f>
         <v>232926</v>
       </c>
@@ -5473,39 +5470,39 @@
       <c r="A7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,B$5)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,C$5)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,D$5)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,E$5)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,F$5)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,G$5)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,H$5)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$18:$I$25,Compras_y_Lotes!$K$18:$K$25,I$5)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <f>SUM(B7:I7)</f>
         <v>0</v>
       </c>
@@ -5514,39 +5511,39 @@
       <c r="A8" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,B$5)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,C$5)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,D$5)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,E$5)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,F$5)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,G$5)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,H$5)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <f>SUMIFS(Compras_y_Lotes!$I$26:$I$33,Compras_y_Lotes!$K$26:$K$33,I$5)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
@@ -5555,56 +5552,56 @@
       <c r="A9" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <f t="shared" ref="B9:J9" si="0">SUM(B6:B8)</f>
         <v>232926</v>
       </c>
-      <c r="C9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="67">
+      <c r="C9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="66">
         <f t="shared" si="0"/>
         <v>232926</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5642,39 +5639,39 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(B14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(C14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(D14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(E14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(F14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(G14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(H14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$18:$F$25,COLUMN(I14)-COLUMN($B$14)+1)&gt;0,Inputs!$B$59,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <f>SUM(B14:I14)</f>
         <v>0</v>
       </c>
@@ -5683,39 +5680,39 @@
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(B15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(C15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(D15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(E15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(F15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(G15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(H15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <f>IF(INDEX(Compras_y_Lotes!$F$26:$F$33,COLUMN(I15)-COLUMN($B$15)+1)&gt;0,Inputs!$B$60,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <f>SUM(B15:I15)</f>
         <v>0</v>
       </c>
@@ -5724,56 +5721,56 @@
       <c r="A16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="66">
         <f t="shared" ref="B16:J16" si="1">SUM(B14:B15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5811,39 +5808,39 @@
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <f>(Inventario_Dinamico!B7+Inventario_Dinamico!B10)/2*Inputs!$C$59</f>
         <v>1076.0999999999999</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <f>(Inventario_Dinamico!C7+Inventario_Dinamico!C10)/2*Inputs!$C$59</f>
         <v>521.1</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <f>(Inventario_Dinamico!D7+Inventario_Dinamico!D10)/2*Inputs!$C$59</f>
         <v>-33.9</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <f>(Inventario_Dinamico!E7+Inventario_Dinamico!E10)/2*Inputs!$C$59</f>
         <v>-588.9</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <f>(Inventario_Dinamico!F7+Inventario_Dinamico!F10)/2*Inputs!$C$59</f>
         <v>-866.4</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <f>(Inventario_Dinamico!G7+Inventario_Dinamico!G10)/2*Inputs!$C$59</f>
         <v>-866.4</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <f>(Inventario_Dinamico!H7+Inventario_Dinamico!H10)/2*Inputs!$C$59</f>
         <v>-866.4</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <f>(Inventario_Dinamico!I7+Inventario_Dinamico!I10)/2*Inputs!$C$59</f>
         <v>-866.4</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <f>SUM(B21:I21)</f>
         <v>-2491.2000000000003</v>
       </c>
@@ -5852,39 +5849,39 @@
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <f>(Inventario_Dinamico!B13+Inventario_Dinamico!B16)/2*Inputs!$C$60</f>
         <v>3928.5</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <f>(Inventario_Dinamico!C13+Inventario_Dinamico!C16)/2*Inputs!$C$60</f>
         <v>2263.5</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <f>(Inventario_Dinamico!D13+Inventario_Dinamico!D16)/2*Inputs!$C$60</f>
         <v>598.5</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <f>(Inventario_Dinamico!E13+Inventario_Dinamico!E16)/2*Inputs!$C$60</f>
         <v>-1066.5</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f>(Inventario_Dinamico!F13+Inventario_Dinamico!F16)/2*Inputs!$C$60</f>
         <v>-2731.5</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <f>(Inventario_Dinamico!G13+Inventario_Dinamico!G16)/2*Inputs!$C$60</f>
         <v>-3564</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <f>(Inventario_Dinamico!H13+Inventario_Dinamico!H16)/2*Inputs!$C$60</f>
         <v>-3564</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <f>(Inventario_Dinamico!I13+Inventario_Dinamico!I16)/2*Inputs!$C$60</f>
         <v>-3564</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <f>SUM(B22:I22)</f>
         <v>-7699.5</v>
       </c>
@@ -5893,100 +5890,100 @@
       <c r="A23" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="66">
         <f t="shared" ref="B23:J23" si="2">SUM(B21:B22)</f>
         <v>5004.6000000000004</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <f t="shared" si="2"/>
         <v>2784.6</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <f t="shared" si="2"/>
         <v>564.6</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="66">
         <f t="shared" si="2"/>
         <v>-1655.4</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="66">
         <f t="shared" si="2"/>
         <v>-3597.9</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="66">
         <f t="shared" si="2"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="66">
         <f t="shared" si="2"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="66">
         <f t="shared" si="2"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="66">
         <f t="shared" si="2"/>
         <v>-10190.700000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="67">
         <f t="shared" ref="B26:J26" si="3">B9+B16+B23</f>
         <v>237930.6</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="67">
         <f t="shared" si="3"/>
         <v>2784.6</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <f t="shared" si="3"/>
         <v>564.6</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <f t="shared" si="3"/>
         <v>-1655.4</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="67">
         <f t="shared" si="3"/>
         <v>-3597.9</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="67">
         <f t="shared" si="3"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="67">
         <f t="shared" si="3"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="67">
         <f t="shared" si="3"/>
         <v>-4430.3999999999996</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="67">
         <f t="shared" si="3"/>
         <v>222735.3</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92"/>
+      <c r="A27" s="91"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="68">
         <f>MAX(B26:I26)</f>
         <v>237930.6</v>
       </c>
@@ -5995,10 +5992,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="68">
         <f>MIN(B26:I26)</f>
         <v>-4430.3999999999996</v>
       </c>
@@ -6007,10 +6004,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="68">
         <f>AVERAGE(B26:I26)</f>
         <v>27841.912500000006</v>
       </c>
@@ -6019,10 +6016,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="B33" s="69">
+      <c r="B33" s="68">
         <f>STDEV(B26:I26)</f>
         <v>84930.422800472195</v>
       </c>
@@ -6050,7 +6047,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6063,31 +6060,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6110,17 +6107,17 @@
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="70">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="B6" s="69">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
         <f>Compras_y_Lotes!E7</f>
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="23" t="str">
+      <c r="E6" s="22" t="str">
         <f t="shared" ref="E6:E11" si="0">IF(C6&gt;0,"Comprar","NO COMPRAR")</f>
         <v>Comprar</v>
       </c>
@@ -6129,17 +6126,17 @@
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="70">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="69">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32">
         <f>Compras_y_Lotes!E8</f>
         <v>8634</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Comprar</v>
       </c>
@@ -6148,17 +6145,17 @@
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="70">
-        <v>0</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="69">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
         <f>Compras_y_Lotes!E9</f>
         <v>3885</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="23" t="str">
+      <c r="E8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Comprar</v>
       </c>
@@ -6167,17 +6164,17 @@
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="70">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="69">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
         <f>Compras_y_Lotes!E10</f>
         <v>78</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Comprar</v>
       </c>
@@ -6186,17 +6183,17 @@
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="70">
-        <v>0</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="69">
+        <v>0</v>
+      </c>
+      <c r="C10" s="32">
         <f>Compras_y_Lotes!E11</f>
         <v>864</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Comprar</v>
       </c>
@@ -6205,29 +6202,29 @@
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="70">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="69">
+        <v>0</v>
+      </c>
+      <c r="C11" s="32">
         <f>Compras_y_Lotes!E12</f>
         <v>162</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Comprar</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6250,18 +6247,18 @@
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="69">
         <v>1</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <f>Compras_y_Lotes!F18</f>
         <v>0</v>
       </c>
-      <c r="D15" s="60" t="str">
+      <c r="D15" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="22" t="str">
         <f t="shared" ref="E15:E22" si="1">IF(C15&gt;0,"Comprar","-")</f>
         <v>-</v>
       </c>
@@ -6270,18 +6267,18 @@
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="69">
         <v>2</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <f>Compras_y_Lotes!F19</f>
         <v>0</v>
       </c>
-      <c r="D16" s="60" t="str">
+      <c r="D16" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6290,18 +6287,18 @@
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="69">
         <v>3</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <f>Compras_y_Lotes!F20</f>
         <v>0</v>
       </c>
-      <c r="D17" s="60" t="str">
+      <c r="D17" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6310,18 +6307,18 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="69">
         <v>4</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <f>Compras_y_Lotes!F21</f>
         <v>0</v>
       </c>
-      <c r="D18" s="60" t="str">
+      <c r="D18" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E18" s="23" t="str">
+      <c r="E18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6330,18 +6327,18 @@
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="69">
         <v>5</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <f>Compras_y_Lotes!F22</f>
         <v>0</v>
       </c>
-      <c r="D19" s="60" t="str">
+      <c r="D19" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6350,18 +6347,18 @@
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="69">
         <v>6</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <f>Compras_y_Lotes!F23</f>
         <v>0</v>
       </c>
-      <c r="D20" s="60" t="str">
+      <c r="D20" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E20" s="23" t="str">
+      <c r="E20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6370,18 +6367,18 @@
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="69">
         <v>7</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <f>Compras_y_Lotes!F24</f>
         <v>0</v>
       </c>
-      <c r="D21" s="60" t="str">
+      <c r="D21" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -6390,30 +6387,30 @@
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="69">
         <v>8</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <f>Compras_y_Lotes!F25</f>
         <v>0</v>
       </c>
-      <c r="D22" s="60" t="str">
+      <c r="D22" s="59" t="str">
         <f>Inputs!$B$69</f>
         <v>A</v>
       </c>
-      <c r="E22" s="23" t="str">
+      <c r="E22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6436,18 +6433,18 @@
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="69">
         <v>1</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <f>Compras_y_Lotes!F26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="60" t="str">
+      <c r="D26" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E26" s="23" t="str">
+      <c r="E26" s="22" t="str">
         <f t="shared" ref="E26:E33" si="2">IF(C26&gt;0,"Comprar","-")</f>
         <v>-</v>
       </c>
@@ -6456,18 +6453,18 @@
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="69">
         <v>2</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <f>Compras_y_Lotes!F27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="60" t="str">
+      <c r="D27" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6476,18 +6473,18 @@
       <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="69">
         <v>3</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <f>Compras_y_Lotes!F28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="60" t="str">
+      <c r="D28" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E28" s="23" t="str">
+      <c r="E28" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6496,18 +6493,18 @@
       <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <v>4</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <f>Compras_y_Lotes!F29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="60" t="str">
+      <c r="D29" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6516,18 +6513,18 @@
       <c r="A30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="69">
         <v>5</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <f>Compras_y_Lotes!F30</f>
         <v>0</v>
       </c>
-      <c r="D30" s="60" t="str">
+      <c r="D30" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E30" s="23" t="str">
+      <c r="E30" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6536,18 +6533,18 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="69">
         <v>6</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <f>Compras_y_Lotes!F31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="60" t="str">
+      <c r="D31" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6556,18 +6553,18 @@
       <c r="A32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="69">
         <v>7</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f>Compras_y_Lotes!F32</f>
         <v>0</v>
       </c>
-      <c r="D32" s="60" t="str">
+      <c r="D32" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E32" s="23" t="str">
+      <c r="E32" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6576,18 +6573,18 @@
       <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="69">
         <v>8</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <f>Compras_y_Lotes!F33</f>
         <v>0</v>
       </c>
-      <c r="D33" s="60" t="str">
+      <c r="D33" s="59" t="str">
         <f>Inputs!$B$77</f>
         <v>A</v>
       </c>
-      <c r="E33" s="23" t="str">
+      <c r="E33" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -6610,7 +6607,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J11" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6623,31 +6620,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6670,16 +6667,16 @@
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>3496</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>1016</v>
       </c>
       <c r="D6" s="7">
         <v>4512</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="60">
         <f t="shared" ref="E6:E13" si="0">B6/D6</f>
         <v>0.77482269503546097</v>
       </c>
@@ -6688,16 +6685,16 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>765</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>293</v>
       </c>
       <c r="D7" s="7">
         <v>1058</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <f t="shared" si="0"/>
         <v>0.72306238185255201</v>
       </c>
@@ -6706,16 +6703,16 @@
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>94</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>36</v>
       </c>
       <c r="D8" s="7">
         <v>130</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="60">
         <f t="shared" si="0"/>
         <v>0.72307692307692306</v>
       </c>
@@ -6724,16 +6721,16 @@
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>3844</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1424</v>
       </c>
       <c r="D9" s="7">
         <v>5268</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="60">
         <f t="shared" si="0"/>
         <v>0.72968868640850415</v>
       </c>
@@ -6742,16 +6739,16 @@
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>3125</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>1208</v>
       </c>
       <c r="D10" s="7">
         <v>4333</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="60">
         <f t="shared" si="0"/>
         <v>0.72120932379413805</v>
       </c>
@@ -6760,16 +6757,16 @@
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>6131</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>2356</v>
       </c>
       <c r="D11" s="7">
         <v>8487</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="60">
         <f t="shared" si="0"/>
         <v>0.72239896312006602</v>
       </c>
@@ -6778,16 +6775,16 @@
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>16736</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>6456</v>
       </c>
       <c r="D12" s="7">
         <v>23192</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="60">
         <f t="shared" si="0"/>
         <v>0.72162814763711625</v>
       </c>
@@ -6796,16 +6793,16 @@
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>4439</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>1596</v>
       </c>
       <c r="D13" s="7">
         <v>6035</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="60">
         <f t="shared" si="0"/>
         <v>0.73554266777133392</v>
       </c>
@@ -6826,7 +6823,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6835,34 +6832,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7201,7 +7198,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7210,40 +7207,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7264,13 +7261,13 @@
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -7293,63 +7290,63 @@
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7395,35 +7392,35 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <f>Inventario_Dinamico!B10</f>
         <v>2662</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="74">
         <f>Inventario_Dinamico!C10</f>
         <v>812</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="74">
         <f>Inventario_Dinamico!D10</f>
         <v>-1038</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="74">
         <f>Inventario_Dinamico!E10</f>
         <v>-2888</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="74">
         <f>Inventario_Dinamico!F10</f>
         <v>-2888</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="74">
         <f>Inventario_Dinamico!G10</f>
         <v>-2888</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="74">
         <f>Inventario_Dinamico!H10</f>
         <v>-2888</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="74">
         <f>Inventario_Dinamico!I10</f>
         <v>-2888</v>
       </c>
@@ -7432,35 +7429,35 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <f>Inventario_Dinamico!B16</f>
         <v>688</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="74">
         <f>Inventario_Dinamico!C16</f>
         <v>318</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="74">
         <f>Inventario_Dinamico!D16</f>
         <v>-52</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="74">
         <f>Inventario_Dinamico!E16</f>
         <v>-422</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="74">
         <f>Inventario_Dinamico!F16</f>
         <v>-792</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="74">
         <f>Inventario_Dinamico!G16</f>
         <v>-792</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="74">
         <f>Inventario_Dinamico!H16</f>
         <v>-792</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="74">
         <f>Inventario_Dinamico!I16</f>
         <v>-792</v>
       </c>
@@ -7469,35 +7466,35 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <f>Inventario_Dinamico!B22</f>
         <v>111.5</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <f>Inventario_Dinamico!C22</f>
         <v>93</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="74">
         <f>Inventario_Dinamico!D22</f>
         <v>74.5</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="74">
         <f>Inventario_Dinamico!E22</f>
         <v>56</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="74">
         <f>Inventario_Dinamico!F22</f>
         <v>37.5</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="74">
         <f>Inventario_Dinamico!G22</f>
         <v>19</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="74">
         <f>Inventario_Dinamico!H22</f>
         <v>0.5</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="74">
         <f>Inventario_Dinamico!I22</f>
         <v>0.5</v>
       </c>
@@ -7506,35 +7503,35 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <f>Inventario_Dinamico!B28</f>
         <v>-9532</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <f>Inventario_Dinamico!C28</f>
         <v>-24332</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <f>Inventario_Dinamico!D28</f>
         <v>-39132</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="74">
         <f>Inventario_Dinamico!E28</f>
         <v>-53932</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="74">
         <f>Inventario_Dinamico!F28</f>
         <v>-68732</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="74">
         <f>Inventario_Dinamico!G28</f>
         <v>-83532</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="74">
         <f>Inventario_Dinamico!H28</f>
         <v>-98332</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="74">
         <f>Inventario_Dinamico!I28</f>
         <v>-98332</v>
       </c>
@@ -7543,35 +7540,35 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <f>Inventario_Dinamico!B34</f>
         <v>3778</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="74">
         <f>Inventario_Dinamico!C34</f>
         <v>3223</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="74">
         <f>Inventario_Dinamico!D34</f>
         <v>2668</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="74">
         <f>Inventario_Dinamico!E34</f>
         <v>2113</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="74">
         <f>Inventario_Dinamico!F34</f>
         <v>1558</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="74">
         <f>Inventario_Dinamico!G34</f>
         <v>1003</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="74">
         <f>Inventario_Dinamico!H34</f>
         <v>448</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="74">
         <f>Inventario_Dinamico!I34</f>
         <v>448</v>
       </c>
@@ -7580,35 +7577,35 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <f>Inventario_Dinamico!B40</f>
         <v>7377</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="74">
         <f>Inventario_Dinamico!C40</f>
         <v>6267</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="74">
         <f>Inventario_Dinamico!D40</f>
         <v>5157</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="74">
         <f>Inventario_Dinamico!E40</f>
         <v>4047</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="74">
         <f>Inventario_Dinamico!F40</f>
         <v>2937</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="74">
         <f>Inventario_Dinamico!G40</f>
         <v>1827</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="74">
         <f>Inventario_Dinamico!H40</f>
         <v>717</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="74">
         <f>Inventario_Dinamico!I40</f>
         <v>717</v>
       </c>
@@ -7617,35 +7614,35 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <f>Inventario_Dinamico!B46</f>
         <v>19492</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="74">
         <f>Inventario_Dinamico!C46</f>
         <v>15792</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="74">
         <f>Inventario_Dinamico!D46</f>
         <v>12092</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="74">
         <f>Inventario_Dinamico!E46</f>
         <v>8392</v>
       </c>
-      <c r="F24" s="75">
+      <c r="F24" s="74">
         <f>Inventario_Dinamico!F46</f>
         <v>4692</v>
       </c>
-      <c r="G24" s="75">
+      <c r="G24" s="74">
         <f>Inventario_Dinamico!G46</f>
         <v>992</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="74">
         <f>Inventario_Dinamico!H46</f>
         <v>-2708</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="74">
         <f>Inventario_Dinamico!I46</f>
         <v>-2708</v>
       </c>
@@ -7654,35 +7651,35 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <f>Inventario_Dinamico!B52</f>
         <v>4647.5</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="74">
         <f>Inventario_Dinamico!C52</f>
         <v>3260</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="74">
         <f>Inventario_Dinamico!D52</f>
         <v>1872.5</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="74">
         <f>Inventario_Dinamico!E52</f>
         <v>485</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="74">
         <f>Inventario_Dinamico!F52</f>
         <v>-902.5</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="74">
         <f>Inventario_Dinamico!G52</f>
         <v>-2290</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="74">
         <f>Inventario_Dinamico!H52</f>
         <v>-3677.5</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="74">
         <f>Inventario_Dinamico!I52</f>
         <v>-3677.5</v>
       </c>
@@ -7731,35 +7728,35 @@
       <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <f t="shared" ref="B29:B36" si="0">B7-B18</f>
         <v>-2662</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="74">
         <f t="shared" ref="C29:I29" si="1">C7-C18</f>
         <v>-812</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="74">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="74">
         <f t="shared" si="1"/>
         <v>2888</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="74">
         <f t="shared" si="1"/>
         <v>2888</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="74">
         <f t="shared" si="1"/>
         <v>2888</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="74">
         <f t="shared" si="1"/>
         <v>2888</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="74">
         <f t="shared" si="1"/>
         <v>2888</v>
       </c>
@@ -7776,35 +7773,35 @@
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <f t="shared" si="0"/>
         <v>-688</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="74">
         <f t="shared" ref="C30:I30" si="2">C8-C19</f>
         <v>-318</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="74">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="74">
         <f t="shared" si="2"/>
         <v>422</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="74">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="G30" s="75">
+      <c r="G30" s="74">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="74">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="I30" s="75">
+      <c r="I30" s="74">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
@@ -7821,35 +7818,35 @@
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <f t="shared" si="0"/>
         <v>-111.5</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="74">
         <f t="shared" ref="C31:I31" si="5">C9-C20</f>
         <v>-93</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="74">
         <f t="shared" si="5"/>
         <v>-74.5</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="74">
         <f t="shared" si="5"/>
         <v>-56</v>
       </c>
-      <c r="F31" s="75">
+      <c r="F31" s="74">
         <f t="shared" si="5"/>
         <v>-37.5</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="74">
         <f t="shared" si="5"/>
         <v>-19</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="74">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="I31" s="75">
+      <c r="I31" s="74">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
@@ -7866,35 +7863,35 @@
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <f t="shared" si="0"/>
         <v>9532</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="74">
         <f t="shared" ref="C32:I32" si="6">C10-C21</f>
         <v>24332</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="74">
         <f t="shared" si="6"/>
         <v>39132</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="74">
         <f t="shared" si="6"/>
         <v>53932</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="74">
         <f t="shared" si="6"/>
         <v>68732</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="74">
         <f t="shared" si="6"/>
         <v>83532</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="74">
         <f t="shared" si="6"/>
         <v>98332</v>
       </c>
-      <c r="I32" s="75">
+      <c r="I32" s="74">
         <f t="shared" si="6"/>
         <v>98332</v>
       </c>
@@ -7911,35 +7908,35 @@
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <f t="shared" si="0"/>
         <v>-3778</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="74">
         <f t="shared" ref="C33:I33" si="7">C11-C22</f>
         <v>-3223</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="74">
         <f t="shared" si="7"/>
         <v>-2668</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="74">
         <f t="shared" si="7"/>
         <v>-2113</v>
       </c>
-      <c r="F33" s="75">
+      <c r="F33" s="74">
         <f t="shared" si="7"/>
         <v>-1558</v>
       </c>
-      <c r="G33" s="75">
+      <c r="G33" s="74">
         <f t="shared" si="7"/>
         <v>-1003</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="74">
         <f t="shared" si="7"/>
         <v>-448</v>
       </c>
-      <c r="I33" s="75">
+      <c r="I33" s="74">
         <f t="shared" si="7"/>
         <v>-448</v>
       </c>
@@ -7956,35 +7953,35 @@
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <f t="shared" si="0"/>
         <v>-7377</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="74">
         <f t="shared" ref="C34:I34" si="8">C12-C23</f>
         <v>-6267</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="74">
         <f t="shared" si="8"/>
         <v>-5157</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="74">
         <f t="shared" si="8"/>
         <v>-4047</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="74">
         <f t="shared" si="8"/>
         <v>-2937</v>
       </c>
-      <c r="G34" s="75">
+      <c r="G34" s="74">
         <f t="shared" si="8"/>
         <v>-1827</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="74">
         <f t="shared" si="8"/>
         <v>-717</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I34" s="74">
         <f t="shared" si="8"/>
         <v>-717</v>
       </c>
@@ -8001,35 +7998,35 @@
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <f t="shared" si="0"/>
         <v>-19492</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="74">
         <f t="shared" ref="C35:I35" si="9">C13-C24</f>
         <v>-15792</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="74">
         <f t="shared" si="9"/>
         <v>-12092</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E35" s="74">
         <f t="shared" si="9"/>
         <v>-8392</v>
       </c>
-      <c r="F35" s="75">
+      <c r="F35" s="74">
         <f t="shared" si="9"/>
         <v>-4692</v>
       </c>
-      <c r="G35" s="75">
+      <c r="G35" s="74">
         <f t="shared" si="9"/>
         <v>-992</v>
       </c>
-      <c r="H35" s="75">
+      <c r="H35" s="74">
         <f t="shared" si="9"/>
         <v>2708</v>
       </c>
-      <c r="I35" s="75">
+      <c r="I35" s="74">
         <f t="shared" si="9"/>
         <v>2708</v>
       </c>
@@ -8046,35 +8043,35 @@
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <f t="shared" si="0"/>
         <v>-4647.5</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="74">
         <f t="shared" ref="C36:I36" si="10">C14-C25</f>
         <v>-3260</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="74">
         <f t="shared" si="10"/>
         <v>-1872.5</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E36" s="74">
         <f t="shared" si="10"/>
         <v>-485</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="74">
         <f t="shared" si="10"/>
         <v>902.5</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="74">
         <f t="shared" si="10"/>
         <v>2290</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="74">
         <f t="shared" si="10"/>
         <v>3677.5</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I36" s="74">
         <f t="shared" si="10"/>
         <v>3677.5</v>
       </c>
@@ -8125,37 +8122,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8184,24 +8181,24 @@
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="72">
         <v>3.67</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>6.18</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>3.58</v>
       </c>
-      <c r="E6" s="74" t="str">
+      <c r="E6" s="73" t="str">
         <f>Inputs!B69</f>
         <v>A</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="70">
         <f>SUM(Compras_y_Lotes!G18:G25)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <f>IFERROR(F6*CHOOSE(MATCH(E6,{"A","B","C"},0),B6,C6,D6),0)</f>
         <v>0</v>
       </c>
@@ -8210,24 +8207,24 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="72">
         <v>5.46</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>8.33</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <v>5.33</v>
       </c>
-      <c r="E7" s="74" t="str">
+      <c r="E7" s="73" t="str">
         <f>Inputs!B77</f>
         <v>A</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="70">
         <f>SUM(Compras_y_Lotes!G26:G33)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="71">
         <f>IFERROR(F7*CHOOSE(MATCH(E7,{"A","B","C"},0),B7,C7,D7),0)</f>
         <v>0</v>
       </c>
@@ -8247,8 +8244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8267,85 +8264,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8353,43 +8350,43 @@
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <f>_xlfn.XLOOKUP(A6,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>MRP_LeadTimes!B$18*$B6</f>
         <v>1850</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <f>MRP_LeadTimes!C$18*$B6</f>
         <v>1850</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <f>MRP_LeadTimes!D$18*$B6</f>
         <v>1850</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>MRP_LeadTimes!E$18*$B6</f>
         <v>1850</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <f>MRP_LeadTimes!F$18*$B6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <f>MRP_LeadTimes!G$18*$B6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <f>MRP_LeadTimes!H$18*$B6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <f>MRP_LeadTimes!I$18*$B6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <f t="shared" ref="K6:K13" si="0">SUM(C6:J6)</f>
         <v>7400</v>
       </c>
@@ -8398,43 +8395,43 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <f>_xlfn.XLOOKUP(A7,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>MRP_LeadTimes!B$17*$B7</f>
         <v>370</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <f>MRP_LeadTimes!C$17*$B7</f>
         <v>370</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <f>MRP_LeadTimes!D$17*$B7</f>
         <v>370</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <f>MRP_LeadTimes!E$17*$B7</f>
         <v>370</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f>MRP_LeadTimes!F$17*$B7</f>
         <v>370</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <f>MRP_LeadTimes!G$17*$B7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <f>MRP_LeadTimes!H$17*$B7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <f>MRP_LeadTimes!I$17*$B7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
@@ -8443,43 +8440,43 @@
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <f>_xlfn.XLOOKUP(A8,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.01</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>MRP_LeadTimes!B$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <f>MRP_LeadTimes!C$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f>MRP_LeadTimes!D$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>MRP_LeadTimes!E$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <f>MRP_LeadTimes!F$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f>MRP_LeadTimes!G$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <f>MRP_LeadTimes!H$15*$B8</f>
         <v>18.5</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <f>MRP_LeadTimes!I$15*$B8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <f t="shared" si="0"/>
         <v>129.5</v>
       </c>
@@ -8488,43 +8485,43 @@
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <f>_xlfn.XLOOKUP(A9,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f>MRP_LeadTimes!B$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <f>MRP_LeadTimes!C$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <f>MRP_LeadTimes!D$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f>MRP_LeadTimes!E$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>MRP_LeadTimes!F$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f>MRP_LeadTimes!G$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <f>MRP_LeadTimes!H$15*$B9</f>
         <v>14800</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <f>MRP_LeadTimes!I$15*$B9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <f t="shared" si="0"/>
         <v>103600</v>
       </c>
@@ -8533,43 +8530,43 @@
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <f>_xlfn.XLOOKUP(A10,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.3</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f>MRP_LeadTimes!B$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <f>MRP_LeadTimes!C$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <f>MRP_LeadTimes!D$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <f>MRP_LeadTimes!E$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <f>MRP_LeadTimes!F$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <f>MRP_LeadTimes!G$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <f>MRP_LeadTimes!H$15*$B10</f>
         <v>555</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <f>MRP_LeadTimes!I$15*$B10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <f t="shared" si="0"/>
         <v>3885</v>
       </c>
@@ -8578,43 +8575,43 @@
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <f>_xlfn.XLOOKUP(A11,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.6</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f>MRP_LeadTimes!B$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <f>MRP_LeadTimes!C$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f>MRP_LeadTimes!D$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <f>MRP_LeadTimes!E$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <f>MRP_LeadTimes!F$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <f>MRP_LeadTimes!G$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <f>MRP_LeadTimes!H$15*$B11</f>
         <v>1110</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f>MRP_LeadTimes!I$15*$B11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="26">
         <f t="shared" si="0"/>
         <v>7770</v>
       </c>
@@ -8623,43 +8620,43 @@
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>_xlfn.XLOOKUP(A12,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f>MRP_LeadTimes!B$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <f>MRP_LeadTimes!C$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f>MRP_LeadTimes!D$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <f>MRP_LeadTimes!E$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <f>MRP_LeadTimes!F$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f>MRP_LeadTimes!G$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <f>MRP_LeadTimes!H$15*$B12</f>
         <v>3700</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <f>MRP_LeadTimes!I$15*$B12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
@@ -8668,85 +8665,85 @@
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f>_xlfn.XLOOKUP(A13,Inputs!$A$22:$A$30,Inputs!$B$22:$B$30)</f>
         <v>0.75</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f>MRP_LeadTimes!B$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <f>MRP_LeadTimes!C$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <f>MRP_LeadTimes!D$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <f>MRP_LeadTimes!E$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f>MRP_LeadTimes!F$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <f>MRP_LeadTimes!G$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <f>MRP_LeadTimes!H$15*$B13</f>
         <v>1387.5</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f>MRP_LeadTimes!I$15*$B13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <f t="shared" si="0"/>
         <v>9712.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="28">
+      <c r="B15" s="82"/>
+      <c r="C15" s="27">
         <f>MRP_LeadTimes!B$14</f>
         <v>1850</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <f>MRP_LeadTimes!C$14</f>
         <v>1850</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f>MRP_LeadTimes!D$14</f>
         <v>1850</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <f>MRP_LeadTimes!E$14</f>
         <v>1850</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <f>MRP_LeadTimes!F$14</f>
         <v>1850</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <f>MRP_LeadTimes!G$14</f>
         <v>1850</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <f>MRP_LeadTimes!H$14</f>
         <v>1850</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <f>Inputs!I6</f>
         <v>1850</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <f>SUM(C15:J15)</f>
         <v>14800</v>
       </c>
@@ -8785,64 +8782,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8877,35 +8874,35 @@
       <c r="A7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f>Multi_Planta!D6</f>
         <v>4512</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f t="shared" ref="C7:I7" si="0">B10</f>
         <v>2662</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>812</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>-1038</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>-2888</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>-2888</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>-2888</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f t="shared" si="0"/>
         <v>-2888</v>
       </c>
@@ -8943,35 +8940,35 @@
       <c r="A9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <f>BOM_Consumo!C6</f>
         <v>1850</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <f>BOM_Consumo!D6</f>
         <v>1850</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <f>BOM_Consumo!E6</f>
         <v>1850</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>BOM_Consumo!F6</f>
         <v>1850</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <f>BOM_Consumo!G6</f>
         <v>0</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <f>BOM_Consumo!H6</f>
         <v>0</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <f>BOM_Consumo!I6</f>
         <v>0</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <f>BOM_Consumo!J6</f>
         <v>0</v>
       </c>
@@ -8980,53 +8977,53 @@
       <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <f t="shared" ref="B10:I10" si="1">B7+B8-B9</f>
         <v>2662</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <f t="shared" si="1"/>
         <v>-1038</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" si="1"/>
         <v>-2888</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f t="shared" si="1"/>
         <v>-2888</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>-2888</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>-2888</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <f t="shared" si="1"/>
         <v>-2888</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9061,35 +9058,35 @@
       <c r="A13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <f>Multi_Planta!D7</f>
         <v>1058</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f t="shared" ref="C13:I13" si="2">B16</f>
         <v>688</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="2"/>
         <v>-52</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f t="shared" si="2"/>
         <v>-422</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="2"/>
         <v>-792</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="2"/>
         <v>-792</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <f t="shared" si="2"/>
         <v>-792</v>
       </c>
@@ -9127,35 +9124,35 @@
       <c r="A15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <f>BOM_Consumo!C7</f>
         <v>370</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <f>BOM_Consumo!D7</f>
         <v>370</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <f>BOM_Consumo!E7</f>
         <v>370</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f>BOM_Consumo!F7</f>
         <v>370</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <f>BOM_Consumo!G7</f>
         <v>370</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <f>BOM_Consumo!H7</f>
         <v>0</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <f>BOM_Consumo!I7</f>
         <v>0</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f>BOM_Consumo!J7</f>
         <v>0</v>
       </c>
@@ -9164,53 +9161,53 @@
       <c r="A16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <f t="shared" ref="B16:I16" si="3">B13+B14-B15</f>
         <v>688</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <f t="shared" si="3"/>
         <v>-52</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="3"/>
         <v>-422</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <f t="shared" si="3"/>
         <v>-792</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <f t="shared" si="3"/>
         <v>-792</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <f t="shared" si="3"/>
         <v>-792</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f t="shared" si="3"/>
         <v>-792</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9245,35 +9242,35 @@
       <c r="A19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f>Multi_Planta!D8</f>
         <v>130</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <f t="shared" ref="C19:I19" si="4">B22</f>
         <v>111.5</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" si="4"/>
         <v>74.5</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -9311,35 +9308,35 @@
       <c r="A21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <f>BOM_Consumo!C8</f>
         <v>18.5</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <f>BOM_Consumo!D8</f>
         <v>18.5</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f>BOM_Consumo!E8</f>
         <v>18.5</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f>BOM_Consumo!F8</f>
         <v>18.5</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <f>BOM_Consumo!G8</f>
         <v>18.5</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <f>BOM_Consumo!H8</f>
         <v>18.5</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <f>BOM_Consumo!I8</f>
         <v>18.5</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <f>BOM_Consumo!J8</f>
         <v>0</v>
       </c>
@@ -9348,53 +9345,53 @@
       <c r="A22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <f t="shared" ref="B22:I22" si="5">B19+B20-B21</f>
         <v>111.5</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9429,35 +9426,35 @@
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <f>Multi_Planta!D9</f>
         <v>5268</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <f t="shared" ref="C25:I25" si="6">B28</f>
         <v>-9532</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <f t="shared" si="6"/>
         <v>-24332</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f t="shared" si="6"/>
         <v>-39132</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <f t="shared" si="6"/>
         <v>-53932</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <f t="shared" si="6"/>
         <v>-68732</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <f t="shared" si="6"/>
         <v>-83532</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <f t="shared" si="6"/>
         <v>-98332</v>
       </c>
@@ -9495,35 +9492,35 @@
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <f>BOM_Consumo!C9</f>
         <v>14800</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <f>BOM_Consumo!D9</f>
         <v>14800</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f>BOM_Consumo!E9</f>
         <v>14800</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f>BOM_Consumo!F9</f>
         <v>14800</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f>BOM_Consumo!G9</f>
         <v>14800</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f>BOM_Consumo!H9</f>
         <v>14800</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f>BOM_Consumo!I9</f>
         <v>14800</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f>BOM_Consumo!J9</f>
         <v>0</v>
       </c>
@@ -9532,53 +9529,53 @@
       <c r="A28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <f t="shared" ref="B28:I28" si="7">B25+B26-B27</f>
         <v>-9532</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <f t="shared" si="7"/>
         <v>-24332</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <f t="shared" si="7"/>
         <v>-39132</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f t="shared" si="7"/>
         <v>-53932</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <f t="shared" si="7"/>
         <v>-68732</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <f t="shared" si="7"/>
         <v>-83532</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <f t="shared" si="7"/>
         <v>-98332</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <f t="shared" si="7"/>
         <v>-98332</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9613,35 +9610,35 @@
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <f>Multi_Planta!D10</f>
         <v>4333</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <f t="shared" ref="C31:I31" si="8">B34</f>
         <v>3778</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <f t="shared" si="8"/>
         <v>3223</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <f t="shared" si="8"/>
         <v>2668</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <f t="shared" si="8"/>
         <v>2113</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <f t="shared" si="8"/>
         <v>1558</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <f t="shared" si="8"/>
         <v>1003</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <f t="shared" si="8"/>
         <v>448</v>
       </c>
@@ -9679,35 +9676,35 @@
       <c r="A33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>BOM_Consumo!C10</f>
         <v>555</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <f>BOM_Consumo!D10</f>
         <v>555</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <f>BOM_Consumo!E10</f>
         <v>555</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <f>BOM_Consumo!F10</f>
         <v>555</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <f>BOM_Consumo!G10</f>
         <v>555</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <f>BOM_Consumo!H10</f>
         <v>555</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <f>BOM_Consumo!I10</f>
         <v>555</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <f>BOM_Consumo!J10</f>
         <v>0</v>
       </c>
@@ -9716,53 +9713,53 @@
       <c r="A34" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="26">
         <f t="shared" ref="B34:I34" si="9">B31+B32-B33</f>
         <v>3778</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <f t="shared" si="9"/>
         <v>3223</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <f t="shared" si="9"/>
         <v>2668</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <f t="shared" si="9"/>
         <v>2113</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <f t="shared" si="9"/>
         <v>1558</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <f t="shared" si="9"/>
         <v>1003</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <f t="shared" si="9"/>
         <v>448</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <f t="shared" si="9"/>
         <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9797,35 +9794,35 @@
       <c r="A37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="28">
         <f>Multi_Planta!D11</f>
         <v>8487</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <f t="shared" ref="C37:I37" si="10">B40</f>
         <v>7377</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <f t="shared" si="10"/>
         <v>6267</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <f t="shared" si="10"/>
         <v>5157</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <f t="shared" si="10"/>
         <v>4047</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <f t="shared" si="10"/>
         <v>2937</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <f t="shared" si="10"/>
         <v>1827</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="21">
         <f t="shared" si="10"/>
         <v>717</v>
       </c>
@@ -9863,35 +9860,35 @@
       <c r="A39" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <f>BOM_Consumo!C11</f>
         <v>1110</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <f>BOM_Consumo!D11</f>
         <v>1110</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <f>BOM_Consumo!E11</f>
         <v>1110</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <f>BOM_Consumo!F11</f>
         <v>1110</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <f>BOM_Consumo!G11</f>
         <v>1110</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <f>BOM_Consumo!H11</f>
         <v>1110</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <f>BOM_Consumo!I11</f>
         <v>1110</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <f>BOM_Consumo!J11</f>
         <v>0</v>
       </c>
@@ -9900,53 +9897,53 @@
       <c r="A40" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="26">
         <f t="shared" ref="B40:I40" si="11">B37+B38-B39</f>
         <v>7377</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <f t="shared" si="11"/>
         <v>6267</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <f t="shared" si="11"/>
         <v>5157</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="11"/>
         <v>4047</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="26">
         <f t="shared" si="11"/>
         <v>2937</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="26">
         <f t="shared" si="11"/>
         <v>1827</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="26">
         <f t="shared" si="11"/>
         <v>717</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="26">
         <f t="shared" si="11"/>
         <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -9981,35 +9978,35 @@
       <c r="A43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="28">
         <f>Multi_Planta!D12</f>
         <v>23192</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <f t="shared" ref="C43:I43" si="12">B46</f>
         <v>19492</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <f t="shared" si="12"/>
         <v>15792</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <f t="shared" si="12"/>
         <v>12092</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <f t="shared" si="12"/>
         <v>8392</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <f t="shared" si="12"/>
         <v>4692</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="21">
         <f t="shared" si="12"/>
         <v>992</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="21">
         <f t="shared" si="12"/>
         <v>-2708</v>
       </c>
@@ -10047,35 +10044,35 @@
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="28">
         <f>BOM_Consumo!C12</f>
         <v>3700</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <f>BOM_Consumo!D12</f>
         <v>3700</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <f>BOM_Consumo!E12</f>
         <v>3700</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="28">
         <f>BOM_Consumo!F12</f>
         <v>3700</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="28">
         <f>BOM_Consumo!G12</f>
         <v>3700</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="28">
         <f>BOM_Consumo!H12</f>
         <v>3700</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <f>BOM_Consumo!I12</f>
         <v>3700</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="28">
         <f>BOM_Consumo!J12</f>
         <v>0</v>
       </c>
@@ -10084,53 +10081,53 @@
       <c r="A46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="26">
         <f t="shared" ref="B46:I46" si="13">B43+B44-B45</f>
         <v>19492</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <f t="shared" si="13"/>
         <v>15792</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <f t="shared" si="13"/>
         <v>12092</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <f t="shared" si="13"/>
         <v>8392</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <f t="shared" si="13"/>
         <v>4692</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="26">
         <f t="shared" si="13"/>
         <v>992</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="26">
         <f t="shared" si="13"/>
         <v>-2708</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="26">
         <f t="shared" si="13"/>
         <v>-2708</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10165,35 +10162,35 @@
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="28">
         <f>Multi_Planta!D13</f>
         <v>6035</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <f t="shared" ref="C49:I49" si="14">B$52</f>
         <v>4647.5</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f t="shared" si="14"/>
         <v>3260</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <f t="shared" si="14"/>
         <v>1872.5</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="21">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <f t="shared" si="14"/>
         <v>-902.5</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="21">
         <f t="shared" si="14"/>
         <v>-2290</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="21">
         <f t="shared" si="14"/>
         <v>-3677.5</v>
       </c>
@@ -10202,28 +10199,28 @@
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="29">
-        <v>0</v>
-      </c>
-      <c r="C50" s="22">
-        <v>0</v>
-      </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
-      <c r="E50" s="22">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
-        <v>0</v>
-      </c>
-      <c r="I50" s="22">
+      <c r="B50" s="28">
+        <v>0</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0</v>
+      </c>
+      <c r="F50" s="21">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0</v>
+      </c>
+      <c r="H50" s="21">
+        <v>0</v>
+      </c>
+      <c r="I50" s="21">
         <v>0</v>
       </c>
     </row>
@@ -10231,35 +10228,35 @@
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="28">
         <f>BOM_Consumo!C$13</f>
         <v>1387.5</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <f>BOM_Consumo!D$13</f>
         <v>1387.5</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <f>BOM_Consumo!E$13</f>
         <v>1387.5</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="21">
         <f>BOM_Consumo!F$13</f>
         <v>1387.5</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <f>BOM_Consumo!G$13</f>
         <v>1387.5</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="21">
         <f>BOM_Consumo!H$13</f>
         <v>1387.5</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="21">
         <f>BOM_Consumo!I$13</f>
         <v>1387.5</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="21">
         <f>BOM_Consumo!J$13</f>
         <v>0</v>
       </c>
@@ -10268,79 +10265,79 @@
       <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="28">
         <f t="shared" ref="B52:I52" si="15">B$49+B$50-B$51</f>
         <v>4647.5</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="21">
         <f t="shared" si="15"/>
         <v>3260</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <f t="shared" si="15"/>
         <v>1872.5</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="21">
         <f t="shared" si="15"/>
         <v>485</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <f t="shared" si="15"/>
         <v>-902.5</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="21">
         <f t="shared" si="15"/>
         <v>-2290</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="21">
         <f t="shared" si="15"/>
         <v>-3677.5</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="21">
         <f t="shared" si="15"/>
         <v>-3677.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="8" t="s">
@@ -10351,39 +10348,39 @@
       <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="27" t="str">
+      <c r="B55" s="26" t="str">
         <f>IF(B9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C55" s="27" t="str">
+      <c r="C55" s="26" t="str">
         <f>IF(C9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="D55" s="27" t="str">
+      <c r="D55" s="26" t="str">
         <f>IF(D9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E55" s="27" t="str">
+      <c r="E55" s="26" t="str">
         <f>IF(E9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F55" s="27" t="str">
+      <c r="F55" s="26" t="str">
         <f>IF(F9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G55" s="27" t="str">
+      <c r="G55" s="26" t="str">
         <f>IF(G9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H55" s="27" t="str">
+      <c r="H55" s="26" t="str">
         <f>IF(H9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I55" s="27" t="str">
+      <c r="I55" s="26" t="str">
         <f>IF(I9&lt;Inputs!D92,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="30">
         <f>MIN(B9:I9)</f>
         <v>0</v>
       </c>
@@ -10392,39 +10389,39 @@
       <c r="A56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="23" t="str">
+      <c r="B56" s="22" t="str">
         <f>IF(B14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C56" s="23" t="str">
+      <c r="C56" s="22" t="str">
         <f>IF(C14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D56" s="23" t="str">
+      <c r="D56" s="22" t="str">
         <f>IF(D14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E56" s="23" t="str">
+      <c r="E56" s="22" t="str">
         <f>IF(E14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F56" s="23" t="str">
+      <c r="F56" s="22" t="str">
         <f>IF(F14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G56" s="23" t="str">
+      <c r="G56" s="22" t="str">
         <f>IF(G14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H56" s="23" t="str">
+      <c r="H56" s="22" t="str">
         <f>IF(H14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I56" s="23" t="str">
+      <c r="I56" s="22" t="str">
         <f>IF(I14&lt;Inputs!D93,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="30">
         <f>MIN(B14:I14)</f>
         <v>0</v>
       </c>
@@ -10433,39 +10430,39 @@
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="23" t="str">
+      <c r="B57" s="22" t="str">
         <f>IF(B19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C57" s="23" t="str">
+      <c r="C57" s="22" t="str">
         <f>IF(C19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D57" s="23" t="str">
+      <c r="D57" s="22" t="str">
         <f>IF(D19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E57" s="23" t="str">
+      <c r="E57" s="22" t="str">
         <f>IF(E19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F57" s="23" t="str">
+      <c r="F57" s="22" t="str">
         <f>IF(F19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G57" s="23" t="str">
+      <c r="G57" s="22" t="str">
         <f>IF(G19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H57" s="23" t="str">
+      <c r="H57" s="22" t="str">
         <f>IF(H19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I57" s="23" t="str">
+      <c r="I57" s="22" t="str">
         <f>IF(I19&lt;Inputs!D94,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="30">
         <f>MIN(B19:I19)</f>
         <v>0.5</v>
       </c>
@@ -10474,39 +10471,39 @@
       <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="23" t="str">
+      <c r="B58" s="22" t="str">
         <f>IF(B24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C58" s="23" t="str">
+      <c r="C58" s="22" t="str">
         <f>IF(C24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="D58" s="23" t="str">
+      <c r="D58" s="22" t="str">
         <f>IF(D24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E58" s="23" t="str">
+      <c r="E58" s="22" t="str">
         <f>IF(E24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F58" s="23" t="str">
+      <c r="F58" s="22" t="str">
         <f>IF(F24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G58" s="23" t="str">
+      <c r="G58" s="22" t="str">
         <f>IF(G24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H58" s="23" t="str">
+      <c r="H58" s="22" t="str">
         <f>IF(H24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="I58" s="23" t="str">
+      <c r="I58" s="22" t="str">
         <f>IF(I24&lt;Inputs!D95,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="30">
         <f>MIN(B24:I24)</f>
         <v>0</v>
       </c>
@@ -10515,39 +10512,39 @@
       <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="23" t="str">
+      <c r="B59" s="22" t="str">
         <f>IF(B29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C59" s="23" t="str">
+      <c r="C59" s="22" t="str">
         <f>IF(C29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D59" s="23" t="str">
+      <c r="D59" s="22" t="str">
         <f>IF(D29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E59" s="23" t="str">
+      <c r="E59" s="22" t="str">
         <f>IF(E29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F59" s="23" t="str">
+      <c r="F59" s="22" t="str">
         <f>IF(F29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G59" s="23" t="str">
+      <c r="G59" s="22" t="str">
         <f>IF(G29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H59" s="23" t="str">
+      <c r="H59" s="22" t="str">
         <f>IF(H29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I59" s="23" t="str">
+      <c r="I59" s="22" t="str">
         <f>IF(I29&lt;Inputs!D96,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="30">
         <f>MIN(B29:I29)</f>
         <v>0</v>
       </c>
@@ -10556,39 +10553,39 @@
       <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="23" t="str">
+      <c r="B60" s="22" t="str">
         <f>IF(B34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C60" s="23" t="str">
+      <c r="C60" s="22" t="str">
         <f>IF(C34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D60" s="23" t="str">
+      <c r="D60" s="22" t="str">
         <f>IF(D34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E60" s="23" t="str">
+      <c r="E60" s="22" t="str">
         <f>IF(E34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F60" s="23" t="str">
+      <c r="F60" s="22" t="str">
         <f>IF(F34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G60" s="23" t="str">
+      <c r="G60" s="22" t="str">
         <f>IF(G34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H60" s="23" t="str">
+      <c r="H60" s="22" t="str">
         <f>IF(H34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I60" s="23" t="str">
+      <c r="I60" s="22" t="str">
         <f>IF(I34&lt;Inputs!D97,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="30">
         <f>MIN(B34:I34)</f>
         <v>448</v>
       </c>
@@ -10597,39 +10594,39 @@
       <c r="A61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="23" t="str">
+      <c r="B61" s="22" t="str">
         <f>IF(B39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="C61" s="23" t="str">
+      <c r="C61" s="22" t="str">
         <f>IF(C39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="D61" s="23" t="str">
+      <c r="D61" s="22" t="str">
         <f>IF(D39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="E61" s="23" t="str">
+      <c r="E61" s="22" t="str">
         <f>IF(E39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="F61" s="23" t="str">
+      <c r="F61" s="22" t="str">
         <f>IF(F39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="G61" s="23" t="str">
+      <c r="G61" s="22" t="str">
         <f>IF(G39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="H61" s="23" t="str">
+      <c r="H61" s="22" t="str">
         <f>IF(H39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="I61" s="23" t="str">
+      <c r="I61" s="22" t="str">
         <f>IF(I39&lt;Inputs!D98,"⚠ RIESGO","OK")</f>
         <v>⚠ RIESGO</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="30">
         <f>MIN(B39:I39)</f>
         <v>0</v>
       </c>
@@ -10638,50 +10635,45 @@
       <c r="A62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="23" t="str">
+      <c r="B62" s="22" t="str">
         <f>IF(B44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C62" s="23" t="str">
+      <c r="C62" s="22" t="str">
         <f>IF(C44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="D62" s="23" t="str">
+      <c r="D62" s="22" t="str">
         <f>IF(D44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="E62" s="23" t="str">
+      <c r="E62" s="22" t="str">
         <f>IF(E44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F62" s="23" t="str">
+      <c r="F62" s="22" t="str">
         <f>IF(F44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G62" s="23" t="str">
+      <c r="G62" s="22" t="str">
         <f>IF(G44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H62" s="23" t="str">
+      <c r="H62" s="22" t="str">
         <f>IF(H44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="I62" s="23" t="str">
+      <c r="I62" s="22" t="str">
         <f>IF(I44&lt;Inputs!D99,"⚠ RIESGO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="30">
         <f>MIN(B44:I44)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10689,6 +10681,11 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10763,93 +10760,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10857,35 +10854,35 @@
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f>BOM_Consumo!K8</f>
         <v>129.5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" ref="D7:D12" si="0">ROUNDUP(B7/C7,0)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <f t="shared" ref="E7:E12" si="1">D7</f>
         <v>5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <f t="shared" ref="F7:F12" si="2">E7*C7</f>
         <v>150</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <f>_xlfn.XLOOKUP(A7,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>60</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <f t="shared" ref="H7:H12" si="3">E7*G7</f>
         <v>300</v>
       </c>
-      <c r="I7" s="23" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" ref="I7:I12" si="4">IF(F7&gt;=B7,"OK","INSUFICIENTE")</f>
         <v>OK</v>
       </c>
@@ -10894,35 +10891,35 @@
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f>BOM_Consumo!K9</f>
         <v>103600</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>8634</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <f t="shared" si="1"/>
         <v>8634</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <f t="shared" si="2"/>
         <v>103608</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f>_xlfn.XLOOKUP(A8,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <f t="shared" si="3"/>
         <v>60438</v>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
@@ -10931,35 +10928,35 @@
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f>BOM_Consumo!K10</f>
         <v>3885</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <f>Inputs!B37</f>
         <v>1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>3885</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <f t="shared" si="1"/>
         <v>3885</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f t="shared" si="2"/>
         <v>3885</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <f>_xlfn.XLOOKUP(A9,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>36</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f t="shared" si="3"/>
         <v>139860</v>
       </c>
-      <c r="I9" s="23" t="str">
+      <c r="I9" s="22" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
@@ -10968,35 +10965,35 @@
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f>BOM_Consumo!K11</f>
         <v>7770</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <f>Inputs!B38</f>
         <v>100</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f t="shared" si="2"/>
         <v>7800</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <f>_xlfn.XLOOKUP(A10,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>24</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <f t="shared" si="3"/>
         <v>1872</v>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I10" s="22" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
@@ -11005,35 +11002,35 @@
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <f>BOM_Consumo!K12</f>
         <v>25900</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <f>Inputs!B39</f>
         <v>30</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <f t="shared" si="1"/>
         <v>864</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <f t="shared" si="2"/>
         <v>25920</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f>_xlfn.XLOOKUP(A11,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>30</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <f t="shared" si="3"/>
         <v>25920</v>
       </c>
-      <c r="I11" s="23" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
@@ -11042,761 +11039,761 @@
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f>BOM_Consumo!K13</f>
         <v>9712.5</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <f>Inputs!B40</f>
         <v>60</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <f t="shared" si="2"/>
         <v>9720</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <f>_xlfn.XLOOKUP(A12,Inputs!$A$49:$A$54,Inputs!$B$49:$B$54)</f>
         <v>28</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <f t="shared" si="3"/>
         <v>4536</v>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="I12" s="22" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="38">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="37">
         <f>SUM(H7:H12)</f>
         <v>232926</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="84" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <f>BOM_Consumo!C6</f>
         <v>1850</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <f t="shared" ref="E18:E33" si="5">IF(C18&gt;0,ROUNDUP(C18/D18,0),0)</f>
         <v>62</v>
       </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
+      <c r="F18" s="34">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
         <f t="shared" ref="G18:G33" si="6">F18*D18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <f>IF(Inputs!$B$69="B",IF(F18&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f t="shared" ref="I18:I33" si="7">F18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="39" t="str">
+      <c r="J18" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K18" s="23" t="str">
+      <c r="K18" s="22" t="str">
         <f t="shared" ref="K18:K25" si="8">IF(B18="","",IF(VALUE(MID(B18,2,2))+IF(ISNUMBER(SEARCH("+2",J18)),2,IF(ISNUMBER(SEARCH("+8",J18)),8,0))&gt;8,"Next period","Q"&amp;(VALUE(MID(B18,2,2))+IF(ISNUMBER(SEARCH("+2",J18)),2,IF(ISNUMBER(SEARCH("+8",J18)),8,0)))))</f>
         <v>Q1</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <f>BOM_Consumo!D6</f>
         <v>1850</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34">
+      <c r="F19" s="34">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <f>IF(Inputs!$B$69="B",IF(F19&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="39" t="str">
+      <c r="J19" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="K19" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <f>BOM_Consumo!E6</f>
         <v>1850</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34">
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <f>IF(Inputs!$B$69="B",IF(F20&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="39" t="str">
+      <c r="J20" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K20" s="23" t="str">
+      <c r="K20" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q3</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <f>BOM_Consumo!F6</f>
         <v>1850</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34">
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <f>IF(Inputs!$B$69="B",IF(F21&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J21" s="39" t="str">
+      <c r="J21" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K21" s="23" t="str">
+      <c r="K21" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q4</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <f>BOM_Consumo!G6</f>
         <v>0</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
-      </c>
-      <c r="G22" s="34">
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <f>IF(Inputs!$B$69="B",IF(F22&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J22" s="39" t="str">
+      <c r="J22" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K22" s="23" t="str">
+      <c r="K22" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q5</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <f>BOM_Consumo!H6</f>
         <v>0</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <f>IF(Inputs!$B$69="B",IF(F23&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J23" s="39" t="str">
+      <c r="J23" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K23" s="23" t="str">
+      <c r="K23" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q6</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <f>BOM_Consumo!I6</f>
         <v>0</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F24" s="35">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34">
+      <c r="F24" s="34">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <f>IF(Inputs!$B$69="B",IF(F24&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J24" s="39" t="str">
+      <c r="J24" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K24" s="23" t="str">
+      <c r="K24" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q7</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <f>BOM_Consumo!J6</f>
         <v>0</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <f>Inputs!B35</f>
         <v>30</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34">
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <f>IF(Inputs!$B$69="B",IF(F25&gt;=Inputs!$E$67,Inputs!$B$67*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0)),Inputs!$B$67),_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68))</f>
         <v>125</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="39" t="str">
+      <c r="J25" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$69,Inputs!$A$66:$A$68,Inputs!$C$66:$C$68)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K25" s="23" t="str">
+      <c r="K25" s="22" t="str">
         <f t="shared" si="8"/>
         <v>Q8</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <f>BOM_Consumo!C7</f>
         <v>370</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="F26" s="35">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
+      <c r="F26" s="34">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <f>IF(Inputs!$B$77="B",IF(F26&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="39" t="str">
+      <c r="J26" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K26" s="23" t="str">
+      <c r="K26" s="22" t="str">
         <f t="shared" ref="K26:K33" si="9">IF(B26="","",IF(VALUE(MID(B26,2,2))+IF(ISNUMBER(SEARCH("+2",J26)),2,IF(ISNUMBER(SEARCH("+8",J26)),8,0))&gt;8,"Next period","Q"&amp;(VALUE(MID(B26,2,2))+IF(ISNUMBER(SEARCH("+2",J26)),2,IF(ISNUMBER(SEARCH("+8",J26)),8,0)))))</f>
         <v>Q1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <f>BOM_Consumo!D7</f>
         <v>370</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="F27" s="35">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34">
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <f>IF(Inputs!$B$77="B",IF(F27&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J27" s="39" t="str">
+      <c r="J27" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K27" s="23" t="str">
+      <c r="K27" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <f>BOM_Consumo!E7</f>
         <v>370</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="F28" s="35">
-        <v>0</v>
-      </c>
-      <c r="G28" s="34">
+      <c r="F28" s="34">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <f>IF(Inputs!$B$77="B",IF(F28&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="39" t="str">
+      <c r="J28" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K28" s="23" t="str">
+      <c r="K28" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q3</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <f>BOM_Consumo!F7</f>
         <v>370</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34">
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <f>IF(Inputs!$B$77="B",IF(F29&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="39" t="str">
+      <c r="J29" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K29" s="23" t="str">
+      <c r="K29" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q4</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <f>BOM_Consumo!G7</f>
         <v>370</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="34">
+      <c r="F30" s="34">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <f>IF(Inputs!$B$77="B",IF(F30&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J30" s="39" t="str">
+      <c r="J30" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K30" s="23" t="str">
+      <c r="K30" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q5</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <f>BOM_Consumo!H7</f>
         <v>0</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F31" s="35">
-        <v>0</v>
-      </c>
-      <c r="G31" s="34">
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+      <c r="G31" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <f>IF(Inputs!$B$77="B",IF(F31&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J31" s="39" t="str">
+      <c r="J31" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K31" s="23" t="str">
+      <c r="K31" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f>BOM_Consumo!I7</f>
         <v>0</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F32" s="35">
-        <v>0</v>
-      </c>
-      <c r="G32" s="34">
+      <c r="F32" s="34">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <f>IF(Inputs!$B$77="B",IF(F32&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J32" s="39" t="str">
+      <c r="J32" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K32" s="23" t="str">
+      <c r="K32" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q7</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <f>BOM_Consumo!J7</f>
         <v>0</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="32">
         <f>Inputs!B36</f>
         <v>12</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F33" s="35">
-        <v>0</v>
-      </c>
-      <c r="G33" s="34">
+      <c r="F33" s="34">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <f>IF(Inputs!$B$77="B",IF(F33&gt;=Inputs!$E$75,Inputs!$B$75*(1-IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0)),Inputs!$B$75),_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76))</f>
         <v>330</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J33" s="39" t="str">
+      <c r="J33" s="38" t="str">
         <f>_xlfn.XLOOKUP(Inputs!$B$77,Inputs!$A$74:$A$76,Inputs!$C$74:$C$76)</f>
         <v>Inmediato (0Q)</v>
       </c>
-      <c r="K33" s="23" t="str">
+      <c r="K33" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Q8</v>
       </c>
@@ -11822,7 +11819,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11836,42 +11833,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11879,20 +11876,20 @@
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <f>Compras_y_Lotes!H7</f>
         <v>300</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
         <f t="shared" ref="F5:F12" si="0">B5+D5+E5</f>
         <v>300</v>
       </c>
@@ -11901,20 +11898,20 @@
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <f>Compras_y_Lotes!H8</f>
         <v>60438</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
-      <c r="D6" s="37">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="D6" s="36">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>60438</v>
       </c>
@@ -11923,20 +11920,20 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>Compras_y_Lotes!H9</f>
         <v>139860</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="37">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>139860</v>
       </c>
@@ -11945,20 +11942,20 @@
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <f>Compras_y_Lotes!H10</f>
         <v>1872</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>1</v>
       </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
         <f t="shared" si="0"/>
         <v>1872</v>
       </c>
@@ -11967,20 +11964,20 @@
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <f>Compras_y_Lotes!H11</f>
         <v>25920</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>1</v>
       </c>
-      <c r="D9" s="37">
-        <v>0</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0</v>
-      </c>
-      <c r="F9" s="37">
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>25920</v>
       </c>
@@ -11989,20 +11986,20 @@
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <f>Compras_y_Lotes!H12</f>
         <v>4536</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>1</v>
       </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>4536</v>
       </c>
@@ -12011,23 +12008,23 @@
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f>SUM(Compras_y_Lotes!I18:I25)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f>COUNTIF(Compras_y_Lotes!F18:F25,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <f>C11*Inputs!B59</f>
         <v>0</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <f>SUMPRODUCT((Inventario_Dinamico!B7:I7+Inventario_Dinamico!B10:I10)/2)*Inputs!C59</f>
         <v>-2491.1999999999998</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>-2491.1999999999998</v>
       </c>
@@ -12036,23 +12033,23 @@
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <f>SUM(Compras_y_Lotes!I26:I33)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <f>COUNTIF(Compras_y_Lotes!F26:F33,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <f>C12*Inputs!B60</f>
         <v>0</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <f>SUMPRODUCT((Inventario_Dinamico!B13:I13+Inventario_Dinamico!B16:I16)/2)*Inputs!C60</f>
         <v>-7699.5</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>-7699.5</v>
       </c>
@@ -12061,23 +12058,23 @@
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <f>SUM(B5:B12)</f>
         <v>232926</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <f>SUM(C5:C12)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f>SUM(D5:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <f>SUM(E5:E12)</f>
         <v>-10190.700000000001</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <f>SUM(F5:F12)</f>
         <v>222735.3</v>
       </c>
@@ -12097,94 +12094,94 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12192,32 +12189,32 @@
       <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <f>Compras_y_Lotes!H13</f>
         <v>232926</v>
       </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-      <c r="J6" s="37">
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
         <f>SUM(B6:I6)</f>
         <v>232926</v>
       </c>
@@ -12226,31 +12223,31 @@
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43">
-        <v>0</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="37">
+      <c r="B7" s="42">
+        <v>0</v>
+      </c>
+      <c r="C7" s="42">
+        <v>0</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
         <f>SUM(B7:I7)</f>
         <v>0</v>
       </c>
@@ -12259,31 +12256,31 @@
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="43">
-        <v>0</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0</v>
-      </c>
-      <c r="H8" s="43">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43">
-        <v>0</v>
-      </c>
-      <c r="J8" s="37">
+      <c r="B8" s="42">
+        <v>0</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
@@ -12292,39 +12289,39 @@
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <f t="shared" ref="B9:I9" si="0">SUM(B6:B8)</f>
         <v>232926</v>
       </c>
-      <c r="C9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="C9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="37">
         <f>SUM(B9:I9)</f>
         <v>232926</v>
       </c>
@@ -12345,7 +12342,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12357,30 +12354,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12470,7 +12467,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -12554,14 +12551,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12587,23 +12584,23 @@
       <c r="A22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <f>Costos!F13</f>
         <v>222735.3</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <f>Costos!F13</f>
         <v>222735.3</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <f>Costos!F13*0.9</f>
         <v>200461.77</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <f>MIN(B22:D22)</f>
         <v>200461.77</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f t="shared" ref="F22:F27" si="0">MAX(B22:D22)-MIN(B22:D22)</f>
         <v>22273.53</v>
       </c>
@@ -12612,23 +12609,23 @@
       <c r="A23" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <f>Cashflow_Integrado!J33</f>
         <v>0</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <f>Cashflow_Integrado!J33</f>
         <v>0</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <f>Cashflow_Integrado!J33*0.92</f>
         <v>0</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="47">
         <f>MIN(B23:D23)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12637,23 +12634,23 @@
       <c r="A24" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <f>Cashflow_Integrado!B37</f>
         <v>0</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <f>Cashflow_Integrado!B37</f>
         <v>0</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <f>Cashflow_Integrado!B37*1.15</f>
         <v>0</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <f>MIN(B24:D24)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12671,11 +12668,11 @@
       <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="48">
         <f>MIN(B25:D25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -12684,23 +12681,23 @@
       <c r="A26" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <f>Riesgo_Proveedor_B!I14</f>
         <v>0</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <f>Riesgo_Proveedor_B!I14</f>
         <v>0</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <f>Riesgo_Proveedor_B!I14*2.5</f>
         <v>0</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="47">
         <f>MIN(B26:D26)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12718,11 +12715,11 @@
       <c r="D27" s="9">
         <v>0.5</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="48">
         <f>MAX(B27:D27)</f>
         <v>1.5</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12809,7 +12806,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12827,85 +12824,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <f>SUM(Compras_y_Lotes!F18:F25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>190</v>
       </c>
     </row>
@@ -12913,11 +12910,11 @@
       <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <f>_xlfn.XLOOKUP(A8,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68)</f>
         <v>125</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="50">
         <f>IF(A8="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0),0)</f>
         <v>0</v>
       </c>
@@ -12925,11 +12922,11 @@
         <f>IF(A8="B",Inputs!$E$67,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <f>B8</f>
         <v>125</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <f>B5*E8</f>
         <v>0</v>
       </c>
@@ -12941,7 +12938,7 @@
         <f>1-_xlfn.XLOOKUP(A8,Inputs!$A$66:$A$68,Inputs!$F$66:$F$68)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f>F8</f>
         <v>0</v>
       </c>
@@ -12953,11 +12950,11 @@
       <c r="A9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <f>_xlfn.XLOOKUP(A9,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68)</f>
         <v>100</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="50">
         <f>IF(A9="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0),0)</f>
         <v>0.16</v>
       </c>
@@ -12965,11 +12962,11 @@
         <f>IF(A9="B",Inputs!$E$67,0)</f>
         <v>150</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f>IF(B5&gt;0,F9/B5,B9)</f>
         <v>100</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f>SUMPRODUCT(Compras_y_Lotes!F18:F25*(B9*(1-C9*(Compras_y_Lotes!F18:F25&gt;=D9))))</f>
         <v>0</v>
       </c>
@@ -12981,7 +12978,7 @@
         <f>1-_xlfn.XLOOKUP(A9,Inputs!$A$66:$A$68,Inputs!$F$66:$F$68)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f>F9*1.05</f>
         <v>0</v>
       </c>
@@ -12993,11 +12990,11 @@
       <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <f>_xlfn.XLOOKUP(A10,Inputs!$A$66:$A$68,Inputs!$B$66:$B$68)</f>
         <v>140</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <f>IF(A10="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$67,FIND("%",Inputs!$D$67)-1),"%",""))/100,0),0)</f>
         <v>0</v>
       </c>
@@ -13005,11 +13002,11 @@
         <f>IF(A10="B",Inputs!$E$67,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <f>B10</f>
         <v>140</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <f>B5*E10</f>
         <v>0</v>
       </c>
@@ -13021,7 +13018,7 @@
         <f>1-_xlfn.XLOOKUP(A10,Inputs!$A$66:$A$68,Inputs!$F$66:$F$68)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <f>F10*0.97</f>
         <v>0</v>
       </c>
@@ -13033,30 +13030,30 @@
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="52" t="str">
+      <c r="B11" s="51" t="str">
         <f>INDEX(A8:A10,MATCH(MIN(I8:I10),I8:I10,0))</f>
         <v>A</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="49">
         <f>SUM(Compras_y_Lotes!F26:F33)</f>
         <v>0</v>
       </c>
@@ -13097,11 +13094,11 @@
       <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="44">
         <f>_xlfn.XLOOKUP(A18,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76)</f>
         <v>330</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <f>IF(A18="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0),0)</f>
         <v>0</v>
       </c>
@@ -13109,11 +13106,11 @@
         <f>IF(A18="B",Inputs!$E$75,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <f>B18</f>
         <v>330</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f>B15*E18</f>
         <v>0</v>
       </c>
@@ -13125,7 +13122,7 @@
         <f>1-_xlfn.XLOOKUP(A18,Inputs!$A$74:$A$76,Inputs!$F$74:$F$76)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f>F18</f>
         <v>0</v>
       </c>
@@ -13137,11 +13134,11 @@
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="44">
         <f>_xlfn.XLOOKUP(A19,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76)</f>
         <v>264</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="50">
         <f>IF(A19="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0),0)</f>
         <v>0.16</v>
       </c>
@@ -13149,11 +13146,11 @@
         <f>IF(A19="B",Inputs!$E$75,0)</f>
         <v>80</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <f>IF(B15&gt;0,F19/B15,B19)</f>
         <v>264</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <f>SUMPRODUCT(Compras_y_Lotes!F26:F33*(B19*(1-C19*(Compras_y_Lotes!F26:F33&gt;=D19))))</f>
         <v>0</v>
       </c>
@@ -13165,7 +13162,7 @@
         <f>1-_xlfn.XLOOKUP(A19,Inputs!$A$74:$A$76,Inputs!$F$74:$F$76)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <f>F19*1.05</f>
         <v>0</v>
       </c>
@@ -13177,11 +13174,11 @@
       <c r="A20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <f>_xlfn.XLOOKUP(A20,Inputs!$A$74:$A$76,Inputs!$B$74:$B$76)</f>
         <v>370</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <f>IF(A20="B",IFERROR(VALUE(SUBSTITUTE(LEFT(Inputs!$D$75,FIND("%",Inputs!$D$75)-1),"%",""))/100,0),0)</f>
         <v>0</v>
       </c>
@@ -13189,11 +13186,11 @@
         <f>IF(A20="B",Inputs!$E$75,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <f>B20</f>
         <v>370</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <f>B15*E20</f>
         <v>0</v>
       </c>
@@ -13205,7 +13202,7 @@
         <f>1-_xlfn.XLOOKUP(A20,Inputs!$A$74:$A$76,Inputs!$F$74:$F$76)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <f>F20*0.97</f>
         <v>0</v>
       </c>
@@ -13217,7 +13214,7 @@
       <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="52" t="str">
         <f>INDEX(A18:A20,MATCH(MIN(I18:I20),I18:I20,0))</f>
         <v>A</v>
       </c>
@@ -13239,7 +13236,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13249,49 +13246,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <f>Costos!F13</f>
         <v>222735.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <f>Cashflow_Compras!J9</f>
         <v>232926</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>197</v>
       </c>
       <c r="B7" s="7">
@@ -13303,22 +13300,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <f>MAX(Cashflow_Compras!B9:I9)</f>
         <v>232926</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -13326,10 +13323,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -13337,59 +13334,59 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="57" t="str">
+      <c r="B16" s="56" t="str">
         <f>Inputs!B58</f>
         <v>Ordering Cost</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="57" t="str">
+      <c r="B17" s="56" t="str">
         <f>Inputs!B69</f>
         <v>A</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="57" t="str">
+      <c r="B18" s="56" t="str">
         <f>Escenarios!B4</f>
         <v>Base</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="57">
         <f>COUNTIF(Inventario_Dinamico!J55:J62,"&lt;0")</f>
         <v>0</v>
       </c>
@@ -13398,19 +13395,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="58" t="str">
+      <c r="B28" s="57" t="str">
         <f>IF(OR(Inputs!B58="B",Inputs!B69="B"),"SÍ - REVISAR","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="58" t="str">
+      <c r="B29" s="57" t="str">
         <f>IF(Cashflow_Integrado!B37&gt;100000,"SÍ - ALERTA","NO")</f>
         <v>NO</v>
       </c>

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13EEFA5D-291B-4DC8-B58D-B9B4FB5E27DB}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726FFAC1-4C83-4955-8FD1-29016D92D8A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="333">
   <si>
     <t>INPUTS - PURCHASING MANAGER</t>
   </si>
@@ -1316,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1444,11 +1444,11 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1470,6 +1470,9 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1928,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2062,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2196,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2224,8 +2227,9 @@
       <c r="B35" s="6">
         <v>30</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>44</v>
+      <c r="C35" s="95">
+        <f t="shared" ref="C35:C42" si="0">B35</f>
+        <v>30</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>45</v>
@@ -2238,8 +2242,9 @@
       <c r="B36" s="6">
         <v>12</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>44</v>
+      <c r="C36" s="95">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>45</v>
@@ -2252,8 +2257,9 @@
       <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>44</v>
+      <c r="C37" s="95">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>46</v>
@@ -2266,8 +2272,9 @@
       <c r="B38" s="6">
         <v>100</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>44</v>
+      <c r="C38" s="95">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>47</v>
@@ -2280,8 +2287,9 @@
       <c r="B39" s="6">
         <v>30</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>44</v>
+      <c r="C39" s="95">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>48</v>
@@ -2294,8 +2302,9 @@
       <c r="B40" s="6">
         <v>60</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>44</v>
+      <c r="C40" s="95">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>49</v>
@@ -2308,8 +2317,9 @@
       <c r="B41" s="6">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>44</v>
+      <c r="C41" s="95">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>50</v>
@@ -2322,8 +2332,9 @@
       <c r="B42" s="6">
         <v>150</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>44</v>
+      <c r="C42" s="95">
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>51</v>
@@ -2348,12 +2359,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2378,7 +2389,7 @@
         <v>125</v>
       </c>
       <c r="C47" s="13">
-        <f t="shared" ref="C47:C54" si="0">B47/B35</f>
+        <f t="shared" ref="C47:C54" si="1">B47/B35</f>
         <v>4.166666666666667</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -2393,7 +2404,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -2408,7 +2419,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -2423,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -2438,7 +2449,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -2453,7 +2464,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -2468,7 +2479,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -2483,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18666666666666668</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -2491,13 +2502,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2556,15 +2567,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2655,15 +2666,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2754,12 +2765,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2860,22 +2871,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="79" t="s">
+      <c r="A89" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -2910,7 +2921,7 @@
         <v>925</v>
       </c>
       <c r="E91" s="22" t="str">
-        <f t="shared" ref="E91:E98" si="1">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
+        <f t="shared" ref="E91:E98" si="2">IF(B91&gt;=1.5,"NO","SÍ - RIESGO ALTO")</f>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2926,11 +2937,11 @@
         <v>231.25</v>
       </c>
       <c r="D92" s="21">
-        <f t="shared" ref="D91:D98" si="2">B92*C92</f>
+        <f t="shared" ref="D92:D98" si="3">B92*C92</f>
         <v>231.25</v>
       </c>
       <c r="E92" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2946,11 +2957,11 @@
         <v>16.1875</v>
       </c>
       <c r="D93" s="21">
+        <f t="shared" si="3"/>
+        <v>32.375</v>
+      </c>
+      <c r="E93" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>32.375</v>
-      </c>
-      <c r="E93" s="22" t="str">
-        <f t="shared" si="1"/>
         <v>NO</v>
       </c>
     </row>
@@ -2970,7 +2981,7 @@
         <v>12950</v>
       </c>
       <c r="E94" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -2986,11 +2997,11 @@
         <v>485.625</v>
       </c>
       <c r="D95" s="21">
+        <f t="shared" si="3"/>
+        <v>485.625</v>
+      </c>
+      <c r="E95" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>485.625</v>
-      </c>
-      <c r="E95" s="22" t="str">
-        <f t="shared" si="1"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3006,11 +3017,11 @@
         <v>971.25</v>
       </c>
       <c r="D96" s="21">
+        <f t="shared" si="3"/>
+        <v>971.25</v>
+      </c>
+      <c r="E96" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>971.25</v>
-      </c>
-      <c r="E96" s="22" t="str">
-        <f t="shared" si="1"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3026,11 +3037,11 @@
         <v>3237.5</v>
       </c>
       <c r="D97" s="21">
+        <f t="shared" si="3"/>
+        <v>3237.5</v>
+      </c>
+      <c r="E97" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>3237.5</v>
-      </c>
-      <c r="E97" s="22" t="str">
-        <f t="shared" si="1"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3046,11 +3057,11 @@
         <v>1214.0625</v>
       </c>
       <c r="D98" s="21">
+        <f t="shared" si="3"/>
+        <v>1214.0625</v>
+      </c>
+      <c r="E98" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>1214.0625</v>
-      </c>
-      <c r="E98" s="22" t="str">
-        <f t="shared" si="1"/>
         <v>SÍ - RIESGO ALTO</v>
       </c>
     </row>
@@ -3073,6 +3084,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3081,11 +3097,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3142,12 +3153,12 @@
       <c r="J2" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3194,18 +3205,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
@@ -3311,16 +3322,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -5357,48 +5368,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -5590,18 +5601,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5759,18 +5770,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5972,12 +5983,12 @@
       <c r="A27" s="91"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
@@ -6078,13 +6089,13 @@
       <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6218,13 +6229,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6404,13 +6415,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6620,13 +6631,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -6638,13 +6649,13 @@
       <c r="E2" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6832,14 +6843,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -6852,14 +6863,14 @@
       <c r="F2" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7231,16 +7242,16 @@
       <c r="H2" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8144,15 +8155,15 @@
       <c r="G2" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8264,20 +8275,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -8782,19 +8793,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -8827,19 +8838,19 @@
       <c r="K3" s="83"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9011,19 +9022,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9195,19 +9206,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9379,19 +9390,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9563,19 +9574,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9747,19 +9758,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9931,19 +9942,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -10115,19 +10126,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10299,18 +10310,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10674,6 +10685,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10681,11 +10697,6 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10760,20 +10771,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -10808,18 +10819,18 @@
       <c r="L3" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -11088,20 +11099,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -11833,14 +11844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -12106,20 +12117,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -12354,14 +12365,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -12551,14 +12562,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12824,18 +12835,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
@@ -12852,18 +12863,18 @@
       <c r="J2" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13036,18 +13047,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13258,16 +13269,16 @@
       <c r="H1" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
@@ -13334,16 +13345,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726FFAC1-4C83-4955-8FD1-29016D92D8A2}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26934951-94C9-4BB0-8F4D-42F9309090FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,11 +1444,14 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1470,9 +1473,6 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,49 +1821,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1931,12 +1931,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -2065,12 +2065,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2227,8 +2227,8 @@
       <c r="B35" s="6">
         <v>30</v>
       </c>
-      <c r="C35" s="95">
-        <f t="shared" ref="C35:C42" si="0">B35</f>
+      <c r="C35" s="75">
+        <f>B35</f>
         <v>30</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -2242,8 +2242,8 @@
       <c r="B36" s="6">
         <v>12</v>
       </c>
-      <c r="C36" s="95">
-        <f t="shared" si="0"/>
+      <c r="C36" s="75">
+        <f t="shared" ref="C35:C42" si="0">B36</f>
         <v>12</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -2257,7 +2257,7 @@
       <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="95">
+      <c r="C37" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="B38" s="6">
         <v>100</v>
       </c>
-      <c r="C38" s="95">
+      <c r="C38" s="75">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="B39" s="6">
         <v>30</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="75">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="B40" s="6">
         <v>60</v>
       </c>
-      <c r="C40" s="95">
+      <c r="C40" s="75">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="B41" s="6">
         <v>100</v>
       </c>
-      <c r="C41" s="95">
+      <c r="C41" s="75">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="B42" s="6">
         <v>150</v>
       </c>
-      <c r="C42" s="95">
+      <c r="C42" s="75">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -2359,12 +2359,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -2502,13 +2502,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2567,15 +2567,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2666,15 +2666,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2765,12 +2765,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -2871,22 +2871,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -3084,11 +3084,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -3097,6 +3092,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3125,40 +3125,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3205,18 +3205,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
@@ -3322,16 +3322,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -3383,7 +3383,7 @@
         <f>C20+F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="89"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -3409,7 +3409,7 @@
         <f>C21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="89"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -3435,7 +3435,7 @@
         <f>C22+F22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="89"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -3461,7 +3461,7 @@
         <f>C23+F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="89"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5368,48 +5368,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -5601,18 +5601,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -5770,18 +5770,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="92" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="67">
@@ -5980,15 +5980,15 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
+      <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
@@ -6071,31 +6071,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6229,13 +6229,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6415,13 +6415,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -6631,31 +6631,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6843,34 +6843,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7218,40 +7218,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8133,37 +8133,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8275,52 +8275,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -8718,10 +8718,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="27">
         <f>MRP_LeadTimes!B$14</f>
         <v>1850</v>
@@ -8793,64 +8793,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -9022,19 +9022,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -9206,19 +9206,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9390,19 +9390,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -9574,19 +9574,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -9758,19 +9758,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -9942,19 +9942,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -10126,19 +10126,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -10310,18 +10310,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -10685,11 +10685,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -10697,6 +10692,11 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -10771,66 +10771,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -11084,35 +11084,35 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="37">
         <f>SUM(H7:H12)</f>
         <v>232926</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -11150,7 +11150,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="85" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -11193,7 +11193,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
@@ -11234,7 +11234,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
@@ -11275,7 +11275,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
@@ -11316,7 +11316,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="10" t="s">
         <v>8</v>
       </c>
@@ -11357,7 +11357,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
@@ -11398,7 +11398,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
@@ -11480,7 +11480,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="85" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -11523,7 +11523,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
@@ -11646,7 +11646,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
@@ -11687,7 +11687,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
@@ -11728,7 +11728,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
@@ -11769,7 +11769,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -11844,24 +11844,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
@@ -12117,52 +12117,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -12365,24 +12365,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -12562,14 +12562,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -12835,46 +12835,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13047,18 +13047,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13257,28 +13257,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
@@ -13345,16 +13345,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
@@ -13384,14 +13384,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1452" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E874E53-20F8-40C6-9FB0-788DAACAD874}"/>
+  <xr:revisionPtr revIDLastSave="1454" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6DDF53-4FFC-4BFC-9657-BE1EEBE607D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUYING_PLAN_FINAL" sheetId="18" r:id="rId1"/>
@@ -1540,11 +1540,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1900,9 +1900,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A400F51-E34A-4A09-95B7-36AB560DF3C2}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3506,18 +3519,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -3534,18 +3547,18 @@
       <c r="J2" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3718,18 +3731,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3940,16 +3953,16 @@
       <c r="H1" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
@@ -4016,16 +4029,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
@@ -4156,12 +4169,12 @@
       <c r="J2" s="92"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -4208,18 +4221,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
@@ -4325,16 +4338,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -6371,48 +6384,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -6604,18 +6617,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -6773,18 +6786,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -6986,12 +6999,12 @@
       <c r="A27" s="93"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
@@ -7092,13 +7105,13 @@
       <c r="E2" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7232,13 +7245,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -7418,13 +7431,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -7634,13 +7647,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -7652,13 +7665,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7884,14 +7897,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -7904,14 +7917,14 @@
       <c r="F2" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8283,16 +8296,16 @@
       <c r="H2" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -9196,15 +9209,15 @@
       <c r="G2" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -9296,9 +9309,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32928A6-7983-4B6F-A007-D25FFAED40DF}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14285,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" ref="L99:L130" si="61">SUM(D99:K99)</f>
+        <f t="shared" ref="L99:L114" si="61">SUM(D99:K99)</f>
         <v>2160</v>
       </c>
       <c r="M99" t="str">
@@ -15067,7 +15089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -15081,49 +15103,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -15191,12 +15213,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -15325,12 +15347,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -15459,12 +15481,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -15619,12 +15641,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -15762,13 +15784,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -15827,15 +15849,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -15926,15 +15948,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -16025,12 +16047,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -16131,22 +16153,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="79" t="s">
+      <c r="A89" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -16431,11 +16453,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -16444,6 +16461,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16474,20 +16496,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -16992,19 +17014,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -17037,19 +17059,19 @@
       <c r="K3" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -17221,19 +17243,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -17405,19 +17427,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -17589,19 +17611,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -17773,19 +17795,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -17957,19 +17979,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -18141,19 +18163,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -18325,19 +18347,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -18509,18 +18531,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -18884,11 +18906,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -18896,6 +18913,11 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -18970,20 +18992,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -19018,18 +19040,18 @@
       <c r="L3" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -19298,20 +19320,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -20043,14 +20065,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20316,20 +20338,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20564,14 +20586,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20761,14 +20783,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">

--- a/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
+++ b/EXSIM_Mezquite_Purchasing_CORREGIDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc407a335d7300f/Documentos/GitHub/BusinessSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1454" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6DDF53-4FFC-4BFC-9657-BE1EEBE607D7}"/>
+  <xr:revisionPtr revIDLastSave="1457" documentId="11_300C377E292435E26BC7E9727970CF20457E0EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCE7A03-7322-4B16-858A-D21B6167890B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUYING_PLAN_FINAL" sheetId="18" r:id="rId1"/>
@@ -1540,11 +1540,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1717,6 +1717,32 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{755CA75F-B267-4348-BBDD-78A8489D6E39}" name="Tabla1" displayName="Tabla1" ref="A2:M114" totalsRowShown="0">
+  <autoFilter ref="A2:M114" xr:uid="{755CA75F-B267-4348-BBDD-78A8489D6E39}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1700684D-84D7-499C-824D-B14B9A4D258D}" name="Plant"/>
+    <tableColumn id="2" xr3:uid="{8BD79F2D-65F0-4C0A-A419-11F6586B20A7}" name="Material"/>
+    <tableColumn id="3" xr3:uid="{A1C6E151-99A9-42D9-AB55-F0EBFB837F0C}" name="Metric"/>
+    <tableColumn id="4" xr3:uid="{880230FF-D89F-4B82-9F04-EBACC6C66E00}" name="Q1"/>
+    <tableColumn id="5" xr3:uid="{06201583-445D-4BD8-BF50-4A7339BFA817}" name="Q2"/>
+    <tableColumn id="6" xr3:uid="{5EB6791D-BD4D-420F-BB44-86F65C91375E}" name="Q3"/>
+    <tableColumn id="7" xr3:uid="{F946A5B3-90E0-496B-9A11-27340E5B9CB7}" name="Q4"/>
+    <tableColumn id="8" xr3:uid="{4EC02074-9CE9-4FBB-B5B7-BA31EE76B81C}" name="Q5"/>
+    <tableColumn id="9" xr3:uid="{633E3306-263B-439F-8BDE-2D1C63471776}" name="Q6"/>
+    <tableColumn id="10" xr3:uid="{F82B9934-E81A-4A7C-B1D0-1B2A66F18B7E}" name="Q7"/>
+    <tableColumn id="11" xr3:uid="{AD4E46C9-6E7E-41CB-9C54-606AA62746FF}" name="Q8"/>
+    <tableColumn id="12" xr3:uid="{2BC79FB8-2119-4243-8DAC-264DDA0DA264}" name="Total">
+      <calculatedColumnFormula>SUM(D3:K3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{70988DB8-BD26-465B-A8E1-EE9588C0FE98}" name="Key">
+      <calculatedColumnFormula>A3&amp;"|"&amp;B3&amp;"|"&amp;C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3519,18 +3545,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -3547,18 +3573,18 @@
       <c r="J2" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3731,18 +3757,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3953,16 +3979,16 @@
       <c r="H1" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
@@ -4029,16 +4055,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
@@ -4169,12 +4195,12 @@
       <c r="J2" s="92"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -4221,18 +4247,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
@@ -4338,16 +4364,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -6384,48 +6410,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -6617,18 +6643,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -6786,18 +6812,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -6999,12 +7025,12 @@
       <c r="A27" s="93"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
@@ -7105,13 +7131,13 @@
       <c r="E2" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7245,13 +7271,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -7431,13 +7457,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -7647,13 +7673,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -7665,13 +7691,13 @@
       <c r="E2" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -7897,14 +7923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -7917,14 +7943,14 @@
       <c r="F2" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8296,16 +8322,16 @@
       <c r="H2" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -9177,7 +9203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -9209,15 +9235,15 @@
       <c r="G2" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -9309,14 +9335,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32928A6-7983-4B6F-A007-D25FFAED40DF}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.77734375" bestFit="1" customWidth="1"/>
@@ -15082,6 +15108,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15089,7 +15118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -15103,49 +15132,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -15213,12 +15242,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -15347,12 +15376,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -15481,12 +15510,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -15641,12 +15670,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
@@ -15784,13 +15813,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -15849,15 +15878,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="79" t="s">
+      <c r="A64" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -15948,15 +15977,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -16047,12 +16076,12 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -16153,22 +16182,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
@@ -16453,6 +16482,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A89:E89"/>
@@ -16461,11 +16495,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16496,20 +16525,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -17014,19 +17043,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -17059,19 +17088,19 @@
       <c r="K3" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -17243,19 +17272,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -17427,19 +17456,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -17611,19 +17640,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -17795,19 +17824,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -17979,19 +18008,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -18163,19 +18192,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -18347,19 +18376,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -18531,18 +18560,18 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -18906,6 +18935,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="A17:K17"/>
@@ -18913,11 +18947,6 @@
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:I10">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
@@ -18992,20 +19021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -19040,18 +19069,18 @@
       <c r="L3" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
@@ -19320,20 +19349,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -20065,14 +20094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20338,20 +20367,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20586,14 +20615,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -20783,14 +20812,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
